--- a/Annex 1 CubeSat_Overview_Spreadsheet.xlsx
+++ b/Annex 1 CubeSat_Overview_Spreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="140" windowWidth="15720" windowHeight="15320" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="140" windowWidth="23920" windowHeight="15320" tabRatio="740" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CubeSat Design Summary" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="176">
   <si>
     <t>Attitude Determination and Control Subsystem</t>
   </si>
@@ -694,22 +694,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Comments 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(specify if highly degradrable or requires special handing instructions)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Shelf Life 
 </t>
     </r>
@@ -792,12 +776,115 @@
   <si>
     <t>After finishing the link budget analysis, copy the complete results from the summary sheets for downlink budget (sheet 7) to this sheet.</t>
   </si>
+  <si>
+    <t>Inertial Measurement Unit</t>
+  </si>
+  <si>
+    <t>Total Price ($)</t>
+  </si>
+  <si>
+    <t>Self Manufacture</t>
+  </si>
+  <si>
+    <t>Air Core Magnetorquer (n = 312 turns, A = 0.0064m^2)</t>
+  </si>
+  <si>
+    <t>Copper Wire 0.18mm</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithium Ion/Polymer </t>
+  </si>
+  <si>
+    <t>Adafruit USB/DC Charger</t>
+  </si>
+  <si>
+    <t>Solar Panels</t>
+  </si>
+  <si>
+    <t>Comms Tx</t>
+  </si>
+  <si>
+    <t>Comms Rx</t>
+  </si>
+  <si>
+    <t>Kapton Tape</t>
+  </si>
+  <si>
+    <t>Overall Price</t>
+  </si>
+  <si>
+    <t>Polymide</t>
+  </si>
+  <si>
+    <t>12 Months</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Comments 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(specify if highly degradrable or requires special handling instructions)</t>
+    </r>
+  </si>
+  <si>
+    <t>Arducam Mini</t>
+  </si>
+  <si>
+    <t>SD Card</t>
+  </si>
+  <si>
+    <t>Amplifier Tx</t>
+  </si>
+  <si>
+    <t>Multi-Layer Insulating Material</t>
+  </si>
+  <si>
+    <t>Voltage Regulators</t>
+  </si>
+  <si>
+    <t>Iduino Due (Include USB serial connector)</t>
+  </si>
+  <si>
+    <t>OSRAM SFH203P Photodiode</t>
+  </si>
+  <si>
+    <t>PCBs</t>
+  </si>
+  <si>
+    <t>Current Sensors</t>
+  </si>
+  <si>
+    <t>Adafruit Ultimate GPS Breakout</t>
+  </si>
+  <si>
+    <t>Adafruit SPI Non-Volatile FRAM Breakout</t>
+  </si>
+  <si>
+    <t>0.8mm Alumium 6061</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Silicon Pin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,8 +1000,39 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1047,8 +1165,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="67">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -1884,11 +2014,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1902,9 +2057,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2049,9 +2201,6 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2065,6 +2214,115 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2073,119 +2331,180 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
@@ -2208,196 +2527,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2405,9 +2595,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2438,15 +2625,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2465,35 +2679,113 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2504,116 +2796,20 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2940,1586 +3136,1667 @@
     <col min="17" max="17" width="16.1640625" style="8" customWidth="1"/>
     <col min="18" max="18" width="12.5" style="8" customWidth="1"/>
     <col min="19" max="19" width="27.5" style="8" customWidth="1"/>
-    <col min="20" max="20" width="13.5" style="55" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" style="55" customWidth="1"/>
-    <col min="22" max="24" width="9.1640625" style="55"/>
+    <col min="20" max="20" width="13.5" style="54" customWidth="1"/>
+    <col min="21" max="21" width="12.83203125" style="54" customWidth="1"/>
+    <col min="22" max="24" width="9.1640625" style="54"/>
     <col min="25" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="15" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="128"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="147"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
     </row>
     <row r="2" spans="1:43" ht="15" customHeight="1">
-      <c r="A2" s="129"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="131"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57" t="s">
+      <c r="A2" s="148"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="150"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="57"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
     </row>
     <row r="3" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="132"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="134"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57" t="s">
+      <c r="A3" s="151"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="153"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="57"/>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="57"/>
-      <c r="AQ3" s="57"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="56"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" customHeight="1">
-      <c r="A4" s="153" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
-      <c r="L4" s="153"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="154"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57" t="s">
+      <c r="A4" s="120" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="121"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="V4" s="57" t="s">
+      <c r="V4" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="57"/>
-      <c r="AK4" s="57"/>
-      <c r="AL4" s="57"/>
-      <c r="AM4" s="57"/>
-      <c r="AN4" s="57"/>
-      <c r="AO4" s="57"/>
-      <c r="AP4" s="57"/>
-      <c r="AQ4" s="57"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="56"/>
     </row>
     <row r="5" spans="1:43" ht="15.75" customHeight="1">
-      <c r="A5" s="155"/>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="155"/>
-      <c r="K5" s="155"/>
-      <c r="L5" s="155"/>
-      <c r="M5" s="155"/>
-      <c r="N5" s="156"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="57" t="s">
+      <c r="A5" s="122"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="123"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="U5" s="57" t="s">
+      <c r="U5" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="57"/>
-      <c r="AD5" s="57"/>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="57"/>
-      <c r="AG5" s="57"/>
-      <c r="AH5" s="57"/>
-      <c r="AI5" s="57"/>
-      <c r="AJ5" s="57"/>
-      <c r="AK5" s="57"/>
-      <c r="AL5" s="57"/>
-      <c r="AM5" s="57"/>
-      <c r="AN5" s="57"/>
-      <c r="AO5" s="57"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="57"/>
-    </row>
-    <row r="6" spans="1:43" s="22" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A6" s="155"/>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="155"/>
-      <c r="M6" s="155"/>
-      <c r="N6" s="156"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="56"/>
+    </row>
+    <row r="6" spans="1:43" s="21" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A6" s="122"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="122"/>
+      <c r="N6" s="123"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58" t="s">
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="V6" s="58"/>
-      <c r="W6" s="58"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="58"/>
-      <c r="AB6" s="58"/>
-      <c r="AC6" s="58"/>
-      <c r="AD6" s="58"/>
-      <c r="AE6" s="58"/>
-      <c r="AF6" s="58"/>
-      <c r="AG6" s="58"/>
-      <c r="AH6" s="58"/>
-      <c r="AI6" s="58"/>
-      <c r="AJ6" s="58"/>
-      <c r="AK6" s="58"/>
-      <c r="AL6" s="58"/>
-      <c r="AM6" s="58"/>
-      <c r="AN6" s="58"/>
-      <c r="AO6" s="58"/>
-      <c r="AP6" s="58"/>
-      <c r="AQ6" s="58"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="57"/>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="57"/>
+      <c r="AF6" s="57"/>
+      <c r="AG6" s="57"/>
+      <c r="AH6" s="57"/>
+      <c r="AI6" s="57"/>
+      <c r="AJ6" s="57"/>
+      <c r="AK6" s="57"/>
+      <c r="AL6" s="57"/>
+      <c r="AM6" s="57"/>
+      <c r="AN6" s="57"/>
+      <c r="AO6" s="57"/>
+      <c r="AP6" s="57"/>
+      <c r="AQ6" s="57"/>
     </row>
     <row r="7" spans="1:43" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="148" t="s">
+      <c r="A7" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="149"/>
-      <c r="K7" s="149"/>
-      <c r="L7" s="149"/>
-      <c r="M7" s="149"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="57"/>
-      <c r="AG7" s="57"/>
-      <c r="AH7" s="57"/>
-      <c r="AI7" s="57"/>
-      <c r="AJ7" s="57"/>
-      <c r="AK7" s="57"/>
-      <c r="AL7" s="57"/>
-      <c r="AM7" s="57"/>
-      <c r="AN7" s="57"/>
-      <c r="AO7" s="57"/>
-      <c r="AP7" s="57"/>
-      <c r="AQ7" s="57"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="56"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="56"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="56"/>
+      <c r="AN7" s="56"/>
+      <c r="AO7" s="56"/>
+      <c r="AP7" s="56"/>
+      <c r="AQ7" s="56"/>
     </row>
     <row r="8" spans="1:43" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57" t="s">
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="134"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="57"/>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="57"/>
-      <c r="AF8" s="57"/>
-      <c r="AG8" s="57"/>
-      <c r="AH8" s="57"/>
-      <c r="AI8" s="57"/>
-      <c r="AJ8" s="57"/>
-      <c r="AK8" s="57"/>
-      <c r="AL8" s="57"/>
-      <c r="AM8" s="57"/>
-      <c r="AN8" s="57"/>
-      <c r="AO8" s="57"/>
-      <c r="AP8" s="57"/>
-      <c r="AQ8" s="57"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="56"/>
+      <c r="AN8" s="56"/>
+      <c r="AO8" s="56"/>
+      <c r="AP8" s="56"/>
+      <c r="AQ8" s="56"/>
     </row>
     <row r="9" spans="1:43" ht="15" customHeight="1">
-      <c r="A9" s="139"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57" t="s">
+      <c r="A9" s="160"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="135"/>
+      <c r="M9" s="135"/>
+      <c r="N9" s="135"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="57"/>
-      <c r="AD9" s="57"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="57"/>
-      <c r="AG9" s="57"/>
-      <c r="AH9" s="57"/>
-      <c r="AI9" s="57"/>
-      <c r="AJ9" s="57"/>
-      <c r="AK9" s="57"/>
-      <c r="AL9" s="57"/>
-      <c r="AM9" s="57"/>
-      <c r="AN9" s="57"/>
-      <c r="AO9" s="57"/>
-      <c r="AP9" s="57"/>
-      <c r="AQ9" s="57"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="56"/>
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="56"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="56"/>
+      <c r="AN9" s="56"/>
+      <c r="AO9" s="56"/>
+      <c r="AP9" s="56"/>
+      <c r="AQ9" s="56"/>
     </row>
     <row r="10" spans="1:43" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="140"/>
-      <c r="B10" s="142"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="57"/>
-      <c r="AD10" s="57"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="57"/>
-      <c r="AG10" s="57"/>
-      <c r="AH10" s="57"/>
-      <c r="AI10" s="57"/>
-      <c r="AJ10" s="57"/>
-      <c r="AK10" s="57"/>
-      <c r="AL10" s="57"/>
-      <c r="AM10" s="57"/>
-      <c r="AN10" s="57"/>
-      <c r="AO10" s="57"/>
-      <c r="AP10" s="57"/>
-      <c r="AQ10" s="57"/>
+      <c r="A10" s="161"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="136"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="56"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="56"/>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="56"/>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="56"/>
+      <c r="AP10" s="56"/>
+      <c r="AQ10" s="56"/>
     </row>
     <row r="11" spans="1:43" ht="16" thickTop="1" thickBot="1">
-      <c r="A11" s="171" t="s">
+      <c r="A11" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="172"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="172"/>
-      <c r="L11" s="172"/>
-      <c r="M11" s="172"/>
-      <c r="N11" s="173"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57" t="s">
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="57"/>
-      <c r="AG11" s="57"/>
-      <c r="AH11" s="57"/>
-      <c r="AI11" s="57"/>
-      <c r="AJ11" s="57"/>
-      <c r="AK11" s="57"/>
-      <c r="AL11" s="57"/>
-      <c r="AM11" s="57"/>
-      <c r="AN11" s="57"/>
-      <c r="AO11" s="57"/>
-      <c r="AP11" s="57"/>
-      <c r="AQ11" s="57"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="56"/>
+      <c r="AK11" s="56"/>
+      <c r="AL11" s="56"/>
+      <c r="AM11" s="56"/>
+      <c r="AN11" s="56"/>
+      <c r="AO11" s="56"/>
+      <c r="AP11" s="56"/>
+      <c r="AQ11" s="56"/>
     </row>
     <row r="12" spans="1:43" ht="33" customHeight="1" thickTop="1">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="165"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="165"/>
-      <c r="K12" s="165"/>
-      <c r="L12" s="165"/>
-      <c r="M12" s="165"/>
-      <c r="N12" s="165"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57" t="s">
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="137"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="57"/>
-      <c r="AC12" s="57"/>
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="57"/>
-      <c r="AG12" s="57"/>
-      <c r="AH12" s="57"/>
-      <c r="AI12" s="57"/>
-      <c r="AJ12" s="57"/>
-      <c r="AK12" s="57"/>
-      <c r="AL12" s="57"/>
-      <c r="AM12" s="57"/>
-      <c r="AN12" s="57"/>
-      <c r="AO12" s="57"/>
-      <c r="AP12" s="57"/>
-      <c r="AQ12" s="57"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="56"/>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="56"/>
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="56"/>
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="56"/>
+      <c r="AP12" s="56"/>
+      <c r="AQ12" s="56"/>
     </row>
     <row r="13" spans="1:43">
-      <c r="A13" s="109"/>
-      <c r="B13" s="168"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="166"/>
-      <c r="I13" s="166"/>
-      <c r="J13" s="166"/>
-      <c r="K13" s="166"/>
-      <c r="L13" s="166"/>
-      <c r="M13" s="166"/>
-      <c r="N13" s="166"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57" t="s">
+      <c r="A13" s="117"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="57"/>
-      <c r="AC13" s="57"/>
-      <c r="AD13" s="57"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="57"/>
-      <c r="AG13" s="57"/>
-      <c r="AH13" s="57"/>
-      <c r="AI13" s="57"/>
-      <c r="AJ13" s="57"/>
-      <c r="AK13" s="57"/>
-      <c r="AL13" s="57"/>
-      <c r="AM13" s="57"/>
-      <c r="AN13" s="57"/>
-      <c r="AO13" s="57"/>
-      <c r="AP13" s="57"/>
-      <c r="AQ13" s="57"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="56"/>
+      <c r="AF13" s="56"/>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="56"/>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="56"/>
+      <c r="AK13" s="56"/>
+      <c r="AL13" s="56"/>
+      <c r="AM13" s="56"/>
+      <c r="AN13" s="56"/>
+      <c r="AO13" s="56"/>
+      <c r="AP13" s="56"/>
+      <c r="AQ13" s="56"/>
     </row>
     <row r="14" spans="1:43" ht="15" thickBot="1">
-      <c r="A14" s="110"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
-      <c r="L14" s="167"/>
-      <c r="M14" s="167"/>
-      <c r="N14" s="167"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57" t="s">
+      <c r="A14" s="165"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="139"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="139"/>
+      <c r="N14" s="139"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="57"/>
-      <c r="AC14" s="57"/>
-      <c r="AD14" s="57"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="57"/>
-      <c r="AG14" s="57"/>
-      <c r="AH14" s="57"/>
-      <c r="AI14" s="57"/>
-      <c r="AJ14" s="57"/>
-      <c r="AK14" s="57"/>
-      <c r="AL14" s="57"/>
-      <c r="AM14" s="57"/>
-      <c r="AN14" s="57"/>
-      <c r="AO14" s="57"/>
-      <c r="AP14" s="57"/>
-      <c r="AQ14" s="57"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="56"/>
+      <c r="AH14" s="56"/>
+      <c r="AI14" s="56"/>
+      <c r="AJ14" s="56"/>
+      <c r="AK14" s="56"/>
+      <c r="AL14" s="56"/>
+      <c r="AM14" s="56"/>
+      <c r="AN14" s="56"/>
+      <c r="AO14" s="56"/>
+      <c r="AP14" s="56"/>
+      <c r="AQ14" s="56"/>
     </row>
     <row r="15" spans="1:43" ht="16" thickTop="1" thickBot="1">
-      <c r="A15" s="112" t="s">
+      <c r="A15" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="172"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="172"/>
-      <c r="K15" s="172"/>
-      <c r="L15" s="172"/>
-      <c r="M15" s="172"/>
-      <c r="N15" s="173"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="57"/>
-      <c r="AC15" s="57"/>
-      <c r="AD15" s="57"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="57"/>
-      <c r="AG15" s="57"/>
-      <c r="AH15" s="57"/>
-      <c r="AI15" s="57"/>
-      <c r="AJ15" s="57"/>
-      <c r="AK15" s="57"/>
-      <c r="AL15" s="57"/>
-      <c r="AM15" s="57"/>
-      <c r="AN15" s="57"/>
-      <c r="AO15" s="57"/>
-      <c r="AP15" s="57"/>
-      <c r="AQ15" s="57"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="56"/>
+      <c r="AF15" s="56"/>
+      <c r="AG15" s="56"/>
+      <c r="AH15" s="56"/>
+      <c r="AI15" s="56"/>
+      <c r="AJ15" s="56"/>
+      <c r="AK15" s="56"/>
+      <c r="AL15" s="56"/>
+      <c r="AM15" s="56"/>
+      <c r="AN15" s="56"/>
+      <c r="AO15" s="56"/>
+      <c r="AP15" s="56"/>
+      <c r="AQ15" s="56"/>
     </row>
     <row r="16" spans="1:43" ht="54" customHeight="1" thickTop="1">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="159" t="s">
+      <c r="B16" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="160" t="s">
+      <c r="C16" s="128" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="162" t="s">
+      <c r="D16" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="163" t="s">
+      <c r="E16" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="F16" s="123" t="s">
+      <c r="F16" s="178" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="124"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="84" t="s">
+      <c r="G16" s="179"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="116"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="57"/>
-      <c r="AH16" s="57"/>
-      <c r="AI16" s="57"/>
-      <c r="AJ16" s="57"/>
-      <c r="AK16" s="57"/>
-      <c r="AL16" s="57"/>
-      <c r="AM16" s="57"/>
-      <c r="AN16" s="57"/>
-      <c r="AO16" s="57"/>
-      <c r="AP16" s="57"/>
-      <c r="AQ16" s="57"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="172"/>
+      <c r="N16" s="173"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="56"/>
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="56"/>
+      <c r="AN16" s="56"/>
+      <c r="AO16" s="56"/>
+      <c r="AP16" s="56"/>
+      <c r="AQ16" s="56"/>
     </row>
     <row r="17" spans="1:43" ht="59.25" customHeight="1">
-      <c r="A17" s="158"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="161"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="48" t="s">
+      <c r="A17" s="125"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="48" t="s">
+      <c r="G17" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="J17" s="21" t="s">
+      <c r="J17" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="35" t="s">
+      <c r="K17" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="L17" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="M17" s="117"/>
-      <c r="N17" s="118"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="57"/>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="57"/>
-      <c r="AB17" s="57"/>
-      <c r="AC17" s="57"/>
-      <c r="AD17" s="57"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="57"/>
-      <c r="AG17" s="57"/>
-      <c r="AH17" s="57"/>
-      <c r="AI17" s="57"/>
-      <c r="AJ17" s="57"/>
-      <c r="AK17" s="57"/>
-      <c r="AL17" s="57"/>
-      <c r="AM17" s="57"/>
-      <c r="AN17" s="57"/>
-      <c r="AO17" s="57"/>
-      <c r="AP17" s="57"/>
-      <c r="AQ17" s="57"/>
+      <c r="M17" s="174"/>
+      <c r="N17" s="175"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="56"/>
+      <c r="AF17" s="56"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="56"/>
+      <c r="AI17" s="56"/>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="56"/>
+      <c r="AL17" s="56"/>
+      <c r="AM17" s="56"/>
+      <c r="AN17" s="56"/>
+      <c r="AO17" s="56"/>
+      <c r="AP17" s="56"/>
+      <c r="AQ17" s="56"/>
     </row>
     <row r="18" spans="1:43">
-      <c r="A18" s="79"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="117"/>
-      <c r="N18" s="118"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="57"/>
-      <c r="AC18" s="57"/>
-      <c r="AD18" s="57"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="57"/>
-      <c r="AG18" s="57"/>
-      <c r="AH18" s="57"/>
-      <c r="AI18" s="57"/>
-      <c r="AJ18" s="57"/>
-      <c r="AK18" s="57"/>
-      <c r="AL18" s="57"/>
-      <c r="AM18" s="57"/>
-      <c r="AN18" s="57"/>
-      <c r="AO18" s="57"/>
-      <c r="AP18" s="57"/>
-      <c r="AQ18" s="57"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="174"/>
+      <c r="N18" s="175"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="56"/>
+      <c r="AF18" s="56"/>
+      <c r="AG18" s="56"/>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="56"/>
+      <c r="AJ18" s="56"/>
+      <c r="AK18" s="56"/>
+      <c r="AL18" s="56"/>
+      <c r="AM18" s="56"/>
+      <c r="AN18" s="56"/>
+      <c r="AO18" s="56"/>
+      <c r="AP18" s="56"/>
+      <c r="AQ18" s="56"/>
     </row>
     <row r="19" spans="1:43" ht="15" thickBot="1">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="120"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="57"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="57"/>
-      <c r="AB19" s="57"/>
-      <c r="AC19" s="57"/>
-      <c r="AD19" s="57"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="57"/>
-      <c r="AG19" s="57"/>
-      <c r="AH19" s="57"/>
-      <c r="AI19" s="57"/>
-      <c r="AJ19" s="57"/>
-      <c r="AK19" s="57"/>
-      <c r="AL19" s="57"/>
-      <c r="AM19" s="57"/>
-      <c r="AN19" s="57"/>
-      <c r="AO19" s="57"/>
-      <c r="AP19" s="57"/>
-      <c r="AQ19" s="57"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="176"/>
+      <c r="N19" s="177"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="56"/>
+      <c r="AF19" s="56"/>
+      <c r="AG19" s="56"/>
+      <c r="AH19" s="56"/>
+      <c r="AI19" s="56"/>
+      <c r="AJ19" s="56"/>
+      <c r="AK19" s="56"/>
+      <c r="AL19" s="56"/>
+      <c r="AM19" s="56"/>
+      <c r="AN19" s="56"/>
+      <c r="AO19" s="56"/>
+      <c r="AP19" s="56"/>
+      <c r="AQ19" s="56"/>
     </row>
     <row r="20" spans="1:43" ht="16" thickTop="1" thickBot="1">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="172"/>
-      <c r="C20" s="172"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="172"/>
-      <c r="K20" s="172"/>
-      <c r="L20" s="172"/>
-      <c r="M20" s="172"/>
-      <c r="N20" s="173"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="57"/>
-      <c r="AC20" s="57"/>
-      <c r="AD20" s="57"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="57"/>
-      <c r="AG20" s="57"/>
-      <c r="AH20" s="57"/>
-      <c r="AI20" s="57"/>
-      <c r="AJ20" s="57"/>
-      <c r="AK20" s="57"/>
-      <c r="AL20" s="57"/>
-      <c r="AM20" s="57"/>
-      <c r="AN20" s="57"/>
-      <c r="AO20" s="57"/>
-      <c r="AP20" s="57"/>
-      <c r="AQ20" s="57"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="56"/>
+      <c r="AL20" s="56"/>
+      <c r="AM20" s="56"/>
+      <c r="AN20" s="56"/>
+      <c r="AO20" s="56"/>
+      <c r="AP20" s="56"/>
+      <c r="AQ20" s="56"/>
     </row>
     <row r="21" spans="1:43" ht="29" thickTop="1">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="99"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="57"/>
-      <c r="AC21" s="57"/>
-      <c r="AD21" s="57"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="57"/>
-      <c r="AG21" s="57"/>
-      <c r="AH21" s="57"/>
-      <c r="AI21" s="57"/>
-      <c r="AJ21" s="57"/>
-      <c r="AK21" s="57"/>
-      <c r="AL21" s="57"/>
-      <c r="AM21" s="57"/>
-      <c r="AN21" s="57"/>
-      <c r="AO21" s="57"/>
-      <c r="AP21" s="57"/>
-      <c r="AQ21" s="57"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="103"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="56"/>
+      <c r="AC21" s="56"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="56"/>
+      <c r="AF21" s="56"/>
+      <c r="AG21" s="56"/>
+      <c r="AH21" s="56"/>
+      <c r="AI21" s="56"/>
+      <c r="AJ21" s="56"/>
+      <c r="AK21" s="56"/>
+      <c r="AL21" s="56"/>
+      <c r="AM21" s="56"/>
+      <c r="AN21" s="56"/>
+      <c r="AO21" s="56"/>
+      <c r="AP21" s="56"/>
+      <c r="AQ21" s="56"/>
     </row>
     <row r="22" spans="1:43">
-      <c r="A22" s="79"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="175"/>
-      <c r="I22" s="175"/>
-      <c r="J22" s="175"/>
-      <c r="K22" s="175"/>
-      <c r="L22" s="175"/>
-      <c r="M22" s="175"/>
-      <c r="N22" s="102"/>
+      <c r="A22" s="93"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="105"/>
     </row>
     <row r="23" spans="1:43" ht="15" thickBot="1">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="104"/>
-      <c r="M23" s="104"/>
-      <c r="N23" s="105"/>
+      <c r="A23" s="101"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="107"/>
     </row>
     <row r="24" spans="1:43" ht="16" thickTop="1" thickBot="1">
-      <c r="A24" s="112" t="s">
+      <c r="A24" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="172"/>
-      <c r="C24" s="172"/>
-      <c r="D24" s="172"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="172"/>
-      <c r="K24" s="172"/>
-      <c r="L24" s="172"/>
-      <c r="M24" s="172"/>
-      <c r="N24" s="173"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
     </row>
     <row r="25" spans="1:43" ht="15" thickTop="1">
-      <c r="A25" s="121" t="s">
+      <c r="A25" s="154" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="143"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="143"/>
-      <c r="K25" s="143"/>
-      <c r="L25" s="143"/>
-      <c r="M25" s="143"/>
-      <c r="N25" s="143"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="162"/>
+      <c r="J25" s="162"/>
+      <c r="K25" s="162"/>
+      <c r="L25" s="162"/>
+      <c r="M25" s="162"/>
+      <c r="N25" s="162"/>
     </row>
     <row r="26" spans="1:43">
-      <c r="A26" s="122"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="144"/>
-      <c r="L26" s="144"/>
-      <c r="M26" s="144"/>
-      <c r="N26" s="144"/>
+      <c r="A26" s="155"/>
+      <c r="B26" s="156"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="163"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="163"/>
+      <c r="K26" s="163"/>
+      <c r="L26" s="163"/>
+      <c r="M26" s="163"/>
+      <c r="N26" s="163"/>
     </row>
     <row r="27" spans="1:43">
-      <c r="A27" s="79"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="144"/>
-      <c r="J27" s="144"/>
-      <c r="K27" s="144"/>
-      <c r="L27" s="144"/>
-      <c r="M27" s="144"/>
-      <c r="N27" s="144"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="163"/>
+      <c r="K27" s="163"/>
+      <c r="L27" s="163"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="163"/>
     </row>
     <row r="28" spans="1:43" ht="15" thickBot="1">
-      <c r="A28" s="80"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="145"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="145"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="145"/>
+      <c r="A28" s="101"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="164"/>
+      <c r="L28" s="164"/>
+      <c r="M28" s="164"/>
+      <c r="N28" s="164"/>
     </row>
     <row r="29" spans="1:43" ht="16" thickTop="1" thickBot="1">
-      <c r="A29" s="112" t="s">
+      <c r="A29" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="172"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="172"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="172"/>
-      <c r="K29" s="172"/>
-      <c r="L29" s="172"/>
-      <c r="M29" s="172"/>
-      <c r="N29" s="173"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
     </row>
     <row r="30" spans="1:43" ht="15" thickTop="1">
-      <c r="A30" s="121" t="s">
+      <c r="A30" s="154" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="87" t="s">
+      <c r="B30" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="135" t="s">
+      <c r="C30" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="137" t="s">
+      <c r="D30" s="131" t="s">
         <v>119</v>
       </c>
-      <c r="E30" s="91" t="s">
+      <c r="E30" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="92"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="94" t="s">
+      <c r="F30" s="184"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="97"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="99"/>
+      <c r="I30" s="187"/>
+      <c r="J30" s="187"/>
+      <c r="K30" s="188"/>
+      <c r="L30" s="189"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="103"/>
     </row>
     <row r="31" spans="1:43">
-      <c r="A31" s="122"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="136"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="49" t="s">
+      <c r="A31" s="155"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="159"/>
+      <c r="E31" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F31" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="49" t="s">
+      <c r="G31" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="20" t="s">
+      <c r="J31" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K31" s="20" t="s">
+      <c r="K31" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L31" s="100"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="102"/>
+      <c r="L31" s="190"/>
+      <c r="M31" s="191"/>
+      <c r="N31" s="105"/>
     </row>
     <row r="32" spans="1:43">
-      <c r="A32" s="75"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="102"/>
+      <c r="A32" s="113"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="190"/>
+      <c r="M32" s="191"/>
+      <c r="N32" s="105"/>
     </row>
     <row r="33" spans="1:19" ht="15" thickBot="1">
-      <c r="A33" s="76"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="104"/>
-      <c r="N33" s="105"/>
+      <c r="A33" s="114"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="114"/>
+      <c r="I33" s="114"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="192"/>
+      <c r="M33" s="106"/>
+      <c r="N33" s="107"/>
     </row>
     <row r="34" spans="1:19" ht="16" thickTop="1" thickBot="1">
-      <c r="A34" s="178" t="s">
+      <c r="A34" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="179"/>
-      <c r="C34" s="179"/>
-      <c r="D34" s="179"/>
-      <c r="E34" s="179"/>
-      <c r="F34" s="179"/>
-      <c r="G34" s="179"/>
-      <c r="H34" s="179"/>
-      <c r="I34" s="179"/>
-      <c r="J34" s="179"/>
-      <c r="K34" s="179"/>
-      <c r="L34" s="179"/>
-      <c r="M34" s="179"/>
-      <c r="N34" s="180"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="112"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
     </row>
     <row r="35" spans="1:19" ht="27" customHeight="1" thickTop="1">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="193" t="s">
         <v>130</v>
       </c>
-      <c r="B35" s="81" t="s">
+      <c r="B35" s="195" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="84" t="s">
+      <c r="C35" s="196"/>
+      <c r="D35" s="196"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="196"/>
+      <c r="I35" s="197"/>
+      <c r="J35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="86"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="96"/>
     </row>
     <row r="36" spans="1:19" ht="39" customHeight="1">
-      <c r="A36" s="78"/>
-      <c r="B36" s="48" t="s">
+      <c r="A36" s="194"/>
+      <c r="B36" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="F36" s="50" t="s">
+      <c r="F36" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="G36" s="50" t="s">
+      <c r="G36" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="H36" s="50" t="s">
+      <c r="H36" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="I36" s="36" t="s">
+      <c r="I36" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="J36" s="46" t="s">
+      <c r="J36" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="K36" s="39" t="s">
+      <c r="K36" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="L36" s="39" t="s">
+      <c r="L36" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="M36" s="40" t="s">
+      <c r="M36" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="N36" s="54" t="s">
+      <c r="N36" s="53" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="79"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="176"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="75"/>
+      <c r="A37" s="93"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="181"/>
+      <c r="F37" s="181"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="108"/>
+      <c r="M37" s="113"/>
+      <c r="N37" s="113"/>
     </row>
     <row r="38" spans="1:19" ht="15" thickBot="1">
-      <c r="A38" s="80"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="177"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="76"/>
+      <c r="A38" s="101"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="182"/>
+      <c r="F38" s="182"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="114"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="109"/>
+      <c r="M38" s="114"/>
+      <c r="N38" s="114"/>
     </row>
     <row r="39" spans="1:19" ht="16" thickTop="1" thickBot="1">
-      <c r="A39" s="112" t="s">
+      <c r="A39" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="B39" s="113"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="113"/>
-      <c r="I39" s="113"/>
-      <c r="J39" s="113"/>
-      <c r="K39" s="113"/>
-      <c r="L39" s="113"/>
-      <c r="M39" s="113"/>
-      <c r="N39" s="114"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="44"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="170"/>
+      <c r="D39" s="170"/>
+      <c r="E39" s="170"/>
+      <c r="F39" s="170"/>
+      <c r="G39" s="170"/>
+      <c r="H39" s="170"/>
+      <c r="I39" s="170"/>
+      <c r="J39" s="170"/>
+      <c r="K39" s="170"/>
+      <c r="L39" s="170"/>
+      <c r="M39" s="170"/>
+      <c r="N39" s="171"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
     </row>
     <row r="40" spans="1:19" ht="15" thickTop="1">
-      <c r="A40" s="71" t="s">
+      <c r="A40" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="72" t="s">
+      <c r="B40" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="73" t="s">
+      <c r="C40" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="106"/>
-      <c r="H40" s="106"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="106"/>
-      <c r="K40" s="106"/>
-      <c r="L40" s="106"/>
-      <c r="M40" s="106"/>
-      <c r="N40" s="106"/>
+      <c r="D40" s="134"/>
+      <c r="E40" s="134"/>
+      <c r="F40" s="134"/>
+      <c r="G40" s="134"/>
+      <c r="H40" s="134"/>
+      <c r="I40" s="134"/>
+      <c r="J40" s="134"/>
+      <c r="K40" s="134"/>
+      <c r="L40" s="134"/>
+      <c r="M40" s="134"/>
+      <c r="N40" s="134"/>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="109"/>
-      <c r="B41" s="111"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="107"/>
-      <c r="K41" s="107"/>
-      <c r="L41" s="107"/>
-      <c r="M41" s="107"/>
-      <c r="N41" s="107"/>
+      <c r="A41" s="117"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="135"/>
+      <c r="F41" s="135"/>
+      <c r="G41" s="135"/>
+      <c r="H41" s="135"/>
+      <c r="I41" s="135"/>
+      <c r="J41" s="135"/>
+      <c r="K41" s="135"/>
+      <c r="L41" s="135"/>
+      <c r="M41" s="135"/>
+      <c r="N41" s="135"/>
     </row>
     <row r="42" spans="1:19" ht="15" customHeight="1" thickBot="1">
-      <c r="A42" s="110"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="108"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="108"/>
-      <c r="G42" s="108"/>
-      <c r="H42" s="108"/>
-      <c r="I42" s="108"/>
-      <c r="J42" s="108"/>
-      <c r="K42" s="108"/>
-      <c r="L42" s="108"/>
-      <c r="M42" s="108"/>
-      <c r="N42" s="108"/>
+      <c r="A42" s="165"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="136"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="136"/>
+      <c r="H42" s="136"/>
+      <c r="I42" s="136"/>
+      <c r="J42" s="136"/>
+      <c r="K42" s="136"/>
+      <c r="L42" s="136"/>
+      <c r="M42" s="136"/>
+      <c r="N42" s="136"/>
     </row>
     <row r="43" spans="1:19" ht="16" thickTop="1" thickBot="1">
-      <c r="A43" s="112" t="s">
+      <c r="A43" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="172"/>
-      <c r="C43" s="172"/>
-      <c r="D43" s="172"/>
-      <c r="E43" s="172"/>
-      <c r="F43" s="172"/>
-      <c r="G43" s="172"/>
-      <c r="H43" s="172"/>
-      <c r="I43" s="172"/>
-      <c r="J43" s="172"/>
-      <c r="K43" s="172"/>
-      <c r="L43" s="172"/>
-      <c r="M43" s="172"/>
-      <c r="N43" s="173"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="99"/>
+      <c r="M43" s="99"/>
+      <c r="N43" s="100"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
     </row>
     <row r="44" spans="1:19" ht="29" thickTop="1">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="151"/>
-      <c r="D44" s="151"/>
-      <c r="E44" s="151"/>
-      <c r="F44" s="151"/>
-      <c r="G44" s="151"/>
-      <c r="H44" s="151"/>
-      <c r="I44" s="151"/>
-      <c r="J44" s="151"/>
-      <c r="K44" s="151"/>
-      <c r="L44" s="151"/>
-      <c r="M44" s="151"/>
-      <c r="N44" s="151"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="118"/>
+      <c r="J44" s="118"/>
+      <c r="K44" s="118"/>
+      <c r="L44" s="118"/>
+      <c r="M44" s="118"/>
+      <c r="N44" s="118"/>
     </row>
     <row r="45" spans="1:19">
-      <c r="A45" s="109"/>
-      <c r="B45" s="111"/>
-      <c r="C45" s="152"/>
-      <c r="D45" s="152"/>
-      <c r="E45" s="152"/>
-      <c r="F45" s="152"/>
-      <c r="G45" s="152"/>
-      <c r="H45" s="152"/>
-      <c r="I45" s="152"/>
-      <c r="J45" s="152"/>
-      <c r="K45" s="152"/>
-      <c r="L45" s="152"/>
-      <c r="M45" s="152"/>
-      <c r="N45" s="152"/>
+      <c r="A45" s="117"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="119"/>
+      <c r="H45" s="119"/>
+      <c r="I45" s="119"/>
+      <c r="J45" s="119"/>
+      <c r="K45" s="119"/>
+      <c r="L45" s="119"/>
+      <c r="M45" s="119"/>
+      <c r="N45" s="119"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="109"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="152"/>
-      <c r="D46" s="152"/>
-      <c r="E46" s="152"/>
-      <c r="F46" s="152"/>
-      <c r="G46" s="152"/>
-      <c r="H46" s="152"/>
-      <c r="I46" s="152"/>
-      <c r="J46" s="152"/>
-      <c r="K46" s="152"/>
-      <c r="L46" s="152"/>
-      <c r="M46" s="152"/>
-      <c r="N46" s="152"/>
+      <c r="A46" s="117"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="119"/>
+      <c r="F46" s="119"/>
+      <c r="G46" s="119"/>
+      <c r="H46" s="119"/>
+      <c r="I46" s="119"/>
+      <c r="J46" s="119"/>
+      <c r="K46" s="119"/>
+      <c r="L46" s="119"/>
+      <c r="M46" s="119"/>
+      <c r="N46" s="119"/>
     </row>
     <row r="47" spans="1:19">
       <c r="A47"/>
-      <c r="R47" s="45"/>
+      <c r="R47" s="44"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="60" t="s">
+      <c r="A48" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="60" t="s">
+      <c r="A49" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="60"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="174" t="s">
+      <c r="A50" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="B50" s="174"/>
-      <c r="C50" s="174"/>
-      <c r="D50" s="174"/>
-      <c r="E50" s="61"/>
+      <c r="B50" s="97"/>
+      <c r="C50" s="97"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="60"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="174"/>
-      <c r="B51" s="174"/>
-      <c r="C51" s="174"/>
-      <c r="D51" s="174"/>
-      <c r="E51" s="61"/>
+      <c r="A51" s="97"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="60"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="174"/>
-      <c r="B52" s="174"/>
-      <c r="C52" s="174"/>
-      <c r="D52" s="174"/>
-      <c r="E52" s="61"/>
+      <c r="A52" s="97"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="60"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataConsolidate/>
   <mergeCells count="97">
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="D40:N42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="L30:N33"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="A1:N3"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C25:N28"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C44:N46"/>
+    <mergeCell ref="A4:N6"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E8:N10"/>
+    <mergeCell ref="G12:N14"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="M16:N19"/>
+    <mergeCell ref="L18:L19"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="I16:L16"/>
     <mergeCell ref="F13:F14"/>
@@ -4536,87 +4813,6 @@
     <mergeCell ref="J37:J38"/>
     <mergeCell ref="K37:K38"/>
     <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C44:N46"/>
-    <mergeCell ref="A4:N6"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E8:N10"/>
-    <mergeCell ref="G12:N14"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A1:N3"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C25:N28"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A7:N7"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A11:N11"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="D40:N42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A39:N39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="M16:N19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="L30:N33"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="J35:N35"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E37:G37 J37 C18:C19 A37:A38 P37:R38 A45:B46 F18">
@@ -4653,11 +4849,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <pane ySplit="8" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4665,328 +4861,539 @@
     <col min="1" max="1" width="71.33203125" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="25.83203125" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" customWidth="1"/>
-    <col min="6" max="6" width="3.5" customWidth="1"/>
+    <col min="5" max="6" width="27.33203125" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="48.5" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" customWidth="1"/>
+    <col min="9" max="9" width="42.5" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1">
-      <c r="A1" s="184" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
+      <c r="A1" s="200" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="186"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
-      <c r="A2" s="187"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="189"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="190"/>
-      <c r="B3" s="191"/>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="192"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="196" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="196"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
-    </row>
-    <row r="6" spans="1:9" ht="58.5" customHeight="1">
-      <c r="A6" s="196"/>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1"/>
-    <row r="8" spans="1:9" ht="58" thickTop="1" thickBot="1">
-      <c r="A8" s="63" t="s">
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="202"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1">
+      <c r="A2" s="203"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="205"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A3" s="206"/>
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="208"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="211" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="211"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="73"/>
+    </row>
+    <row r="6" spans="1:10" ht="58.5" customHeight="1">
+      <c r="A6" s="211"/>
+      <c r="B6" s="211"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="73"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1"/>
+    <row r="8" spans="1:10" ht="58" thickTop="1" thickBot="1">
+      <c r="A8" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="66" t="s">
+      <c r="C8" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="G8" s="67" t="s">
+      <c r="E8" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="68" t="s">
+      <c r="I8" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="69" t="s">
+      <c r="J8" s="68" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickTop="1">
-      <c r="A9" s="193" t="s">
+    <row r="9" spans="1:10" ht="15" thickTop="1">
+      <c r="A9" s="209" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="194"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="195"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="16"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="10"/>
-      <c r="G10" s="1"/>
+      <c r="B9" s="210"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="210"/>
+      <c r="F9" s="77"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="88" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="90"/>
+      <c r="D10" s="89">
+        <v>1</v>
+      </c>
+      <c r="E10" s="90"/>
+      <c r="F10" s="91"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="79"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="181" t="s">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="182"/>
-      <c r="C12" s="182"/>
-      <c r="D12" s="182"/>
-      <c r="E12" s="183"/>
-      <c r="G12" s="1"/>
+      <c r="B12" s="199"/>
+      <c r="C12" s="199"/>
+      <c r="D12" s="199"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="80"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="81">
+        <v>29.95</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>175</v>
+      </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>6</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="82">
+        <v>31.26</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="181" t="s">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="B15" s="182"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="183"/>
-      <c r="G15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="82">
+        <v>39.950000000000003</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>150</v>
+      </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="79">
+        <v>0</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="198" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="199"/>
+      <c r="C17" s="199"/>
+      <c r="D17" s="199"/>
+      <c r="E17" s="199"/>
+      <c r="F17" s="80"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="181" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="182"/>
-      <c r="C18" s="182"/>
-      <c r="D18" s="182"/>
-      <c r="E18" s="183"/>
-      <c r="G18" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="79"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>152</v>
+      </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
       <c r="E19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="79">
+        <v>52.5</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" s="78"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
       <c r="E20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="79">
+        <v>8.8000000000000007</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="181" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="182"/>
-      <c r="C21" s="182"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="183"/>
-      <c r="G21" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="78"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="79">
+        <v>26.24</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="86" t="s">
+        <v>154</v>
+      </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="1">
+        <v>116.65</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="198" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="199"/>
+      <c r="C23" s="199"/>
+      <c r="D23" s="199"/>
+      <c r="E23" s="199"/>
+      <c r="F23" s="80"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="181" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="182"/>
-      <c r="C24" s="182"/>
-      <c r="D24" s="182"/>
-      <c r="E24" s="183"/>
-      <c r="G24" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="79">
+        <v>53.89</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
       <c r="E25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="F25" s="79">
+        <v>5.95</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="1">
+        <v>4</v>
+      </c>
       <c r="E26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="79">
+        <v>160</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="181" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="182"/>
-      <c r="C27" s="182"/>
-      <c r="D27" s="182"/>
-      <c r="E27" s="183"/>
-      <c r="G27" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="198" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="199"/>
+      <c r="C27" s="199"/>
+      <c r="D27" s="199"/>
+      <c r="E27" s="199"/>
+      <c r="F27" s="80"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="84" t="s">
+        <v>155</v>
+      </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="F28" s="79"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="84" t="s">
+        <v>156</v>
+      </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="F29" s="79"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="79"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="198" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="199"/>
+      <c r="C31" s="199"/>
+      <c r="D31" s="199"/>
+      <c r="E31" s="199"/>
+      <c r="F31" s="80"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="79">
+        <v>18.5</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="79"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="198" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="199"/>
+      <c r="C34" s="199"/>
+      <c r="D34" s="199"/>
+      <c r="E34" s="199"/>
+      <c r="F34" s="80"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="79">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="79">
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="E37" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="79">
+        <f>SUM(F10:F36)</f>
+        <v>588.6400000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A23:E23"/>
     <mergeCell ref="A1:I3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A5:F6"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A5:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5019,74 +5426,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="186"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="202"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
-      <c r="A2" s="187"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="189"/>
+      <c r="A2" s="203"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="205"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A3" s="187"/>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="189"/>
+      <c r="A3" s="203"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="205"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1">
-      <c r="A4" s="190"/>
-      <c r="B4" s="191"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="192"/>
+      <c r="A4" s="206"/>
+      <c r="B4" s="207"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="208"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="196" t="s">
+      <c r="A5" s="211" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="196"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
-      <c r="G5" s="196"/>
-      <c r="H5" s="196"/>
-      <c r="I5" s="196"/>
+      <c r="B5" s="211"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="196"/>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
+      <c r="A6" s="211"/>
+      <c r="B6" s="211"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="211"/>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1">
       <c r="A7" s="3"/>
@@ -5100,88 +5507,88 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" thickTop="1">
-      <c r="A8" s="204" t="s">
+      <c r="A8" s="215" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="206" t="s">
+      <c r="B8" s="217" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="208" t="s">
+      <c r="C8" s="219" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="208"/>
-      <c r="E8" s="208"/>
-      <c r="F8" s="209" t="s">
+      <c r="D8" s="219"/>
+      <c r="E8" s="219"/>
+      <c r="F8" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="209"/>
-      <c r="H8" s="209"/>
-      <c r="I8" s="211" t="s">
+      <c r="G8" s="220"/>
+      <c r="H8" s="220"/>
+      <c r="I8" s="212" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1">
-      <c r="A9" s="205"/>
-      <c r="B9" s="207"/>
-      <c r="C9" s="32" t="s">
+      <c r="A9" s="216"/>
+      <c r="B9" s="218"/>
+      <c r="C9" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="212"/>
+      <c r="I9" s="213"/>
     </row>
     <row r="10" spans="1:9" ht="15" thickTop="1">
-      <c r="A10" s="210" t="s">
+      <c r="A10" s="221" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="210"/>
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="210"/>
-      <c r="F10" s="210"/>
-      <c r="G10" s="210"/>
-      <c r="H10" s="210"/>
-      <c r="I10" s="31"/>
+      <c r="B10" s="221"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="221"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>150</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <f>C11*0.2</f>
         <v>30</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <f>C11+D11</f>
         <v>180</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <v>2</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17">
         <f>D11*F11</f>
         <v>60</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="17">
         <f>E11*F11</f>
         <v>360</v>
       </c>
@@ -5210,44 +5617,44 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="203" t="s">
+      <c r="A14" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="203"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="203"/>
-      <c r="H14" s="203"/>
+      <c r="B14" s="214"/>
+      <c r="C14" s="214"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="214"/>
+      <c r="F14" s="214"/>
+      <c r="G14" s="214"/>
+      <c r="H14" s="214"/>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <v>30</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="17">
         <f>C15*0.1</f>
         <v>3</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <f>D15+C15</f>
         <v>33</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="17">
         <v>3</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="17">
         <f>D15*F15</f>
         <v>9</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="17">
         <f>E15*F15</f>
         <v>99</v>
       </c>
@@ -5265,44 +5672,44 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="203" t="s">
+      <c r="A17" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="203"/>
-      <c r="C17" s="203"/>
-      <c r="D17" s="203"/>
-      <c r="E17" s="203"/>
-      <c r="F17" s="203"/>
-      <c r="G17" s="203"/>
-      <c r="H17" s="203"/>
+      <c r="B17" s="214"/>
+      <c r="C17" s="214"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="214"/>
+      <c r="F17" s="214"/>
+      <c r="G17" s="214"/>
+      <c r="H17" s="214"/>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <v>60</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <f>C18*0</f>
         <v>0</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <f>D18+C18</f>
         <v>60</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="17">
         <v>1</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="17">
         <f>D18*F18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="17">
         <f>F18*E18</f>
         <v>60</v>
       </c>
@@ -5320,16 +5727,16 @@
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="203" t="s">
+      <c r="A20" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="203"/>
-      <c r="C20" s="203"/>
-      <c r="D20" s="203"/>
-      <c r="E20" s="203"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="203"/>
-      <c r="H20" s="203"/>
+      <c r="B20" s="214"/>
+      <c r="C20" s="214"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="214"/>
+      <c r="F20" s="214"/>
+      <c r="G20" s="214"/>
+      <c r="H20" s="214"/>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9">
@@ -5355,16 +5762,16 @@
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="203" t="s">
+      <c r="A23" s="214" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="203"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="203"/>
-      <c r="E23" s="203"/>
-      <c r="F23" s="203"/>
-      <c r="G23" s="203"/>
-      <c r="H23" s="203"/>
+      <c r="B23" s="214"/>
+      <c r="C23" s="214"/>
+      <c r="D23" s="214"/>
+      <c r="E23" s="214"/>
+      <c r="F23" s="214"/>
+      <c r="G23" s="214"/>
+      <c r="H23" s="214"/>
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9">
@@ -5390,16 +5797,16 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="203" t="s">
+      <c r="A26" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="203"/>
-      <c r="C26" s="203"/>
-      <c r="D26" s="203"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="203"/>
-      <c r="H26" s="203"/>
+      <c r="B26" s="214"/>
+      <c r="C26" s="214"/>
+      <c r="D26" s="214"/>
+      <c r="E26" s="214"/>
+      <c r="F26" s="214"/>
+      <c r="G26" s="214"/>
+      <c r="H26" s="214"/>
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9">
@@ -5425,16 +5832,16 @@
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="203" t="s">
+      <c r="A29" s="214" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="203"/>
-      <c r="C29" s="203"/>
-      <c r="D29" s="203"/>
-      <c r="E29" s="203"/>
-      <c r="F29" s="203"/>
-      <c r="G29" s="203"/>
-      <c r="H29" s="203"/>
+      <c r="B29" s="214"/>
+      <c r="C29" s="214"/>
+      <c r="D29" s="214"/>
+      <c r="E29" s="214"/>
+      <c r="F29" s="214"/>
+      <c r="G29" s="214"/>
+      <c r="H29" s="214"/>
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9">
@@ -5471,77 +5878,78 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="200" t="s">
+      <c r="A33" s="225" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="201"/>
-      <c r="C33" s="201"/>
-      <c r="D33" s="201"/>
-      <c r="E33" s="201"/>
-      <c r="F33" s="202"/>
+      <c r="B33" s="226"/>
+      <c r="C33" s="226"/>
+      <c r="D33" s="226"/>
+      <c r="E33" s="226"/>
+      <c r="F33" s="227"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="200" t="s">
+      <c r="A34" s="225" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="201"/>
-      <c r="C34" s="201"/>
-      <c r="D34" s="201"/>
-      <c r="E34" s="201"/>
-      <c r="F34" s="202"/>
+      <c r="B34" s="226"/>
+      <c r="C34" s="226"/>
+      <c r="D34" s="226"/>
+      <c r="E34" s="226"/>
+      <c r="F34" s="227"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="197" t="s">
+      <c r="A35" s="222" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="198"/>
-      <c r="C35" s="198"/>
-      <c r="D35" s="198"/>
-      <c r="E35" s="198"/>
-      <c r="F35" s="199"/>
+      <c r="B35" s="223"/>
+      <c r="C35" s="223"/>
+      <c r="D35" s="223"/>
+      <c r="E35" s="223"/>
+      <c r="F35" s="224"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="197" t="s">
+      <c r="A36" s="222" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="198"/>
-      <c r="C36" s="198"/>
-      <c r="D36" s="198"/>
-      <c r="E36" s="198"/>
-      <c r="F36" s="199"/>
+      <c r="B36" s="223"/>
+      <c r="C36" s="223"/>
+      <c r="D36" s="223"/>
+      <c r="E36" s="223"/>
+      <c r="F36" s="224"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="197" t="s">
+      <c r="A37" s="222" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="198"/>
-      <c r="C37" s="198"/>
-      <c r="D37" s="198"/>
-      <c r="E37" s="198"/>
-      <c r="F37" s="199"/>
+      <c r="B37" s="223"/>
+      <c r="C37" s="223"/>
+      <c r="D37" s="223"/>
+      <c r="E37" s="223"/>
+      <c r="F37" s="224"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="15"/>
+      <c r="H37" s="14"/>
       <c r="I37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A5:I6"/>
-    <mergeCell ref="A1:I4"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -5550,12 +5958,11 @@
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A5:I6"/>
+    <mergeCell ref="A1:I4"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A23:H23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -5583,73 +5990,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="128"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="147"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="129"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="131"/>
+      <c r="A2" s="148"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="150"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1">
-      <c r="A3" s="132"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="134"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="153"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="196" t="s">
+      <c r="A5" s="211" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="196"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
-      <c r="G5" s="196"/>
-      <c r="H5" s="196"/>
-      <c r="I5" s="196"/>
-      <c r="J5" s="196"/>
-      <c r="K5" s="196"/>
+      <c r="B5" s="211"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="211"/>
+      <c r="K5" s="211"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="196"/>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="G6" s="196"/>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="196"/>
-      <c r="K6" s="196"/>
+      <c r="A6" s="211"/>
+      <c r="B6" s="211"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="211"/>
+      <c r="K6" s="211"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1">
       <c r="A7" s="9"/>
@@ -5665,344 +6072,344 @@
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A8" s="219"/>
-      <c r="B8" s="220"/>
-      <c r="C8" s="221"/>
-      <c r="D8" s="216" t="s">
+      <c r="A8" s="261"/>
+      <c r="B8" s="262"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="258" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="217"/>
-      <c r="F8" s="217"/>
-      <c r="G8" s="217"/>
-      <c r="H8" s="217"/>
-      <c r="I8" s="217"/>
-      <c r="J8" s="217"/>
-      <c r="K8" s="218"/>
+      <c r="E8" s="259"/>
+      <c r="F8" s="259"/>
+      <c r="G8" s="259"/>
+      <c r="H8" s="259"/>
+      <c r="I8" s="259"/>
+      <c r="J8" s="259"/>
+      <c r="K8" s="260"/>
     </row>
     <row r="9" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A9" s="222" t="s">
+      <c r="A9" s="240" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="223"/>
-      <c r="C9" s="224"/>
-      <c r="D9" s="225">
+      <c r="B9" s="241"/>
+      <c r="C9" s="242"/>
+      <c r="D9" s="246">
         <v>380</v>
       </c>
-      <c r="E9" s="226"/>
-      <c r="F9" s="226"/>
-      <c r="G9" s="226"/>
-      <c r="H9" s="226"/>
-      <c r="I9" s="226"/>
-      <c r="J9" s="226"/>
-      <c r="K9" s="227"/>
+      <c r="E9" s="247"/>
+      <c r="F9" s="247"/>
+      <c r="G9" s="247"/>
+      <c r="H9" s="247"/>
+      <c r="I9" s="247"/>
+      <c r="J9" s="247"/>
+      <c r="K9" s="248"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A10" s="222" t="s">
+      <c r="A10" s="240" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="223"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="225">
+      <c r="B10" s="241"/>
+      <c r="C10" s="242"/>
+      <c r="D10" s="246">
         <v>35</v>
       </c>
-      <c r="E10" s="226"/>
-      <c r="F10" s="226"/>
-      <c r="G10" s="226"/>
-      <c r="H10" s="226"/>
-      <c r="I10" s="226"/>
-      <c r="J10" s="226"/>
-      <c r="K10" s="227"/>
+      <c r="E10" s="247"/>
+      <c r="F10" s="247"/>
+      <c r="G10" s="247"/>
+      <c r="H10" s="247"/>
+      <c r="I10" s="247"/>
+      <c r="J10" s="247"/>
+      <c r="K10" s="248"/>
     </row>
     <row r="11" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A11" s="222" t="s">
+      <c r="A11" s="240" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="223"/>
-      <c r="C11" s="224"/>
-      <c r="D11" s="225" t="s">
+      <c r="B11" s="241"/>
+      <c r="C11" s="242"/>
+      <c r="D11" s="246" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
-      <c r="H11" s="226"/>
-      <c r="I11" s="226"/>
-      <c r="J11" s="226"/>
-      <c r="K11" s="227"/>
+      <c r="E11" s="247"/>
+      <c r="F11" s="247"/>
+      <c r="G11" s="247"/>
+      <c r="H11" s="247"/>
+      <c r="I11" s="247"/>
+      <c r="J11" s="247"/>
+      <c r="K11" s="248"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A12" s="222" t="s">
+      <c r="A12" s="240" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="223"/>
-      <c r="C12" s="224"/>
-      <c r="D12" s="225">
+      <c r="B12" s="241"/>
+      <c r="C12" s="242"/>
+      <c r="D12" s="246">
         <v>95</v>
       </c>
-      <c r="E12" s="226"/>
-      <c r="F12" s="226"/>
-      <c r="G12" s="226"/>
-      <c r="H12" s="226"/>
-      <c r="I12" s="226"/>
-      <c r="J12" s="226"/>
-      <c r="K12" s="227"/>
+      <c r="E12" s="247"/>
+      <c r="F12" s="247"/>
+      <c r="G12" s="247"/>
+      <c r="H12" s="247"/>
+      <c r="I12" s="247"/>
+      <c r="J12" s="247"/>
+      <c r="K12" s="248"/>
     </row>
     <row r="13" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A13" s="222" t="s">
+      <c r="A13" s="240" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="223"/>
-      <c r="C13" s="224"/>
-      <c r="D13" s="225" t="s">
+      <c r="B13" s="241"/>
+      <c r="C13" s="242"/>
+      <c r="D13" s="246" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="226"/>
-      <c r="F13" s="226"/>
-      <c r="G13" s="226"/>
-      <c r="H13" s="226"/>
-      <c r="I13" s="226"/>
-      <c r="J13" s="226"/>
-      <c r="K13" s="227"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247"/>
+      <c r="I13" s="247"/>
+      <c r="J13" s="247"/>
+      <c r="K13" s="248"/>
     </row>
     <row r="14" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A14" s="249" t="s">
+      <c r="A14" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="250"/>
-      <c r="C14" s="251"/>
-      <c r="D14" s="228"/>
-      <c r="E14" s="229"/>
-      <c r="F14" s="229"/>
-      <c r="G14" s="229"/>
-      <c r="H14" s="229"/>
-      <c r="I14" s="229"/>
-      <c r="J14" s="229"/>
-      <c r="K14" s="230"/>
+      <c r="B14" s="244"/>
+      <c r="C14" s="245"/>
+      <c r="D14" s="249"/>
+      <c r="E14" s="250"/>
+      <c r="F14" s="250"/>
+      <c r="G14" s="250"/>
+      <c r="H14" s="250"/>
+      <c r="I14" s="250"/>
+      <c r="J14" s="250"/>
+      <c r="K14" s="251"/>
     </row>
     <row r="15" spans="1:11" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1"/>
     <row r="17" spans="1:11" ht="15" thickTop="1">
-      <c r="A17" s="247"/>
-      <c r="B17" s="248"/>
-      <c r="C17" s="248"/>
-      <c r="D17" s="235" t="s">
+      <c r="A17" s="238"/>
+      <c r="B17" s="239"/>
+      <c r="C17" s="239"/>
+      <c r="D17" s="256" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="235"/>
-      <c r="F17" s="235"/>
-      <c r="G17" s="235"/>
-      <c r="H17" s="235"/>
-      <c r="I17" s="235"/>
-      <c r="J17" s="235"/>
-      <c r="K17" s="236"/>
+      <c r="E17" s="256"/>
+      <c r="F17" s="256"/>
+      <c r="G17" s="256"/>
+      <c r="H17" s="256"/>
+      <c r="I17" s="256"/>
+      <c r="J17" s="256"/>
+      <c r="K17" s="257"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="237" t="s">
+      <c r="A18" s="228" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="239" t="s">
+      <c r="B18" s="230" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="241" t="s">
+      <c r="C18" s="232" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="243" t="s">
+      <c r="D18" s="234" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="243" t="s">
+      <c r="E18" s="234" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="245"/>
-      <c r="G18" s="245"/>
-      <c r="H18" s="231"/>
-      <c r="I18" s="231"/>
-      <c r="J18" s="231"/>
-      <c r="K18" s="233"/>
+      <c r="F18" s="236"/>
+      <c r="G18" s="236"/>
+      <c r="H18" s="252"/>
+      <c r="I18" s="252"/>
+      <c r="J18" s="252"/>
+      <c r="K18" s="254"/>
     </row>
     <row r="19" spans="1:11" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A19" s="238"/>
-      <c r="B19" s="240"/>
-      <c r="C19" s="242"/>
-      <c r="D19" s="244"/>
-      <c r="E19" s="244"/>
-      <c r="F19" s="246"/>
-      <c r="G19" s="246"/>
-      <c r="H19" s="232"/>
-      <c r="I19" s="232"/>
-      <c r="J19" s="232"/>
-      <c r="K19" s="234"/>
+      <c r="A19" s="229"/>
+      <c r="B19" s="231"/>
+      <c r="C19" s="233"/>
+      <c r="D19" s="235"/>
+      <c r="E19" s="235"/>
+      <c r="F19" s="237"/>
+      <c r="G19" s="237"/>
+      <c r="H19" s="253"/>
+      <c r="I19" s="253"/>
+      <c r="J19" s="253"/>
+      <c r="K19" s="255"/>
     </row>
     <row r="20" spans="1:11" ht="15" thickTop="1">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="32">
         <v>1</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="33">
         <v>100</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="33">
         <v>100</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="18">
         <v>1</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="17">
         <v>100</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="17">
         <v>100</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="17">
         <v>2</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="17">
         <v>1</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="17">
         <v>1</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="17">
         <v>3</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1"/>
@@ -6031,82 +6438,100 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="213" t="s">
+      <c r="A32" s="264" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="214"/>
-      <c r="C32" s="215"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
+      <c r="B32" s="265"/>
+      <c r="C32" s="266"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="213" t="s">
+      <c r="A33" s="264" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="214"/>
-      <c r="C33" s="215"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
+      <c r="B33" s="265"/>
+      <c r="C33" s="266"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="213" t="s">
+      <c r="A34" s="264" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="214"/>
-      <c r="C34" s="215"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
+      <c r="B34" s="265"/>
+      <c r="C34" s="266"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="213" t="s">
+      <c r="A35" s="264" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="214"/>
-      <c r="C35" s="215"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
+      <c r="B35" s="265"/>
+      <c r="C35" s="266"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="213" t="s">
+      <c r="A36" s="264" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="214"/>
-      <c r="C36" s="215"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
+      <c r="B36" s="265"/>
+      <c r="C36" s="266"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="D17:K17"/>
     <mergeCell ref="A1:K3"/>
     <mergeCell ref="A5:K6"/>
     <mergeCell ref="A18:A19"/>
@@ -6123,24 +6548,6 @@
     <mergeCell ref="D9:K9"/>
     <mergeCell ref="D10:K10"/>
     <mergeCell ref="D11:K11"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6164,81 +6571,81 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="128"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="147"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="129"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="131"/>
+      <c r="A2" s="148"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="150"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1">
-      <c r="A3" s="132"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="134"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="153"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15">
+      <c r="A9" s="72" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15">
+      <c r="A10" s="72"/>
+    </row>
+    <row r="11" spans="1:13" ht="15">
+      <c r="A11" s="72" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15">
+      <c r="A12" s="72"/>
+    </row>
+    <row r="13" spans="1:13" ht="15">
+      <c r="A13" s="72" t="s">
         <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15">
-      <c r="A9" s="74" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15">
-      <c r="A10" s="74"/>
-    </row>
-    <row r="11" spans="1:13" ht="15">
-      <c r="A11" s="74" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15">
-      <c r="A12" s="74"/>
-    </row>
-    <row r="13" spans="1:13" ht="15">
-      <c r="A13" s="74" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -6267,81 +6674,81 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="128"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="147"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="129"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="131"/>
+      <c r="A2" s="148"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="150"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1">
-      <c r="A3" s="132"/>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="134"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="153"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="61" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="72" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15">
+      <c r="A10" s="72"/>
+    </row>
+    <row r="11" spans="1:13" ht="15">
+      <c r="A11" s="72" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15">
-      <c r="A10" s="74"/>
-    </row>
-    <row r="11" spans="1:13" ht="15">
-      <c r="A11" s="74" t="s">
-        <v>143</v>
-      </c>
-    </row>
     <row r="12" spans="1:13" ht="15">
-      <c r="A12" s="74"/>
+      <c r="A12" s="72"/>
     </row>
     <row r="13" spans="1:13" ht="15">
-      <c r="A13" s="74" t="s">
-        <v>146</v>
+      <c r="A13" s="72" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Annex 1 CubeSat_Overview_Spreadsheet.xlsx
+++ b/Annex 1 CubeSat_Overview_Spreadsheet.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\AERO3760-Space-Engineering-2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="140" windowWidth="23920" windowHeight="15320" tabRatio="740" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -14,7 +19,7 @@
     <sheet name="Link Budget (Uplink)" sheetId="6" r:id="rId5"/>
     <sheet name="Link Budget (Downlink)" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -127,34 +132,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Design Overview Spreadsheet</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[CubeSat Name] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bill of Materials</t>
     </r>
   </si>
   <si>
@@ -878,6 +855,34 @@
   </si>
   <si>
     <t>Silicon Pin</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Group E:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SnapSat </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bill of Materials</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2255,55 +2260,321 @@
     <xf numFmtId="2" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2323,272 +2594,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2631,52 +2636,124 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2715,15 +2792,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2732,69 +2800,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2820,6 +2825,14 @@
       <color rgb="FFFFFF99"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3115,56 +3128,56 @@
       <selection pane="bottomLeft" activeCell="B13" sqref="B13:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="43.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.1796875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.36328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6328125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.36328125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="8" customWidth="1"/>
     <col min="16" max="16" width="15" style="8" customWidth="1"/>
-    <col min="17" max="17" width="16.1640625" style="8" customWidth="1"/>
-    <col min="18" max="18" width="12.5" style="8" customWidth="1"/>
-    <col min="19" max="19" width="27.5" style="8" customWidth="1"/>
-    <col min="20" max="20" width="13.5" style="54" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" style="54" customWidth="1"/>
-    <col min="22" max="24" width="9.1640625" style="54"/>
-    <col min="25" max="16384" width="9.1640625" style="2"/>
+    <col min="17" max="17" width="16.1796875" style="8" customWidth="1"/>
+    <col min="18" max="18" width="12.453125" style="8" customWidth="1"/>
+    <col min="19" max="19" width="27.453125" style="8" customWidth="1"/>
+    <col min="20" max="20" width="13.453125" style="54" customWidth="1"/>
+    <col min="21" max="21" width="12.81640625" style="54" customWidth="1"/>
+    <col min="22" max="24" width="9.1796875" style="54"/>
+    <col min="25" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15" customHeight="1">
-      <c r="A1" s="145" t="s">
+    <row r="1" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="147"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="139"/>
       <c r="Q1" s="55"/>
       <c r="R1" s="55"/>
       <c r="S1" s="55"/>
       <c r="T1" s="56"/>
       <c r="U1" s="56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V1" s="56"/>
       <c r="W1" s="56"/>
@@ -3189,27 +3202,27 @@
       <c r="AP1" s="56"/>
       <c r="AQ1" s="56"/>
     </row>
-    <row r="2" spans="1:43" ht="15" customHeight="1">
-      <c r="A2" s="148"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="150"/>
+    <row r="2" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="140"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="142"/>
       <c r="Q2" s="55"/>
       <c r="R2" s="55"/>
       <c r="S2" s="55"/>
       <c r="T2" s="56"/>
       <c r="U2" s="56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V2" s="56"/>
       <c r="W2" s="56"/>
@@ -3234,27 +3247,27 @@
       <c r="AP2" s="56"/>
       <c r="AQ2" s="56"/>
     </row>
-    <row r="3" spans="1:43" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="151"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="153"/>
+    <row r="3" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="143"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="145"/>
       <c r="Q3" s="55"/>
       <c r="R3" s="55"/>
       <c r="S3" s="55"/>
       <c r="T3" s="56"/>
       <c r="U3" s="56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V3" s="56"/>
       <c r="W3" s="56"/>
@@ -3279,32 +3292,32 @@
       <c r="AP3" s="56"/>
       <c r="AQ3" s="56"/>
     </row>
-    <row r="4" spans="1:43" ht="15.75" customHeight="1">
-      <c r="A4" s="120" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="121"/>
+    <row r="4" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="167" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="168"/>
       <c r="Q4" s="55"/>
       <c r="R4" s="55"/>
       <c r="S4" s="55"/>
       <c r="T4" s="56"/>
       <c r="U4" s="56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V4" s="56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W4" s="56"/>
       <c r="X4" s="56"/>
@@ -3328,29 +3341,29 @@
       <c r="AP4" s="56"/>
       <c r="AQ4" s="56"/>
     </row>
-    <row r="5" spans="1:43" ht="15.75" customHeight="1">
-      <c r="A5" s="122"/>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="123"/>
+    <row r="5" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="169"/>
+      <c r="B5" s="169"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="169"/>
+      <c r="L5" s="169"/>
+      <c r="M5" s="169"/>
+      <c r="N5" s="170"/>
       <c r="Q5" s="55"/>
       <c r="R5" s="55"/>
       <c r="S5" s="55"/>
       <c r="T5" s="56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U5" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V5" s="56"/>
       <c r="W5" s="56"/>
@@ -3375,21 +3388,21 @@
       <c r="AP5" s="56"/>
       <c r="AQ5" s="56"/>
     </row>
-    <row r="6" spans="1:43" s="21" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A6" s="122"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="122"/>
-      <c r="M6" s="122"/>
-      <c r="N6" s="123"/>
+    <row r="6" spans="1:43" s="21" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="169"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="169"/>
+      <c r="M6" s="169"/>
+      <c r="N6" s="170"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="55"/>
@@ -3397,7 +3410,7 @@
       <c r="S6" s="55"/>
       <c r="T6" s="57"/>
       <c r="U6" s="57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V6" s="57"/>
       <c r="W6" s="57"/>
@@ -3422,23 +3435,23 @@
       <c r="AP6" s="57"/>
       <c r="AQ6" s="57"/>
     </row>
-    <row r="7" spans="1:43" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="166" t="s">
+    <row r="7" spans="1:43" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="167"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="168"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="160"/>
+      <c r="L7" s="160"/>
+      <c r="M7" s="160"/>
+      <c r="N7" s="161"/>
       <c r="O7" s="43"/>
       <c r="P7" s="43"/>
       <c r="Q7" s="58"/>
@@ -3469,35 +3482,35 @@
       <c r="AP7" s="56"/>
       <c r="AQ7" s="56"/>
     </row>
-    <row r="8" spans="1:43" ht="16.5" customHeight="1" thickTop="1">
+    <row r="8" spans="1:43" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="134"/>
-      <c r="K8" s="134"/>
-      <c r="L8" s="134"/>
-      <c r="M8" s="134"/>
-      <c r="N8" s="134"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
       <c r="Q8" s="55"/>
       <c r="R8" s="55"/>
       <c r="S8" s="55"/>
       <c r="T8" s="56"/>
       <c r="U8" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V8" s="56"/>
       <c r="W8" s="56"/>
@@ -3522,27 +3535,27 @@
       <c r="AP8" s="56"/>
       <c r="AQ8" s="56"/>
     </row>
-    <row r="9" spans="1:43" ht="15" customHeight="1">
-      <c r="A9" s="160"/>
-      <c r="B9" s="140"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="135"/>
+    <row r="9" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="150"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
       <c r="Q9" s="55"/>
       <c r="R9" s="55"/>
       <c r="S9" s="55"/>
       <c r="T9" s="56"/>
       <c r="U9" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V9" s="56"/>
       <c r="W9" s="56"/>
@@ -3567,21 +3580,21 @@
       <c r="AP9" s="56"/>
       <c r="AQ9" s="56"/>
     </row>
-    <row r="10" spans="1:43" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="161"/>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="136"/>
-      <c r="K10" s="136"/>
-      <c r="L10" s="136"/>
-      <c r="M10" s="136"/>
-      <c r="N10" s="136"/>
+    <row r="10" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="151"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
       <c r="Q10" s="55"/>
       <c r="R10" s="55"/>
       <c r="S10" s="55"/>
@@ -3610,23 +3623,23 @@
       <c r="AP10" s="56"/>
       <c r="AQ10" s="56"/>
     </row>
-    <row r="11" spans="1:43" ht="16" thickTop="1" thickBot="1">
-      <c r="A11" s="169" t="s">
+    <row r="11" spans="1:43" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="100"/>
+      <c r="B11" s="163"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
+      <c r="L11" s="163"/>
+      <c r="M11" s="163"/>
+      <c r="N11" s="164"/>
       <c r="O11" s="43"/>
       <c r="P11" s="43"/>
       <c r="Q11" s="58"/>
@@ -3634,7 +3647,7 @@
       <c r="S11" s="58"/>
       <c r="T11" s="56"/>
       <c r="U11" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V11" s="56"/>
       <c r="W11" s="56"/>
@@ -3659,39 +3672,39 @@
       <c r="AP11" s="56"/>
       <c r="AQ11" s="56"/>
     </row>
-    <row r="12" spans="1:43" ht="33" customHeight="1" thickTop="1">
+    <row r="12" spans="1:43" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A12" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="137"/>
-      <c r="M12" s="137"/>
-      <c r="N12" s="137"/>
+      <c r="G12" s="179"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="179"/>
+      <c r="J12" s="179"/>
+      <c r="K12" s="179"/>
+      <c r="L12" s="179"/>
+      <c r="M12" s="179"/>
+      <c r="N12" s="179"/>
       <c r="Q12" s="55"/>
       <c r="R12" s="55"/>
       <c r="S12" s="55"/>
       <c r="T12" s="56"/>
       <c r="U12" s="56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V12" s="56"/>
       <c r="W12" s="56"/>
@@ -3716,27 +3729,27 @@
       <c r="AP12" s="56"/>
       <c r="AQ12" s="56"/>
     </row>
-    <row r="13" spans="1:43">
-      <c r="A13" s="117"/>
-      <c r="B13" s="142"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="138"/>
-      <c r="M13" s="138"/>
-      <c r="N13" s="138"/>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A13" s="119"/>
+      <c r="B13" s="182"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="180"/>
+      <c r="K13" s="180"/>
+      <c r="L13" s="180"/>
+      <c r="M13" s="180"/>
+      <c r="N13" s="180"/>
       <c r="Q13" s="55"/>
       <c r="R13" s="55"/>
       <c r="S13" s="55"/>
       <c r="T13" s="56"/>
       <c r="U13" s="56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V13" s="56"/>
       <c r="W13" s="56"/>
@@ -3761,27 +3774,27 @@
       <c r="AP13" s="56"/>
       <c r="AQ13" s="56"/>
     </row>
-    <row r="14" spans="1:43" ht="15" thickBot="1">
-      <c r="A14" s="165"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="139"/>
-      <c r="K14" s="139"/>
-      <c r="L14" s="139"/>
-      <c r="M14" s="139"/>
-      <c r="N14" s="139"/>
+    <row r="14" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="120"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="184"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="181"/>
+      <c r="I14" s="181"/>
+      <c r="J14" s="181"/>
+      <c r="K14" s="181"/>
+      <c r="L14" s="181"/>
+      <c r="M14" s="181"/>
+      <c r="N14" s="181"/>
       <c r="Q14" s="55"/>
       <c r="R14" s="55"/>
       <c r="S14" s="55"/>
       <c r="T14" s="56"/>
       <c r="U14" s="56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V14" s="56"/>
       <c r="W14" s="56"/>
@@ -3806,23 +3819,23 @@
       <c r="AP14" s="56"/>
       <c r="AQ14" s="56"/>
     </row>
-    <row r="15" spans="1:43" ht="16" thickTop="1" thickBot="1">
-      <c r="A15" s="98" t="s">
+    <row r="15" spans="1:43" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="100"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
+      <c r="L15" s="163"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="164"/>
       <c r="O15" s="43"/>
       <c r="P15" s="43"/>
       <c r="Q15" s="58"/>
@@ -3853,35 +3866,35 @@
       <c r="AP15" s="56"/>
       <c r="AQ15" s="56"/>
     </row>
-    <row r="16" spans="1:43" ht="54" customHeight="1" thickTop="1">
-      <c r="A16" s="124" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="126" t="s">
+    <row r="16" spans="1:43" ht="54" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="171" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="128" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="130" t="s">
-        <v>129</v>
-      </c>
-      <c r="E16" s="132" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="178" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="179"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="94" t="s">
-        <v>88</v>
-      </c>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="172"/>
-      <c r="N16" s="173"/>
+      <c r="C16" s="174" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="176" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="177" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="98"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="185"/>
+      <c r="N16" s="186"/>
       <c r="Q16" s="55"/>
       <c r="R16" s="55"/>
       <c r="S16" s="55"/>
@@ -3910,35 +3923,35 @@
       <c r="AP16" s="56"/>
       <c r="AQ16" s="56"/>
     </row>
-    <row r="17" spans="1:43" ht="59.25" customHeight="1">
-      <c r="A17" s="125"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="133"/>
+    <row r="17" spans="1:43" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="172"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="178"/>
       <c r="F17" s="47" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I17" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="K17" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="34" t="s">
-        <v>102</v>
-      </c>
       <c r="L17" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="M17" s="174"/>
-      <c r="N17" s="175"/>
+        <v>88</v>
+      </c>
+      <c r="M17" s="187"/>
+      <c r="N17" s="188"/>
       <c r="Q17" s="55"/>
       <c r="R17" s="55"/>
       <c r="S17" s="55"/>
@@ -3967,21 +3980,21 @@
       <c r="AP17" s="56"/>
       <c r="AQ17" s="56"/>
     </row>
-    <row r="18" spans="1:43">
-      <c r="A18" s="93"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="174"/>
-      <c r="N18" s="175"/>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A18" s="112"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="187"/>
+      <c r="N18" s="188"/>
       <c r="Q18" s="55"/>
       <c r="R18" s="55"/>
       <c r="S18" s="55"/>
@@ -4010,21 +4023,21 @@
       <c r="AP18" s="56"/>
       <c r="AQ18" s="56"/>
     </row>
-    <row r="19" spans="1:43" ht="15" thickBot="1">
-      <c r="A19" s="101"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="176"/>
-      <c r="N19" s="177"/>
+    <row r="19" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="113"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="189"/>
+      <c r="N19" s="190"/>
       <c r="Q19" s="55"/>
       <c r="R19" s="55"/>
       <c r="S19" s="55"/>
@@ -4053,23 +4066,23 @@
       <c r="AP19" s="56"/>
       <c r="AQ19" s="56"/>
     </row>
-    <row r="20" spans="1:43" ht="16" thickTop="1" thickBot="1">
-      <c r="A20" s="98" t="s">
+    <row r="20" spans="1:43" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="99"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="100"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="163"/>
+      <c r="L20" s="163"/>
+      <c r="M20" s="163"/>
+      <c r="N20" s="164"/>
       <c r="O20" s="43"/>
       <c r="P20" s="43"/>
       <c r="Q20" s="58"/>
@@ -4100,31 +4113,31 @@
       <c r="AP20" s="56"/>
       <c r="AQ20" s="56"/>
     </row>
-    <row r="21" spans="1:43" ht="29" thickTop="1">
+    <row r="21" spans="1:43" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" s="40" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="102"/>
-      <c r="N21" s="103"/>
+        <v>120</v>
+      </c>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="126"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="126"/>
+      <c r="N21" s="127"/>
       <c r="Q21" s="55"/>
       <c r="R21" s="55"/>
       <c r="S21" s="55"/>
@@ -4153,185 +4166,185 @@
       <c r="AP21" s="56"/>
       <c r="AQ21" s="56"/>
     </row>
-    <row r="22" spans="1:43">
-      <c r="A22" s="93"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="104"/>
-      <c r="N22" s="105"/>
-    </row>
-    <row r="23" spans="1:43" ht="15" thickBot="1">
-      <c r="A23" s="101"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="107"/>
-    </row>
-    <row r="24" spans="1:43" ht="16" thickTop="1" thickBot="1">
-      <c r="A24" s="98" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="100"/>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A22" s="112"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="192"/>
+      <c r="G22" s="192"/>
+      <c r="H22" s="192"/>
+      <c r="I22" s="192"/>
+      <c r="J22" s="192"/>
+      <c r="K22" s="192"/>
+      <c r="L22" s="192"/>
+      <c r="M22" s="192"/>
+      <c r="N22" s="130"/>
+    </row>
+    <row r="23" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="113"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="133"/>
+    </row>
+    <row r="24" spans="1:43" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="122" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="163"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="163"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="163"/>
+      <c r="K24" s="163"/>
+      <c r="L24" s="163"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="164"/>
       <c r="O24" s="43"/>
       <c r="P24" s="43"/>
       <c r="Q24" s="43"/>
       <c r="R24" s="43"/>
       <c r="S24" s="43"/>
     </row>
-    <row r="25" spans="1:43" ht="15" thickTop="1">
-      <c r="A25" s="154" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="127" t="s">
+    <row r="25" spans="1:43" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="162"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
-      <c r="H25" s="162"/>
-      <c r="I25" s="162"/>
-      <c r="J25" s="162"/>
-      <c r="K25" s="162"/>
-      <c r="L25" s="162"/>
-      <c r="M25" s="162"/>
-      <c r="N25" s="162"/>
-    </row>
-    <row r="26" spans="1:43">
-      <c r="A26" s="155"/>
-      <c r="B26" s="156"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="163"/>
-      <c r="K26" s="163"/>
-      <c r="L26" s="163"/>
-      <c r="M26" s="163"/>
-      <c r="N26" s="163"/>
-    </row>
-    <row r="27" spans="1:43">
-      <c r="A27" s="93"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="163"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="163"/>
-      <c r="K27" s="163"/>
-      <c r="L27" s="163"/>
-      <c r="M27" s="163"/>
-      <c r="N27" s="163"/>
-    </row>
-    <row r="28" spans="1:43" ht="15" thickBot="1">
-      <c r="A28" s="101"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="164"/>
-      <c r="D28" s="164"/>
-      <c r="E28" s="164"/>
-      <c r="F28" s="164"/>
-      <c r="G28" s="164"/>
-      <c r="H28" s="164"/>
-      <c r="I28" s="164"/>
-      <c r="J28" s="164"/>
-      <c r="K28" s="164"/>
-      <c r="L28" s="164"/>
-      <c r="M28" s="164"/>
-      <c r="N28" s="164"/>
-    </row>
-    <row r="29" spans="1:43" ht="16" thickTop="1" thickBot="1">
-      <c r="A29" s="98" t="s">
+      <c r="C25" s="154"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="154"/>
+      <c r="K25" s="154"/>
+      <c r="L25" s="154"/>
+      <c r="M25" s="154"/>
+      <c r="N25" s="154"/>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A26" s="96"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="155"/>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A27" s="112"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="155"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="155"/>
+      <c r="N27" s="155"/>
+    </row>
+    <row r="28" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="113"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="156"/>
+    </row>
+    <row r="29" spans="1:43" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="100"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="163"/>
+      <c r="H29" s="163"/>
+      <c r="I29" s="163"/>
+      <c r="J29" s="163"/>
+      <c r="K29" s="163"/>
+      <c r="L29" s="163"/>
+      <c r="M29" s="163"/>
+      <c r="N29" s="164"/>
       <c r="O29" s="43"/>
       <c r="P29" s="43"/>
       <c r="Q29" s="43"/>
       <c r="R29" s="43"/>
       <c r="S29" s="43"/>
     </row>
-    <row r="30" spans="1:43" ht="15" thickTop="1">
-      <c r="A30" s="154" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="127" t="s">
+    <row r="30" spans="1:43" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="157" t="s">
+      <c r="C30" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="131" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30" s="183" t="s">
+      <c r="D30" s="148" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="184"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="186" t="s">
+      <c r="F30" s="107"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="I30" s="187"/>
-      <c r="J30" s="187"/>
-      <c r="K30" s="188"/>
-      <c r="L30" s="189"/>
-      <c r="M30" s="102"/>
-      <c r="N30" s="103"/>
-    </row>
-    <row r="31" spans="1:43">
-      <c r="A31" s="155"/>
-      <c r="B31" s="156"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="159"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="125"/>
+      <c r="M30" s="126"/>
+      <c r="N30" s="127"/>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A31" s="96"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="149"/>
       <c r="E31" s="48" t="s">
         <v>6</v>
       </c>
@@ -4353,187 +4366,187 @@
       <c r="K31" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L31" s="190"/>
-      <c r="M31" s="191"/>
-      <c r="N31" s="105"/>
-    </row>
-    <row r="32" spans="1:43">
-      <c r="A32" s="113"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="113"/>
-      <c r="L32" s="190"/>
-      <c r="M32" s="191"/>
-      <c r="N32" s="105"/>
-    </row>
-    <row r="33" spans="1:19" ht="15" thickBot="1">
-      <c r="A33" s="114"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="114"/>
-      <c r="L33" s="192"/>
-      <c r="M33" s="106"/>
-      <c r="N33" s="107"/>
-    </row>
-    <row r="34" spans="1:19" ht="16" thickTop="1" thickBot="1">
-      <c r="A34" s="110" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="111"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="111"/>
-      <c r="N34" s="112"/>
+      <c r="L31" s="128"/>
+      <c r="M31" s="129"/>
+      <c r="N31" s="130"/>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A32" s="104"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="128"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="130"/>
+    </row>
+    <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="105"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="131"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="133"/>
+    </row>
+    <row r="34" spans="1:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="195" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="196"/>
+      <c r="C34" s="196"/>
+      <c r="D34" s="196"/>
+      <c r="E34" s="196"/>
+      <c r="F34" s="196"/>
+      <c r="G34" s="196"/>
+      <c r="H34" s="196"/>
+      <c r="I34" s="196"/>
+      <c r="J34" s="196"/>
+      <c r="K34" s="196"/>
+      <c r="L34" s="196"/>
+      <c r="M34" s="196"/>
+      <c r="N34" s="197"/>
       <c r="O34" s="43"/>
       <c r="P34" s="43"/>
       <c r="Q34" s="43"/>
       <c r="R34" s="43"/>
       <c r="S34" s="43"/>
     </row>
-    <row r="35" spans="1:19" ht="27" customHeight="1" thickTop="1">
-      <c r="A35" s="193" t="s">
+    <row r="35" spans="1:19" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="114" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="134" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="135"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="K35" s="93"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="93"/>
+      <c r="N35" s="94"/>
+    </row>
+    <row r="36" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="115"/>
+      <c r="B36" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="I36" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="J36" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="B35" s="195" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="196"/>
-      <c r="D35" s="196"/>
-      <c r="E35" s="196"/>
-      <c r="F35" s="196"/>
-      <c r="G35" s="196"/>
-      <c r="H35" s="196"/>
-      <c r="I35" s="197"/>
-      <c r="J35" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="96"/>
-    </row>
-    <row r="36" spans="1:19" ht="39" customHeight="1">
-      <c r="A36" s="194"/>
-      <c r="B36" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="D36" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="F36" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="G36" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="H36" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="I36" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="J36" s="45" t="s">
-        <v>131</v>
-      </c>
       <c r="K36" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="L36" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="L36" s="38" t="s">
+      <c r="M36" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="M36" s="39" t="s">
+      <c r="N36" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="N36" s="53" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
-      <c r="A37" s="93"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="181"/>
-      <c r="F37" s="181"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="113"/>
-      <c r="I37" s="113"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="113"/>
-      <c r="L37" s="108"/>
-      <c r="M37" s="113"/>
-      <c r="N37" s="113"/>
-    </row>
-    <row r="38" spans="1:19" ht="15" thickBot="1">
-      <c r="A38" s="101"/>
-      <c r="B38" s="114"/>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="182"/>
-      <c r="F38" s="182"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="114"/>
-      <c r="K38" s="114"/>
-      <c r="L38" s="109"/>
-      <c r="M38" s="114"/>
-      <c r="N38" s="114"/>
-    </row>
-    <row r="39" spans="1:19" ht="16" thickTop="1" thickBot="1">
-      <c r="A39" s="98" t="s">
-        <v>120</v>
-      </c>
-      <c r="B39" s="170"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="170"/>
-      <c r="E39" s="170"/>
-      <c r="F39" s="170"/>
-      <c r="G39" s="170"/>
-      <c r="H39" s="170"/>
-      <c r="I39" s="170"/>
-      <c r="J39" s="170"/>
-      <c r="K39" s="170"/>
-      <c r="L39" s="170"/>
-      <c r="M39" s="170"/>
-      <c r="N39" s="171"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A37" s="112"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="104"/>
+      <c r="L37" s="193"/>
+      <c r="M37" s="104"/>
+      <c r="N37" s="104"/>
+    </row>
+    <row r="38" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="113"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="194"/>
+      <c r="M38" s="105"/>
+      <c r="N38" s="105"/>
+    </row>
+    <row r="39" spans="1:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="122" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="123"/>
+      <c r="C39" s="123"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="123"/>
+      <c r="F39" s="123"/>
+      <c r="G39" s="123"/>
+      <c r="H39" s="123"/>
+      <c r="I39" s="123"/>
+      <c r="J39" s="123"/>
+      <c r="K39" s="123"/>
+      <c r="L39" s="123"/>
+      <c r="M39" s="123"/>
+      <c r="N39" s="124"/>
       <c r="O39" s="43"/>
       <c r="P39" s="43"/>
       <c r="Q39" s="43"/>
       <c r="R39" s="43"/>
       <c r="S39" s="43"/>
     </row>
-    <row r="40" spans="1:19" ht="15" thickTop="1">
+    <row r="40" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A40" s="69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B40" s="70" t="s">
         <v>11</v>
@@ -4541,171 +4554,171 @@
       <c r="C40" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="134"/>
-      <c r="E40" s="134"/>
-      <c r="F40" s="134"/>
-      <c r="G40" s="134"/>
-      <c r="H40" s="134"/>
-      <c r="I40" s="134"/>
-      <c r="J40" s="134"/>
-      <c r="K40" s="134"/>
-      <c r="L40" s="134"/>
-      <c r="M40" s="134"/>
-      <c r="N40" s="134"/>
-    </row>
-    <row r="41" spans="1:19">
-      <c r="A41" s="117"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="135"/>
-      <c r="F41" s="135"/>
-      <c r="G41" s="135"/>
-      <c r="H41" s="135"/>
-      <c r="I41" s="135"/>
-      <c r="J41" s="135"/>
-      <c r="K41" s="135"/>
-      <c r="L41" s="135"/>
-      <c r="M41" s="135"/>
-      <c r="N41" s="135"/>
-    </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" thickBot="1">
-      <c r="A42" s="165"/>
-      <c r="B42" s="93"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="136"/>
-      <c r="E42" s="136"/>
-      <c r="F42" s="136"/>
-      <c r="G42" s="136"/>
-      <c r="H42" s="136"/>
-      <c r="I42" s="136"/>
-      <c r="J42" s="136"/>
-      <c r="K42" s="136"/>
-      <c r="L42" s="136"/>
-      <c r="M42" s="136"/>
-      <c r="N42" s="136"/>
-    </row>
-    <row r="43" spans="1:19" ht="16" thickTop="1" thickBot="1">
-      <c r="A43" s="98" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="99"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="99"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="99"/>
-      <c r="M43" s="99"/>
-      <c r="N43" s="100"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="116"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="116"/>
+      <c r="K40" s="116"/>
+      <c r="L40" s="116"/>
+      <c r="M40" s="116"/>
+      <c r="N40" s="116"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A41" s="119"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="117"/>
+      <c r="H41" s="117"/>
+      <c r="I41" s="117"/>
+      <c r="J41" s="117"/>
+      <c r="K41" s="117"/>
+      <c r="L41" s="117"/>
+      <c r="M41" s="117"/>
+      <c r="N41" s="117"/>
+    </row>
+    <row r="42" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="120"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="118"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="118"/>
+      <c r="H42" s="118"/>
+      <c r="I42" s="118"/>
+      <c r="J42" s="118"/>
+      <c r="K42" s="118"/>
+      <c r="L42" s="118"/>
+      <c r="M42" s="118"/>
+      <c r="N42" s="118"/>
+    </row>
+    <row r="43" spans="1:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="122" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="163"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="163"/>
+      <c r="E43" s="163"/>
+      <c r="F43" s="163"/>
+      <c r="G43" s="163"/>
+      <c r="H43" s="163"/>
+      <c r="I43" s="163"/>
+      <c r="J43" s="163"/>
+      <c r="K43" s="163"/>
+      <c r="L43" s="163"/>
+      <c r="M43" s="163"/>
+      <c r="N43" s="164"/>
       <c r="O43" s="43"/>
       <c r="P43" s="43"/>
       <c r="Q43" s="43"/>
       <c r="R43" s="43"/>
       <c r="S43" s="43"/>
     </row>
-    <row r="44" spans="1:19" ht="29" thickTop="1">
+    <row r="44" spans="1:19" ht="44" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A44" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="118"/>
-      <c r="H44" s="118"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="118"/>
-      <c r="K44" s="118"/>
-      <c r="L44" s="118"/>
-      <c r="M44" s="118"/>
-      <c r="N44" s="118"/>
-    </row>
-    <row r="45" spans="1:19">
-      <c r="A45" s="117"/>
-      <c r="B45" s="92"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="119"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="119"/>
-      <c r="H45" s="119"/>
-      <c r="I45" s="119"/>
-      <c r="J45" s="119"/>
-      <c r="K45" s="119"/>
-      <c r="L45" s="119"/>
-      <c r="M45" s="119"/>
-      <c r="N45" s="119"/>
-    </row>
-    <row r="46" spans="1:19">
-      <c r="A46" s="117"/>
-      <c r="B46" s="92"/>
-      <c r="C46" s="119"/>
-      <c r="D46" s="119"/>
-      <c r="E46" s="119"/>
-      <c r="F46" s="119"/>
-      <c r="G46" s="119"/>
-      <c r="H46" s="119"/>
-      <c r="I46" s="119"/>
-      <c r="J46" s="119"/>
-      <c r="K46" s="119"/>
-      <c r="L46" s="119"/>
-      <c r="M46" s="119"/>
-      <c r="N46" s="119"/>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
+      <c r="E44" s="165"/>
+      <c r="F44" s="165"/>
+      <c r="G44" s="165"/>
+      <c r="H44" s="165"/>
+      <c r="I44" s="165"/>
+      <c r="J44" s="165"/>
+      <c r="K44" s="165"/>
+      <c r="L44" s="165"/>
+      <c r="M44" s="165"/>
+      <c r="N44" s="165"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A45" s="119"/>
+      <c r="B45" s="121"/>
+      <c r="C45" s="166"/>
+      <c r="D45" s="166"/>
+      <c r="E45" s="166"/>
+      <c r="F45" s="166"/>
+      <c r="G45" s="166"/>
+      <c r="H45" s="166"/>
+      <c r="I45" s="166"/>
+      <c r="J45" s="166"/>
+      <c r="K45" s="166"/>
+      <c r="L45" s="166"/>
+      <c r="M45" s="166"/>
+      <c r="N45" s="166"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A46" s="119"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="166"/>
+      <c r="E46" s="166"/>
+      <c r="F46" s="166"/>
+      <c r="G46" s="166"/>
+      <c r="H46" s="166"/>
+      <c r="I46" s="166"/>
+      <c r="J46" s="166"/>
+      <c r="K46" s="166"/>
+      <c r="L46" s="166"/>
+      <c r="M46" s="166"/>
+      <c r="N46" s="166"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47"/>
       <c r="R47" s="44"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B48" s="60"/>
       <c r="C48" s="60"/>
       <c r="D48" s="60"/>
       <c r="E48" s="60"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B49" s="59"/>
       <c r="C49" s="60"/>
       <c r="D49" s="60"/>
       <c r="E49" s="60"/>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="97" t="s">
-        <v>135</v>
-      </c>
-      <c r="B50" s="97"/>
-      <c r="C50" s="97"/>
-      <c r="D50" s="97"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="191" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" s="191"/>
+      <c r="C50" s="191"/>
+      <c r="D50" s="191"/>
       <c r="E50" s="60"/>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="97"/>
-      <c r="B51" s="97"/>
-      <c r="C51" s="97"/>
-      <c r="D51" s="97"/>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="191"/>
+      <c r="B51" s="191"/>
+      <c r="C51" s="191"/>
+      <c r="D51" s="191"/>
       <c r="E51" s="60"/>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="97"/>
-      <c r="B52" s="97"/>
-      <c r="C52" s="97"/>
-      <c r="D52" s="97"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="191"/>
+      <c r="B52" s="191"/>
+      <c r="C52" s="191"/>
+      <c r="D52" s="191"/>
       <c r="E52" s="60"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -4716,6 +4729,87 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataConsolidate/>
   <mergeCells count="97">
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A50:D52"/>
+    <mergeCell ref="A43:N43"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F21:N23"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="A29:N29"/>
+    <mergeCell ref="A34:N34"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="M16:N19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C44:N46"/>
+    <mergeCell ref="A4:N6"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E8:N10"/>
+    <mergeCell ref="G12:N14"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="A1:N3"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C25:N28"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="D40:N42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="L30:N33"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
     <mergeCell ref="J35:N35"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="F16:H16"/>
@@ -4732,87 +4826,6 @@
     <mergeCell ref="K32:K33"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="D40:N42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A39:N39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="L30:N33"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="A1:N3"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C25:N28"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A7:N7"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A11:N11"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C44:N46"/>
-    <mergeCell ref="A4:N6"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E8:N10"/>
-    <mergeCell ref="G12:N14"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="M16:N19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A50:D52"/>
-    <mergeCell ref="A43:N43"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F21:N23"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="A29:N29"/>
-    <mergeCell ref="A34:N34"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="F32:F33"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E37:G37 J37 C18:C19 A37:A38 P37:R38 A45:B46 F18">
@@ -4852,25 +4865,25 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="71.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" customWidth="1"/>
-    <col min="5" max="6" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="71.36328125" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="3" max="3" width="25.81640625" customWidth="1"/>
+    <col min="5" max="6" width="27.36328125" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="34.6640625" customWidth="1"/>
-    <col min="9" max="9" width="42.5" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="34.6328125" customWidth="1"/>
+    <col min="9" max="9" width="42.453125" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="200" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="B1" s="201"/>
       <c r="C1" s="201"/>
@@ -4881,7 +4894,7 @@
       <c r="H1" s="201"/>
       <c r="I1" s="202"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="203"/>
       <c r="B2" s="204"/>
       <c r="C2" s="204"/>
@@ -4892,7 +4905,7 @@
       <c r="H2" s="204"/>
       <c r="I2" s="205"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="206"/>
       <c r="B3" s="207"/>
       <c r="C3" s="207"/>
@@ -4903,9 +4916,9 @@
       <c r="H3" s="207"/>
       <c r="I3" s="208"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="211" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="211"/>
       <c r="C5" s="211"/>
@@ -4913,7 +4926,7 @@
       <c r="E5" s="211"/>
       <c r="F5" s="73"/>
     </row>
-    <row r="6" spans="1:10" ht="58.5" customHeight="1">
+    <row r="6" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="211"/>
       <c r="B6" s="211"/>
       <c r="C6" s="211"/>
@@ -4921,37 +4934,37 @@
       <c r="E6" s="211"/>
       <c r="F6" s="73"/>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1"/>
-    <row r="8" spans="1:10" ht="58" thickTop="1" thickBot="1">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:10" ht="59" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="75" t="s">
-        <v>161</v>
-      </c>
-      <c r="F8" s="76" t="s">
-        <v>147</v>
-      </c>
-      <c r="H8" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="68" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" thickTop="1">
+    </row>
+    <row r="9" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A9" s="209" t="s">
         <v>17</v>
       </c>
@@ -4964,12 +4977,12 @@
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="88" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C10" s="90"/>
       <c r="D10" s="89">
@@ -4981,7 +4994,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -4992,7 +5005,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="198" t="s">
         <v>0</v>
       </c>
@@ -5005,9 +5018,9 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5022,12 +5035,12 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B14" s="78" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
@@ -5041,9 +5054,9 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="87" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5058,19 +5071,19 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="78" t="s">
         <v>149</v>
-      </c>
-      <c r="B16" s="78" t="s">
-        <v>150</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <v>3</v>
       </c>
       <c r="E16" s="78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F16" s="79">
         <v>0</v>
@@ -5079,7 +5092,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="198" t="s">
         <v>1</v>
       </c>
@@ -5092,9 +5105,9 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5105,12 +5118,12 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B19" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
@@ -5124,9 +5137,9 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="78"/>
       <c r="C20" s="1"/>
@@ -5141,9 +5154,9 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21" s="78"/>
       <c r="C21" s="1"/>
@@ -5158,9 +5171,9 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="86" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -5173,9 +5186,9 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="198" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="199"/>
       <c r="C23" s="199"/>
@@ -5186,9 +5199,9 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -5203,9 +5216,9 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -5220,9 +5233,9 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -5237,7 +5250,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="198" t="s">
         <v>2</v>
       </c>
@@ -5250,9 +5263,9 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="84" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -5263,9 +5276,9 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="84" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -5276,9 +5289,9 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -5289,7 +5302,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="198" t="s">
         <v>3</v>
       </c>
@@ -5302,15 +5315,15 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B32" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="78" t="s">
         <v>159</v>
-      </c>
-      <c r="C32" s="78" t="s">
-        <v>160</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -5323,9 +5336,9 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -5336,9 +5349,9 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="199"/>
       <c r="C34" s="199"/>
@@ -5346,9 +5359,9 @@
       <c r="E34" s="199"/>
       <c r="F34" s="80"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -5360,9 +5373,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -5374,9 +5387,9 @@
         <v>14.95</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E37" s="85" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F37" s="79">
         <f>SUM(F10:F36)</f>
@@ -5396,7 +5409,7 @@
     <mergeCell ref="A5:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5416,16 +5429,16 @@
       <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.5" customWidth="1"/>
+    <col min="1" max="1" width="45.453125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="4" width="16" customWidth="1"/>
-    <col min="5" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="33.5" customWidth="1"/>
+    <col min="5" max="8" width="16.36328125" customWidth="1"/>
+    <col min="9" max="9" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="200" t="s">
         <v>18</v>
       </c>
@@ -5438,7 +5451,7 @@
       <c r="H1" s="201"/>
       <c r="I1" s="202"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="203"/>
       <c r="B2" s="204"/>
       <c r="C2" s="204"/>
@@ -5449,7 +5462,7 @@
       <c r="H2" s="204"/>
       <c r="I2" s="205"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="203"/>
       <c r="B3" s="204"/>
       <c r="C3" s="204"/>
@@ -5460,7 +5473,7 @@
       <c r="H3" s="204"/>
       <c r="I3" s="205"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="206"/>
       <c r="B4" s="207"/>
       <c r="C4" s="207"/>
@@ -5471,9 +5484,9 @@
       <c r="H4" s="207"/>
       <c r="I4" s="208"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="211" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="211"/>
       <c r="C5" s="211"/>
@@ -5484,7 +5497,7 @@
       <c r="H5" s="211"/>
       <c r="I5" s="211"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="211"/>
       <c r="B6" s="211"/>
       <c r="C6" s="211"/>
@@ -5495,7 +5508,7 @@
       <c r="H6" s="211"/>
       <c r="I6" s="211"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -5506,69 +5519,69 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" thickTop="1">
-      <c r="A8" s="215" t="s">
+    <row r="8" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="219" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="221" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="223" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="223"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="224" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="224"/>
+      <c r="H8" s="224"/>
+      <c r="I8" s="226" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="217" t="s">
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="220"/>
+      <c r="B9" s="222"/>
+      <c r="C9" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="219" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="220" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="220"/>
-      <c r="H8" s="220"/>
-      <c r="I8" s="212" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1">
-      <c r="A9" s="216"/>
-      <c r="B9" s="218"/>
-      <c r="C9" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="31" t="s">
+      <c r="E9" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="F9" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="31" t="s">
+      <c r="H9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="213"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickTop="1">
-      <c r="A10" s="221" t="s">
+      <c r="I9" s="227"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="225" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="221"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="221"/>
+      <c r="B10" s="225"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="225"/>
+      <c r="E10" s="225"/>
+      <c r="F10" s="225"/>
+      <c r="G10" s="225"/>
+      <c r="H10" s="225"/>
       <c r="I10" s="30"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="17">
         <v>150</v>
@@ -5594,7 +5607,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5605,7 +5618,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5616,25 +5629,25 @@
       <c r="H13" s="1"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="214" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="214"/>
-      <c r="C14" s="214"/>
-      <c r="D14" s="214"/>
-      <c r="E14" s="214"/>
-      <c r="F14" s="214"/>
-      <c r="G14" s="214"/>
-      <c r="H14" s="214"/>
+      <c r="B14" s="218"/>
+      <c r="C14" s="218"/>
+      <c r="D14" s="218"/>
+      <c r="E14" s="218"/>
+      <c r="F14" s="218"/>
+      <c r="G14" s="218"/>
+      <c r="H14" s="218"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="17">
         <v>30</v>
@@ -5660,7 +5673,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5671,25 +5684,25 @@
       <c r="H16" s="1"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="214" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="218" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="214"/>
-      <c r="C17" s="214"/>
-      <c r="D17" s="214"/>
-      <c r="E17" s="214"/>
-      <c r="F17" s="214"/>
-      <c r="G17" s="214"/>
-      <c r="H17" s="214"/>
+      <c r="B17" s="218"/>
+      <c r="C17" s="218"/>
+      <c r="D17" s="218"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="218"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="218"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" s="17">
         <v>60</v>
@@ -5715,7 +5728,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5726,20 +5739,20 @@
       <c r="H19" s="1"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="214" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="214"/>
-      <c r="C20" s="214"/>
-      <c r="D20" s="214"/>
-      <c r="E20" s="214"/>
-      <c r="F20" s="214"/>
-      <c r="G20" s="214"/>
-      <c r="H20" s="214"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="218" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="218"/>
+      <c r="C20" s="218"/>
+      <c r="D20" s="218"/>
+      <c r="E20" s="218"/>
+      <c r="F20" s="218"/>
+      <c r="G20" s="218"/>
+      <c r="H20" s="218"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -5750,7 +5763,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -5761,20 +5774,20 @@
       <c r="H22" s="1"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="214" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="218" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="214"/>
-      <c r="C23" s="214"/>
-      <c r="D23" s="214"/>
-      <c r="E23" s="214"/>
-      <c r="F23" s="214"/>
-      <c r="G23" s="214"/>
-      <c r="H23" s="214"/>
+      <c r="B23" s="218"/>
+      <c r="C23" s="218"/>
+      <c r="D23" s="218"/>
+      <c r="E23" s="218"/>
+      <c r="F23" s="218"/>
+      <c r="G23" s="218"/>
+      <c r="H23" s="218"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -5785,7 +5798,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -5796,20 +5809,20 @@
       <c r="H25" s="1"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="214" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="218" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="214"/>
-      <c r="C26" s="214"/>
-      <c r="D26" s="214"/>
-      <c r="E26" s="214"/>
-      <c r="F26" s="214"/>
-      <c r="G26" s="214"/>
-      <c r="H26" s="214"/>
+      <c r="B26" s="218"/>
+      <c r="C26" s="218"/>
+      <c r="D26" s="218"/>
+      <c r="E26" s="218"/>
+      <c r="F26" s="218"/>
+      <c r="G26" s="218"/>
+      <c r="H26" s="218"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -5820,7 +5833,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -5831,20 +5844,20 @@
       <c r="H28" s="1"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="214" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="214"/>
-      <c r="C29" s="214"/>
-      <c r="D29" s="214"/>
-      <c r="E29" s="214"/>
-      <c r="F29" s="214"/>
-      <c r="G29" s="214"/>
-      <c r="H29" s="214"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="218" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="218"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="218"/>
+      <c r="F29" s="218"/>
+      <c r="G29" s="218"/>
+      <c r="H29" s="218"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -5855,7 +5868,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -5866,7 +5879,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -5877,79 +5890,78 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="225" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="226"/>
-      <c r="C33" s="226"/>
-      <c r="D33" s="226"/>
-      <c r="E33" s="226"/>
-      <c r="F33" s="227"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="215" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="216"/>
+      <c r="C33" s="216"/>
+      <c r="D33" s="216"/>
+      <c r="E33" s="216"/>
+      <c r="F33" s="217"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="225" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="226"/>
-      <c r="C34" s="226"/>
-      <c r="D34" s="226"/>
-      <c r="E34" s="226"/>
-      <c r="F34" s="227"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="215" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="216"/>
+      <c r="C34" s="216"/>
+      <c r="D34" s="216"/>
+      <c r="E34" s="216"/>
+      <c r="F34" s="217"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="222" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="223"/>
-      <c r="C35" s="223"/>
-      <c r="D35" s="223"/>
-      <c r="E35" s="223"/>
-      <c r="F35" s="224"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="212" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="213"/>
+      <c r="C35" s="213"/>
+      <c r="D35" s="213"/>
+      <c r="E35" s="213"/>
+      <c r="F35" s="214"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="222" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="223"/>
-      <c r="C36" s="223"/>
-      <c r="D36" s="223"/>
-      <c r="E36" s="223"/>
-      <c r="F36" s="224"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="212" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="213"/>
+      <c r="C36" s="213"/>
+      <c r="D36" s="213"/>
+      <c r="E36" s="213"/>
+      <c r="F36" s="214"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="222" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="223"/>
-      <c r="C37" s="223"/>
-      <c r="D37" s="223"/>
-      <c r="E37" s="223"/>
-      <c r="F37" s="224"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="212" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="213"/>
+      <c r="C37" s="213"/>
+      <c r="D37" s="213"/>
+      <c r="E37" s="213"/>
+      <c r="F37" s="214"/>
       <c r="G37" s="7"/>
       <c r="H37" s="14"/>
       <c r="I37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A5:I6"/>
+    <mergeCell ref="A1:I4"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A23:H23"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -5958,11 +5970,12 @@
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A17:H17"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A5:I6"/>
-    <mergeCell ref="A1:I4"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -5982,57 +5995,57 @@
       <selection pane="bottomLeft" activeCell="A13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="145" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="147"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="148"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="150"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1">
-      <c r="A3" s="151"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="153"/>
-    </row>
-    <row r="5" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="137" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="139"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="140"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="142"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="143"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="145"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="211" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="211"/>
       <c r="C5" s="211"/>
@@ -6045,7 +6058,7 @@
       <c r="J5" s="211"/>
       <c r="K5" s="211"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="211"/>
       <c r="B6" s="211"/>
       <c r="C6" s="211"/>
@@ -6058,7 +6071,7 @@
       <c r="J6" s="211"/>
       <c r="K6" s="211"/>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1">
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -6071,122 +6084,122 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="1:11" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A8" s="261"/>
-      <c r="B8" s="262"/>
-      <c r="C8" s="263"/>
-      <c r="D8" s="258" t="s">
+    <row r="8" spans="1:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="234"/>
+      <c r="B8" s="235"/>
+      <c r="C8" s="236"/>
+      <c r="D8" s="231" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="232"/>
+      <c r="F8" s="232"/>
+      <c r="G8" s="232"/>
+      <c r="H8" s="232"/>
+      <c r="I8" s="232"/>
+      <c r="J8" s="232"/>
+      <c r="K8" s="233"/>
+    </row>
+    <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="237" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="238"/>
+      <c r="C9" s="239"/>
+      <c r="D9" s="240">
+        <v>380</v>
+      </c>
+      <c r="E9" s="241"/>
+      <c r="F9" s="241"/>
+      <c r="G9" s="241"/>
+      <c r="H9" s="241"/>
+      <c r="I9" s="241"/>
+      <c r="J9" s="241"/>
+      <c r="K9" s="242"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="237" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="238"/>
+      <c r="C10" s="239"/>
+      <c r="D10" s="240">
+        <v>35</v>
+      </c>
+      <c r="E10" s="241"/>
+      <c r="F10" s="241"/>
+      <c r="G10" s="241"/>
+      <c r="H10" s="241"/>
+      <c r="I10" s="241"/>
+      <c r="J10" s="241"/>
+      <c r="K10" s="242"/>
+    </row>
+    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="237" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="259"/>
-      <c r="F8" s="259"/>
-      <c r="G8" s="259"/>
-      <c r="H8" s="259"/>
-      <c r="I8" s="259"/>
-      <c r="J8" s="259"/>
-      <c r="K8" s="260"/>
-    </row>
-    <row r="9" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A9" s="240" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="241"/>
-      <c r="C9" s="242"/>
-      <c r="D9" s="246">
-        <v>380</v>
-      </c>
-      <c r="E9" s="247"/>
-      <c r="F9" s="247"/>
-      <c r="G9" s="247"/>
-      <c r="H9" s="247"/>
-      <c r="I9" s="247"/>
-      <c r="J9" s="247"/>
-      <c r="K9" s="248"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A10" s="240" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="241"/>
-      <c r="C10" s="242"/>
-      <c r="D10" s="246">
-        <v>35</v>
-      </c>
-      <c r="E10" s="247"/>
-      <c r="F10" s="247"/>
-      <c r="G10" s="247"/>
-      <c r="H10" s="247"/>
-      <c r="I10" s="247"/>
-      <c r="J10" s="247"/>
-      <c r="K10" s="248"/>
-    </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A11" s="240" t="s">
+      <c r="B11" s="238"/>
+      <c r="C11" s="239"/>
+      <c r="D11" s="240" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="241"/>
+      <c r="F11" s="241"/>
+      <c r="G11" s="241"/>
+      <c r="H11" s="241"/>
+      <c r="I11" s="241"/>
+      <c r="J11" s="241"/>
+      <c r="K11" s="242"/>
+    </row>
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="237" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="241"/>
-      <c r="C11" s="242"/>
-      <c r="D11" s="246" t="s">
+      <c r="B12" s="238"/>
+      <c r="C12" s="239"/>
+      <c r="D12" s="240">
+        <v>95</v>
+      </c>
+      <c r="E12" s="241"/>
+      <c r="F12" s="241"/>
+      <c r="G12" s="241"/>
+      <c r="H12" s="241"/>
+      <c r="I12" s="241"/>
+      <c r="J12" s="241"/>
+      <c r="K12" s="242"/>
+    </row>
+    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="237" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="238"/>
+      <c r="C13" s="239"/>
+      <c r="D13" s="240" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="241"/>
+      <c r="F13" s="241"/>
+      <c r="G13" s="241"/>
+      <c r="H13" s="241"/>
+      <c r="I13" s="241"/>
+      <c r="J13" s="241"/>
+      <c r="K13" s="242"/>
+    </row>
+    <row r="14" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="264" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="247"/>
-      <c r="F11" s="247"/>
-      <c r="G11" s="247"/>
-      <c r="H11" s="247"/>
-      <c r="I11" s="247"/>
-      <c r="J11" s="247"/>
-      <c r="K11" s="248"/>
-    </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A12" s="240" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="241"/>
-      <c r="C12" s="242"/>
-      <c r="D12" s="246">
-        <v>95</v>
-      </c>
-      <c r="E12" s="247"/>
-      <c r="F12" s="247"/>
-      <c r="G12" s="247"/>
-      <c r="H12" s="247"/>
-      <c r="I12" s="247"/>
-      <c r="J12" s="247"/>
-      <c r="K12" s="248"/>
-    </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A13" s="240" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="241"/>
-      <c r="C13" s="242"/>
-      <c r="D13" s="246" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="247"/>
-      <c r="H13" s="247"/>
-      <c r="I13" s="247"/>
-      <c r="J13" s="247"/>
-      <c r="K13" s="248"/>
-    </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A14" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="244"/>
-      <c r="C14" s="245"/>
-      <c r="D14" s="249"/>
-      <c r="E14" s="250"/>
-      <c r="F14" s="250"/>
-      <c r="G14" s="250"/>
-      <c r="H14" s="250"/>
-      <c r="I14" s="250"/>
-      <c r="J14" s="250"/>
-      <c r="K14" s="251"/>
-    </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" thickTop="1">
+      <c r="B14" s="265"/>
+      <c r="C14" s="266"/>
+      <c r="D14" s="243"/>
+      <c r="E14" s="244"/>
+      <c r="F14" s="244"/>
+      <c r="G14" s="244"/>
+      <c r="H14" s="244"/>
+      <c r="I14" s="244"/>
+      <c r="J14" s="244"/>
+      <c r="K14" s="245"/>
+    </row>
+    <row r="15" spans="1:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
@@ -6199,64 +6212,64 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1"/>
-    <row r="17" spans="1:11" ht="15" thickTop="1">
-      <c r="A17" s="238"/>
-      <c r="B17" s="239"/>
-      <c r="C17" s="239"/>
-      <c r="D17" s="256" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="256"/>
-      <c r="F17" s="256"/>
-      <c r="G17" s="256"/>
-      <c r="H17" s="256"/>
-      <c r="I17" s="256"/>
-      <c r="J17" s="256"/>
-      <c r="K17" s="257"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="228" t="s">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="262"/>
+      <c r="B17" s="263"/>
+      <c r="C17" s="263"/>
+      <c r="D17" s="250" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="250"/>
+      <c r="F17" s="250"/>
+      <c r="G17" s="250"/>
+      <c r="H17" s="250"/>
+      <c r="I17" s="250"/>
+      <c r="J17" s="250"/>
+      <c r="K17" s="251"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="252" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="254" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="256" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="230" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="232" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="234" t="s">
+      <c r="D18" s="258" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="258" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="234" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="236"/>
-      <c r="G18" s="236"/>
-      <c r="H18" s="252"/>
-      <c r="I18" s="252"/>
-      <c r="J18" s="252"/>
-      <c r="K18" s="254"/>
-    </row>
-    <row r="19" spans="1:11" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A19" s="229"/>
-      <c r="B19" s="231"/>
-      <c r="C19" s="233"/>
-      <c r="D19" s="235"/>
-      <c r="E19" s="235"/>
-      <c r="F19" s="237"/>
-      <c r="G19" s="237"/>
-      <c r="H19" s="253"/>
-      <c r="I19" s="253"/>
-      <c r="J19" s="253"/>
-      <c r="K19" s="255"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" thickTop="1">
+      <c r="F18" s="260"/>
+      <c r="G18" s="260"/>
+      <c r="H18" s="246"/>
+      <c r="I18" s="246"/>
+      <c r="J18" s="246"/>
+      <c r="K18" s="248"/>
+    </row>
+    <row r="19" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="253"/>
+      <c r="B19" s="255"/>
+      <c r="C19" s="257"/>
+      <c r="D19" s="259"/>
+      <c r="E19" s="259"/>
+      <c r="F19" s="261"/>
+      <c r="G19" s="261"/>
+      <c r="H19" s="247"/>
+      <c r="I19" s="247"/>
+      <c r="J19" s="247"/>
+      <c r="K19" s="249"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="32">
         <v>1</v>
@@ -6274,12 +6287,12 @@
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="C21" s="18">
         <v>1</v>
@@ -6297,9 +6310,9 @@
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="17">
         <v>2</v>
@@ -6320,7 +6333,7 @@
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -6333,7 +6346,7 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -6346,7 +6359,7 @@
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -6359,7 +6372,7 @@
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -6372,7 +6385,7 @@
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -6385,7 +6398,7 @@
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -6398,7 +6411,7 @@
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -6411,7 +6424,7 @@
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -6424,7 +6437,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -6437,12 +6450,12 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="264" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="265"/>
-      <c r="C32" s="266"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="228" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="229"/>
+      <c r="C32" s="230"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -6452,12 +6465,12 @@
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="264" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="265"/>
-      <c r="C33" s="266"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="228" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="229"/>
+      <c r="C33" s="230"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
@@ -6467,12 +6480,12 @@
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="264" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="265"/>
-      <c r="C34" s="266"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="228" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="229"/>
+      <c r="C34" s="230"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
@@ -6482,12 +6495,12 @@
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="264" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="265"/>
-      <c r="C35" s="266"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="228" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="229"/>
+      <c r="C35" s="230"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -6497,12 +6510,12 @@
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="264" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="265"/>
-      <c r="C36" s="266"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="228" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="229"/>
+      <c r="C36" s="230"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -6514,24 +6527,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="D17:K17"/>
     <mergeCell ref="A1:K3"/>
     <mergeCell ref="A5:K6"/>
     <mergeCell ref="A18:A19"/>
@@ -6548,6 +6543,24 @@
     <mergeCell ref="D9:K9"/>
     <mergeCell ref="D10:K10"/>
     <mergeCell ref="D11:K11"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6568,84 +6581,84 @@
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="145" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="147"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="148"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="150"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1">
-      <c r="A3" s="151"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="153"/>
-    </row>
-    <row r="5" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="137" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="140"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="142"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="143"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="145"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="61" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="72"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="72" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="72"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="72" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15">
-      <c r="A9" s="72" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15">
-      <c r="A10" s="72"/>
-    </row>
-    <row r="11" spans="1:13" ht="15">
-      <c r="A11" s="72" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15">
-      <c r="A12" s="72"/>
-    </row>
-    <row r="13" spans="1:13" ht="15">
-      <c r="A13" s="72" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -6671,84 +6684,84 @@
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="145" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="147"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="148"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="150"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1">
-      <c r="A3" s="151"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="153"/>
-    </row>
-    <row r="5" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="137" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="140"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="142"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="143"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="145"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="61" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="72"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="72" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15">
-      <c r="A10" s="72"/>
-    </row>
-    <row r="11" spans="1:13" ht="15">
-      <c r="A11" s="72" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="72"/>
     </row>
-    <row r="13" spans="1:13" ht="15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/Annex 1 CubeSat_Overview_Spreadsheet.xlsx
+++ b/Annex 1 CubeSat_Overview_Spreadsheet.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="189">
   <si>
     <t>Attitude Determination and Control Subsystem</t>
   </si>
@@ -781,12 +781,6 @@
     <t>Solar Panels</t>
   </si>
   <si>
-    <t>Comms Tx</t>
-  </si>
-  <si>
-    <t>Comms Rx</t>
-  </si>
-  <si>
     <t>Kapton Tape</t>
   </si>
   <si>
@@ -821,13 +815,7 @@
     <t>SD Card</t>
   </si>
   <si>
-    <t>Amplifier Tx</t>
-  </si>
-  <si>
     <t>Multi-Layer Insulating Material</t>
-  </si>
-  <si>
-    <t>Voltage Regulators</t>
   </si>
   <si>
     <t>Iduino Due (Include USB serial connector)</t>
@@ -883,6 +871,57 @@
       </rPr>
       <t>Bill of Materials</t>
     </r>
+  </si>
+  <si>
+    <t>3D Printed (organised with USyd 3D printing Lab)</t>
+  </si>
+  <si>
+    <t>http://www.adafruit.com/product/1604</t>
+  </si>
+  <si>
+    <t>http://www.aliexpress.com/item/Wholesale-10pcs-lot-4-5Watt-6V-Monocrystalline-Silicon-Solar-Cells-High-Efficiency-Solar-Panel-DIY-Solar/32328601398.html</t>
+  </si>
+  <si>
+    <t>http://www.adafruit.com/product/328</t>
+  </si>
+  <si>
+    <t>http://www.adafruit.com/products/390</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com.au/product-detail/en/ACS712ELCTR-20A-T/620-1190-1-ND/1284607</t>
+  </si>
+  <si>
+    <t>http://ava.upuaut.net/store/index.php?route=product/product&amp;path=59_60&amp;product_id=52</t>
+  </si>
+  <si>
+    <t>Voltage Regulators - MC33063A - 1.5-A Peak Boost/Buck/Inverting Switching Regulator</t>
+  </si>
+  <si>
+    <t>http://www.ti.com/product/MC33063A/description</t>
+  </si>
+  <si>
+    <t>http://store.rfdesign.com.au/rfd-900p-modem/</t>
+  </si>
+  <si>
+    <t>Comms Tx &amp; Rx</t>
+  </si>
+  <si>
+    <t>GPS: Assembled uBLOX MAX-M8C Pico Breakout with Chip Antenna</t>
+  </si>
+  <si>
+    <t>1 x 9</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/products/254</t>
+  </si>
+  <si>
+    <t>http://www.ebay.com/itm/Arducam-Mini-module-Camera-Shield-w-2-MP-OV2640-for-Arduino-UNO-Mega2560-board-/281639729684</t>
+  </si>
+  <si>
+    <t>Rubber Duck Antennae</t>
+  </si>
+  <si>
+    <t>http://www.l-com.com/wireless-antenna-900-mhz-5dbi-rubber-duck-antenna-rp-sma-plug-connector#</t>
   </si>
 </sst>
 </file>
@@ -2033,7 +2072,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2047,8 +2086,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2194,9 +2234,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2260,44 +2297,6 @@
     <xf numFmtId="2" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2306,60 +2305,275 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
@@ -2367,232 +2581,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2636,6 +2673,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2654,35 +2721,113 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2693,116 +2838,18 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="13" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2815,6 +2862,7 @@
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3156,22 +3204,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="139"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="155"/>
       <c r="Q1" s="55"/>
       <c r="R1" s="55"/>
       <c r="S1" s="55"/>
@@ -3203,20 +3251,20 @@
       <c r="AQ1" s="56"/>
     </row>
     <row r="2" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="140"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="142"/>
+      <c r="A2" s="156"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="158"/>
       <c r="Q2" s="55"/>
       <c r="R2" s="55"/>
       <c r="S2" s="55"/>
@@ -3248,20 +3296,20 @@
       <c r="AQ2" s="56"/>
     </row>
     <row r="3" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="143"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="145"/>
+      <c r="A3" s="159"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="161"/>
       <c r="Q3" s="55"/>
       <c r="R3" s="55"/>
       <c r="S3" s="55"/>
@@ -3293,22 +3341,22 @@
       <c r="AQ3" s="56"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="167" t="s">
+      <c r="A4" s="125" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="168"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="126"/>
       <c r="Q4" s="55"/>
       <c r="R4" s="55"/>
       <c r="S4" s="55"/>
@@ -3342,20 +3390,20 @@
       <c r="AQ4" s="56"/>
     </row>
     <row r="5" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="169"/>
-      <c r="B5" s="169"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="169"/>
-      <c r="K5" s="169"/>
-      <c r="L5" s="169"/>
-      <c r="M5" s="169"/>
-      <c r="N5" s="170"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="128"/>
       <c r="Q5" s="55"/>
       <c r="R5" s="55"/>
       <c r="S5" s="55"/>
@@ -3389,20 +3437,20 @@
       <c r="AQ5" s="56"/>
     </row>
     <row r="6" spans="1:43" s="21" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="169"/>
-      <c r="B6" s="169"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="169"/>
-      <c r="K6" s="169"/>
-      <c r="L6" s="169"/>
-      <c r="M6" s="169"/>
-      <c r="N6" s="170"/>
+      <c r="A6" s="127"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="128"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="55"/>
@@ -3436,22 +3484,22 @@
       <c r="AQ6" s="57"/>
     </row>
     <row r="7" spans="1:43" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="159" t="s">
+      <c r="A7" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="160"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="160"/>
-      <c r="K7" s="160"/>
-      <c r="L7" s="160"/>
-      <c r="M7" s="160"/>
-      <c r="N7" s="161"/>
+      <c r="B7" s="175"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="175"/>
+      <c r="L7" s="175"/>
+      <c r="M7" s="175"/>
+      <c r="N7" s="176"/>
       <c r="O7" s="43"/>
       <c r="P7" s="43"/>
       <c r="Q7" s="58"/>
@@ -3495,16 +3543,16 @@
       <c r="D8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
       <c r="Q8" s="55"/>
       <c r="R8" s="55"/>
       <c r="S8" s="55"/>
@@ -3536,20 +3584,20 @@
       <c r="AQ8" s="56"/>
     </row>
     <row r="9" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="150"/>
-      <c r="B9" s="152"/>
-      <c r="C9" s="152"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
+      <c r="A9" s="168"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="140"/>
+      <c r="N9" s="140"/>
       <c r="Q9" s="55"/>
       <c r="R9" s="55"/>
       <c r="S9" s="55"/>
@@ -3581,20 +3629,20 @@
       <c r="AQ9" s="56"/>
     </row>
     <row r="10" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="151"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
+      <c r="A10" s="169"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="141"/>
+      <c r="M10" s="141"/>
+      <c r="N10" s="141"/>
       <c r="Q10" s="55"/>
       <c r="R10" s="55"/>
       <c r="S10" s="55"/>
@@ -3624,22 +3672,22 @@
       <c r="AQ10" s="56"/>
     </row>
     <row r="11" spans="1:43" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="162" t="s">
+      <c r="A11" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="163"/>
-      <c r="C11" s="163"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="163"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="163"/>
-      <c r="K11" s="163"/>
-      <c r="L11" s="163"/>
-      <c r="M11" s="163"/>
-      <c r="N11" s="164"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="101"/>
       <c r="O11" s="43"/>
       <c r="P11" s="43"/>
       <c r="Q11" s="58"/>
@@ -3691,14 +3739,14 @@
       <c r="F12" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="179"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="179"/>
-      <c r="J12" s="179"/>
-      <c r="K12" s="179"/>
-      <c r="L12" s="179"/>
-      <c r="M12" s="179"/>
-      <c r="N12" s="179"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="142"/>
+      <c r="M12" s="142"/>
+      <c r="N12" s="142"/>
       <c r="Q12" s="55"/>
       <c r="R12" s="55"/>
       <c r="S12" s="55"/>
@@ -3730,20 +3778,20 @@
       <c r="AQ12" s="56"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A13" s="119"/>
-      <c r="B13" s="182"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="180"/>
-      <c r="J13" s="180"/>
-      <c r="K13" s="180"/>
-      <c r="L13" s="180"/>
-      <c r="M13" s="180"/>
-      <c r="N13" s="180"/>
+      <c r="A13" s="122"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="143"/>
+      <c r="N13" s="143"/>
       <c r="Q13" s="55"/>
       <c r="R13" s="55"/>
       <c r="S13" s="55"/>
@@ -3775,20 +3823,20 @@
       <c r="AQ13" s="56"/>
     </row>
     <row r="14" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="120"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="184"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="181"/>
-      <c r="I14" s="181"/>
-      <c r="J14" s="181"/>
-      <c r="K14" s="181"/>
-      <c r="L14" s="181"/>
-      <c r="M14" s="181"/>
-      <c r="N14" s="181"/>
+      <c r="A14" s="173"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="144"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="144"/>
+      <c r="N14" s="144"/>
       <c r="Q14" s="55"/>
       <c r="R14" s="55"/>
       <c r="S14" s="55"/>
@@ -3820,22 +3868,22 @@
       <c r="AQ14" s="56"/>
     </row>
     <row r="15" spans="1:43" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="163"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
-      <c r="L15" s="163"/>
-      <c r="M15" s="163"/>
-      <c r="N15" s="164"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="101"/>
       <c r="O15" s="43"/>
       <c r="P15" s="43"/>
       <c r="Q15" s="58"/>
@@ -3867,34 +3915,34 @@
       <c r="AQ15" s="56"/>
     </row>
     <row r="16" spans="1:43" ht="54" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="171" t="s">
+      <c r="A16" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="174" t="s">
+      <c r="C16" s="133" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="176" t="s">
+      <c r="D16" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="E16" s="177" t="s">
+      <c r="E16" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="97" t="s">
+      <c r="F16" s="184" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="98"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="92" t="s">
+      <c r="G16" s="185"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="185"/>
-      <c r="N16" s="186"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="117"/>
       <c r="Q16" s="55"/>
       <c r="R16" s="55"/>
       <c r="S16" s="55"/>
@@ -3924,11 +3972,11 @@
       <c r="AQ16" s="56"/>
     </row>
     <row r="17" spans="1:43" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="172"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="178"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="138"/>
       <c r="F17" s="47" t="s">
         <v>12</v>
       </c>
@@ -3950,8 +3998,8 @@
       <c r="L17" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="M17" s="187"/>
-      <c r="N17" s="188"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="119"/>
       <c r="Q17" s="55"/>
       <c r="R17" s="55"/>
       <c r="S17" s="55"/>
@@ -3981,20 +4029,20 @@
       <c r="AQ17" s="56"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A18" s="112"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="157"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="187"/>
-      <c r="N18" s="188"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="119"/>
       <c r="Q18" s="55"/>
       <c r="R18" s="55"/>
       <c r="S18" s="55"/>
@@ -4024,20 +4072,20 @@
       <c r="AQ18" s="56"/>
     </row>
     <row r="19" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="113"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="189"/>
-      <c r="N19" s="190"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="121"/>
       <c r="Q19" s="55"/>
       <c r="R19" s="55"/>
       <c r="S19" s="55"/>
@@ -4067,22 +4115,22 @@
       <c r="AQ19" s="56"/>
     </row>
     <row r="20" spans="1:43" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="122" t="s">
+      <c r="A20" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="163"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="163"/>
-      <c r="K20" s="163"/>
-      <c r="L20" s="163"/>
-      <c r="M20" s="163"/>
-      <c r="N20" s="164"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="101"/>
       <c r="O20" s="43"/>
       <c r="P20" s="43"/>
       <c r="Q20" s="58"/>
@@ -4129,15 +4177,15 @@
       <c r="E21" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="126"/>
-      <c r="N21" s="127"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="104"/>
       <c r="Q21" s="55"/>
       <c r="R21" s="55"/>
       <c r="S21" s="55"/>
@@ -4167,54 +4215,54 @@
       <c r="AQ21" s="56"/>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A22" s="112"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="192"/>
-      <c r="G22" s="192"/>
-      <c r="H22" s="192"/>
-      <c r="I22" s="192"/>
-      <c r="J22" s="192"/>
-      <c r="K22" s="192"/>
-      <c r="L22" s="192"/>
-      <c r="M22" s="192"/>
-      <c r="N22" s="130"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="106"/>
     </row>
     <row r="23" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="113"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="132"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="133"/>
+      <c r="A23" s="102"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="108"/>
     </row>
     <row r="24" spans="1:43" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="122" t="s">
+      <c r="A24" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="163"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="163"/>
-      <c r="E24" s="163"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="163"/>
-      <c r="K24" s="163"/>
-      <c r="L24" s="163"/>
-      <c r="M24" s="163"/>
-      <c r="N24" s="164"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="101"/>
       <c r="O24" s="43"/>
       <c r="P24" s="43"/>
       <c r="Q24" s="43"/>
@@ -4222,90 +4270,90 @@
       <c r="S24" s="43"/>
     </row>
     <row r="25" spans="1:43" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="95" t="s">
+      <c r="A25" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="100" t="s">
+      <c r="B25" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="154"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="154"/>
-      <c r="K25" s="154"/>
-      <c r="L25" s="154"/>
-      <c r="M25" s="154"/>
-      <c r="N25" s="154"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="170"/>
+      <c r="K25" s="170"/>
+      <c r="L25" s="170"/>
+      <c r="M25" s="170"/>
+      <c r="N25" s="170"/>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A26" s="96"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="155"/>
-      <c r="N26" s="155"/>
+      <c r="A26" s="163"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="171"/>
+      <c r="D26" s="171"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="171"/>
+      <c r="J26" s="171"/>
+      <c r="K26" s="171"/>
+      <c r="L26" s="171"/>
+      <c r="M26" s="171"/>
+      <c r="N26" s="171"/>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A27" s="112"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="155"/>
-      <c r="I27" s="155"/>
-      <c r="J27" s="155"/>
-      <c r="K27" s="155"/>
-      <c r="L27" s="155"/>
-      <c r="M27" s="155"/>
-      <c r="N27" s="155"/>
+      <c r="A27" s="94"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="171"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="171"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="171"/>
+      <c r="K27" s="171"/>
+      <c r="L27" s="171"/>
+      <c r="M27" s="171"/>
+      <c r="N27" s="171"/>
     </row>
     <row r="28" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="113"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="156"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="172"/>
+      <c r="J28" s="172"/>
+      <c r="K28" s="172"/>
+      <c r="L28" s="172"/>
+      <c r="M28" s="172"/>
+      <c r="N28" s="172"/>
     </row>
     <row r="29" spans="1:43" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="122" t="s">
+      <c r="A29" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="163"/>
-      <c r="C29" s="163"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="163"/>
-      <c r="F29" s="163"/>
-      <c r="G29" s="163"/>
-      <c r="H29" s="163"/>
-      <c r="I29" s="163"/>
-      <c r="J29" s="163"/>
-      <c r="K29" s="163"/>
-      <c r="L29" s="163"/>
-      <c r="M29" s="163"/>
-      <c r="N29" s="164"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="101"/>
       <c r="O29" s="43"/>
       <c r="P29" s="43"/>
       <c r="Q29" s="43"/>
@@ -4313,38 +4361,38 @@
       <c r="S29" s="43"/>
     </row>
     <row r="30" spans="1:43" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="95" t="s">
+      <c r="A30" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="100" t="s">
+      <c r="B30" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="146" t="s">
+      <c r="C30" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="148" t="s">
+      <c r="D30" s="136" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="106" t="s">
+      <c r="E30" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="107"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="109" t="s">
+      <c r="F30" s="190"/>
+      <c r="G30" s="191"/>
+      <c r="H30" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="111"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="126"/>
-      <c r="N30" s="127"/>
+      <c r="I30" s="193"/>
+      <c r="J30" s="193"/>
+      <c r="K30" s="194"/>
+      <c r="L30" s="180"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="104"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A31" s="96"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="149"/>
+      <c r="A31" s="163"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="166"/>
+      <c r="D31" s="167"/>
       <c r="E31" s="48" t="s">
         <v>6</v>
       </c>
@@ -4366,59 +4414,59 @@
       <c r="K31" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L31" s="128"/>
-      <c r="M31" s="129"/>
-      <c r="N31" s="130"/>
+      <c r="L31" s="181"/>
+      <c r="M31" s="182"/>
+      <c r="N31" s="106"/>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A32" s="104"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="128"/>
-      <c r="M32" s="129"/>
-      <c r="N32" s="130"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="181"/>
+      <c r="M32" s="182"/>
+      <c r="N32" s="106"/>
     </row>
     <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="105"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="131"/>
-      <c r="M33" s="132"/>
-      <c r="N33" s="133"/>
+      <c r="A33" s="92"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="183"/>
+      <c r="M33" s="107"/>
+      <c r="N33" s="108"/>
     </row>
     <row r="34" spans="1:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="195" t="s">
+      <c r="A34" s="111" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="196"/>
-      <c r="C34" s="196"/>
-      <c r="D34" s="196"/>
-      <c r="E34" s="196"/>
-      <c r="F34" s="196"/>
-      <c r="G34" s="196"/>
-      <c r="H34" s="196"/>
-      <c r="I34" s="196"/>
-      <c r="J34" s="196"/>
-      <c r="K34" s="196"/>
-      <c r="L34" s="196"/>
-      <c r="M34" s="196"/>
-      <c r="N34" s="197"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="112"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="112"/>
+      <c r="L34" s="112"/>
+      <c r="M34" s="112"/>
+      <c r="N34" s="113"/>
       <c r="O34" s="43"/>
       <c r="P34" s="43"/>
       <c r="Q34" s="43"/>
@@ -4426,29 +4474,29 @@
       <c r="S34" s="43"/>
     </row>
     <row r="35" spans="1:19" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="114" t="s">
+      <c r="A35" s="195" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="134" t="s">
+      <c r="B35" s="150" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="135"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="135"/>
-      <c r="H35" s="135"/>
-      <c r="I35" s="136"/>
-      <c r="J35" s="92" t="s">
+      <c r="C35" s="151"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="151"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="K35" s="93"/>
-      <c r="L35" s="93"/>
-      <c r="M35" s="93"/>
-      <c r="N35" s="94"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="97"/>
     </row>
     <row r="36" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="115"/>
+      <c r="A36" s="196"/>
       <c r="B36" s="47" t="s">
         <v>91</v>
       </c>
@@ -4490,54 +4538,54 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="112"/>
-      <c r="B37" s="104"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="104"/>
-      <c r="K37" s="104"/>
-      <c r="L37" s="193"/>
-      <c r="M37" s="104"/>
-      <c r="N37" s="104"/>
+      <c r="A37" s="94"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="187"/>
+      <c r="F37" s="187"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="109"/>
+      <c r="M37" s="91"/>
+      <c r="N37" s="91"/>
     </row>
     <row r="38" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="113"/>
-      <c r="B38" s="105"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="105"/>
-      <c r="J38" s="105"/>
-      <c r="K38" s="105"/>
-      <c r="L38" s="194"/>
-      <c r="M38" s="105"/>
-      <c r="N38" s="105"/>
+      <c r="A38" s="102"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="188"/>
+      <c r="F38" s="188"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="92"/>
+      <c r="L38" s="110"/>
+      <c r="M38" s="92"/>
+      <c r="N38" s="92"/>
     </row>
     <row r="39" spans="1:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="122" t="s">
+      <c r="A39" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="B39" s="123"/>
-      <c r="C39" s="123"/>
-      <c r="D39" s="123"/>
-      <c r="E39" s="123"/>
-      <c r="F39" s="123"/>
-      <c r="G39" s="123"/>
-      <c r="H39" s="123"/>
-      <c r="I39" s="123"/>
-      <c r="J39" s="123"/>
-      <c r="K39" s="123"/>
-      <c r="L39" s="123"/>
-      <c r="M39" s="123"/>
-      <c r="N39" s="124"/>
+      <c r="B39" s="178"/>
+      <c r="C39" s="178"/>
+      <c r="D39" s="178"/>
+      <c r="E39" s="178"/>
+      <c r="F39" s="178"/>
+      <c r="G39" s="178"/>
+      <c r="H39" s="178"/>
+      <c r="I39" s="178"/>
+      <c r="J39" s="178"/>
+      <c r="K39" s="178"/>
+      <c r="L39" s="178"/>
+      <c r="M39" s="178"/>
+      <c r="N39" s="179"/>
       <c r="O39" s="43"/>
       <c r="P39" s="43"/>
       <c r="Q39" s="43"/>
@@ -4545,76 +4593,76 @@
       <c r="S39" s="43"/>
     </row>
     <row r="40" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="69" t="s">
+      <c r="A40" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="70" t="s">
+      <c r="B40" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="71" t="s">
+      <c r="C40" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="116"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="116"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="116"/>
-      <c r="I40" s="116"/>
-      <c r="J40" s="116"/>
-      <c r="K40" s="116"/>
-      <c r="L40" s="116"/>
-      <c r="M40" s="116"/>
-      <c r="N40" s="116"/>
+      <c r="D40" s="139"/>
+      <c r="E40" s="139"/>
+      <c r="F40" s="139"/>
+      <c r="G40" s="139"/>
+      <c r="H40" s="139"/>
+      <c r="I40" s="139"/>
+      <c r="J40" s="139"/>
+      <c r="K40" s="139"/>
+      <c r="L40" s="139"/>
+      <c r="M40" s="139"/>
+      <c r="N40" s="139"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="119"/>
-      <c r="B41" s="121"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="117"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="117"/>
-      <c r="J41" s="117"/>
-      <c r="K41" s="117"/>
-      <c r="L41" s="117"/>
-      <c r="M41" s="117"/>
-      <c r="N41" s="117"/>
+      <c r="A41" s="122"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="140"/>
+      <c r="F41" s="140"/>
+      <c r="G41" s="140"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="140"/>
+      <c r="J41" s="140"/>
+      <c r="K41" s="140"/>
+      <c r="L41" s="140"/>
+      <c r="M41" s="140"/>
+      <c r="N41" s="140"/>
     </row>
     <row r="42" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="120"/>
-      <c r="B42" s="112"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="118"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="118"/>
-      <c r="H42" s="118"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="118"/>
-      <c r="K42" s="118"/>
-      <c r="L42" s="118"/>
-      <c r="M42" s="118"/>
-      <c r="N42" s="118"/>
+      <c r="A42" s="173"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="141"/>
+      <c r="E42" s="141"/>
+      <c r="F42" s="141"/>
+      <c r="G42" s="141"/>
+      <c r="H42" s="141"/>
+      <c r="I42" s="141"/>
+      <c r="J42" s="141"/>
+      <c r="K42" s="141"/>
+      <c r="L42" s="141"/>
+      <c r="M42" s="141"/>
+      <c r="N42" s="141"/>
     </row>
     <row r="43" spans="1:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="122" t="s">
+      <c r="A43" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="163"/>
-      <c r="C43" s="163"/>
-      <c r="D43" s="163"/>
-      <c r="E43" s="163"/>
-      <c r="F43" s="163"/>
-      <c r="G43" s="163"/>
-      <c r="H43" s="163"/>
-      <c r="I43" s="163"/>
-      <c r="J43" s="163"/>
-      <c r="K43" s="163"/>
-      <c r="L43" s="163"/>
-      <c r="M43" s="163"/>
-      <c r="N43" s="164"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="100"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="100"/>
+      <c r="M43" s="100"/>
+      <c r="N43" s="101"/>
       <c r="O43" s="43"/>
       <c r="P43" s="43"/>
       <c r="Q43" s="43"/>
@@ -4628,50 +4676,50 @@
       <c r="B44" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="165"/>
-      <c r="D44" s="165"/>
-      <c r="E44" s="165"/>
-      <c r="F44" s="165"/>
-      <c r="G44" s="165"/>
-      <c r="H44" s="165"/>
-      <c r="I44" s="165"/>
-      <c r="J44" s="165"/>
-      <c r="K44" s="165"/>
-      <c r="L44" s="165"/>
-      <c r="M44" s="165"/>
-      <c r="N44" s="165"/>
+      <c r="C44" s="123"/>
+      <c r="D44" s="123"/>
+      <c r="E44" s="123"/>
+      <c r="F44" s="123"/>
+      <c r="G44" s="123"/>
+      <c r="H44" s="123"/>
+      <c r="I44" s="123"/>
+      <c r="J44" s="123"/>
+      <c r="K44" s="123"/>
+      <c r="L44" s="123"/>
+      <c r="M44" s="123"/>
+      <c r="N44" s="123"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A45" s="119"/>
-      <c r="B45" s="121"/>
-      <c r="C45" s="166"/>
-      <c r="D45" s="166"/>
-      <c r="E45" s="166"/>
-      <c r="F45" s="166"/>
-      <c r="G45" s="166"/>
-      <c r="H45" s="166"/>
-      <c r="I45" s="166"/>
-      <c r="J45" s="166"/>
-      <c r="K45" s="166"/>
-      <c r="L45" s="166"/>
-      <c r="M45" s="166"/>
-      <c r="N45" s="166"/>
+      <c r="A45" s="122"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="124"/>
+      <c r="F45" s="124"/>
+      <c r="G45" s="124"/>
+      <c r="H45" s="124"/>
+      <c r="I45" s="124"/>
+      <c r="J45" s="124"/>
+      <c r="K45" s="124"/>
+      <c r="L45" s="124"/>
+      <c r="M45" s="124"/>
+      <c r="N45" s="124"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46" s="119"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="166"/>
-      <c r="D46" s="166"/>
-      <c r="E46" s="166"/>
-      <c r="F46" s="166"/>
-      <c r="G46" s="166"/>
-      <c r="H46" s="166"/>
-      <c r="I46" s="166"/>
-      <c r="J46" s="166"/>
-      <c r="K46" s="166"/>
-      <c r="L46" s="166"/>
-      <c r="M46" s="166"/>
-      <c r="N46" s="166"/>
+      <c r="A46" s="122"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="124"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="124"/>
+      <c r="J46" s="124"/>
+      <c r="K46" s="124"/>
+      <c r="L46" s="124"/>
+      <c r="M46" s="124"/>
+      <c r="N46" s="124"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47"/>
@@ -4696,26 +4744,26 @@
       <c r="E49" s="60"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="191" t="s">
+      <c r="A50" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="B50" s="191"/>
-      <c r="C50" s="191"/>
-      <c r="D50" s="191"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="98"/>
       <c r="E50" s="60"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="191"/>
-      <c r="B51" s="191"/>
-      <c r="C51" s="191"/>
-      <c r="D51" s="191"/>
+      <c r="A51" s="98"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
       <c r="E51" s="60"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="191"/>
-      <c r="B52" s="191"/>
-      <c r="C52" s="191"/>
-      <c r="D52" s="191"/>
+      <c r="A52" s="98"/>
+      <c r="B52" s="98"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="98"/>
       <c r="E52" s="60"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -4729,56 +4777,26 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataConsolidate/>
   <mergeCells count="97">
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A50:D52"/>
-    <mergeCell ref="A43:N43"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F21:N23"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="A29:N29"/>
-    <mergeCell ref="A34:N34"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="M16:N19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C44:N46"/>
-    <mergeCell ref="A4:N6"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E8:N10"/>
-    <mergeCell ref="G12:N14"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="L30:N33"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="J35:N35"/>
     <mergeCell ref="A1:N3"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
@@ -4794,6 +4812,26 @@
     <mergeCell ref="A7:N7"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A11:N11"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A4:N6"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E8:N10"/>
+    <mergeCell ref="G12:N14"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="M16:N19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C44:N46"/>
+    <mergeCell ref="B35:I35"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="J32:J33"/>
     <mergeCell ref="D40:N42"/>
@@ -4804,28 +4842,38 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="L30:N33"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A50:D52"/>
+    <mergeCell ref="A43:N43"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F21:N23"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="A29:N29"/>
+    <mergeCell ref="A34:N34"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="K18:K19"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E37:G37 J37 C18:C19 A37:A38 P37:R38 A45:B46 F18">
@@ -4865,8 +4913,8 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="8" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4882,57 +4930,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="200" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="202"/>
+      <c r="A1" s="199" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="201"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="203"/>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="205"/>
+      <c r="A2" s="202"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="204"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="206"/>
-      <c r="B3" s="207"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="208"/>
+      <c r="A3" s="205"/>
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="207"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="211" t="s">
+      <c r="A5" s="210" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="211"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="73"/>
-    </row>
-    <row r="6" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="211"/>
-      <c r="B6" s="211"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="73"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="210"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="72"/>
+    </row>
+    <row r="6" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="210"/>
+      <c r="B6" s="210"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="210"/>
+      <c r="E6" s="210"/>
+      <c r="F6" s="72"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:10" ht="59" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4945,75 +4993,79 @@
       <c r="C8" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="267" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8" s="76" t="s">
+      <c r="E8" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="H8" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="67" t="s">
+      <c r="I8" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="68" t="s">
+      <c r="J8" s="67" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="209" t="s">
+      <c r="A9" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="210"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="210"/>
-      <c r="F9" s="77"/>
+      <c r="B9" s="209"/>
+      <c r="C9" s="209"/>
+      <c r="D9" s="209"/>
+      <c r="E9" s="209"/>
+      <c r="F9" s="76"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="88" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="89" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="89">
+      <c r="A10" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="89"/>
+      <c r="D10" s="88">
         <v>1</v>
       </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="91"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="90"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="79"/>
+      <c r="F11" s="78"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="198" t="s">
+      <c r="A12" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="199"/>
-      <c r="C12" s="199"/>
-      <c r="D12" s="199"/>
-      <c r="E12" s="199"/>
-      <c r="F12" s="80"/>
+      <c r="B12" s="198"/>
+      <c r="C12" s="198"/>
+      <c r="D12" s="198"/>
+      <c r="E12" s="198"/>
+      <c r="F12" s="79"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -5027,8 +5079,10 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="81">
+      <c r="E13" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="80">
         <v>29.95</v>
       </c>
       <c r="H13" s="1"/>
@@ -5036,18 +5090,18 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="B14" s="78" t="s">
-        <v>174</v>
+      <c r="A14" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="77" t="s">
+        <v>170</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
         <v>6</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="82">
+      <c r="F14" s="81">
         <v>31.26</v>
       </c>
       <c r="H14" s="1"/>
@@ -5055,8 +5109,8 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="87" t="s">
-        <v>170</v>
+      <c r="A15" s="86" t="s">
+        <v>166</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5064,7 +5118,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="82">
+      <c r="F15" s="81">
         <v>39.950000000000003</v>
       </c>
       <c r="H15" s="1"/>
@@ -5075,17 +5129,17 @@
       <c r="A16" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="77" t="s">
         <v>149</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <v>3</v>
       </c>
-      <c r="E16" s="78" t="s">
+      <c r="E16" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="F16" s="79">
+      <c r="F16" s="78">
         <v>0</v>
       </c>
       <c r="H16" s="1"/>
@@ -5093,14 +5147,14 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="198" t="s">
+      <c r="A17" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="199"/>
-      <c r="C17" s="199"/>
-      <c r="D17" s="199"/>
-      <c r="E17" s="199"/>
-      <c r="F17" s="80"/>
+      <c r="B17" s="198"/>
+      <c r="C17" s="198"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="79"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -5112,8 +5166,10 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="79"/>
+      <c r="E18" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="78"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -5122,15 +5178,17 @@
       <c r="A19" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="77" t="s">
         <v>151</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
         <v>3</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="79">
+      <c r="E19" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="78">
         <v>52.5</v>
       </c>
       <c r="H19" s="1"/>
@@ -5139,15 +5197,17 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B20" s="78"/>
+        <v>179</v>
+      </c>
+      <c r="B20" s="77"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
         <v>2</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="79">
+      <c r="E20" s="82" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" s="78">
         <v>8.8000000000000007</v>
       </c>
       <c r="H20" s="1"/>
@@ -5156,15 +5216,17 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" s="78"/>
+        <v>165</v>
+      </c>
+      <c r="B21" s="77"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1">
         <v>4</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="79">
+      <c r="E21" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" s="78">
         <v>26.24</v>
       </c>
       <c r="H21" s="1"/>
@@ -5172,13 +5234,17 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="85" t="s">
         <v>153</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="268" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" s="82" t="s">
+        <v>174</v>
+      </c>
       <c r="F22" s="1">
         <v>116.65</v>
       </c>
@@ -5187,21 +5253,21 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="198" t="s">
+      <c r="A23" s="197" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="199"/>
-      <c r="C23" s="199"/>
-      <c r="D23" s="199"/>
-      <c r="E23" s="199"/>
-      <c r="F23" s="80"/>
+      <c r="B23" s="198"/>
+      <c r="C23" s="198"/>
+      <c r="D23" s="198"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="79"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -5209,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="79">
+      <c r="F24" s="78">
         <v>53.89</v>
       </c>
       <c r="H24" s="1"/>
@@ -5218,7 +5284,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -5226,7 +5292,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="79">
+      <c r="F25" s="78">
         <v>5.95</v>
       </c>
       <c r="H25" s="1"/>
@@ -5235,7 +5301,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -5243,7 +5309,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="79">
+      <c r="F26" s="78">
         <v>160</v>
       </c>
       <c r="H26" s="1"/>
@@ -5251,85 +5317,97 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="198" t="s">
+      <c r="A27" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="199"/>
-      <c r="C27" s="199"/>
-      <c r="D27" s="199"/>
-      <c r="E27" s="199"/>
-      <c r="F27" s="80"/>
+      <c r="B27" s="198"/>
+      <c r="C27" s="198"/>
+      <c r="D27" s="198"/>
+      <c r="E27" s="198"/>
+      <c r="F27" s="79"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="84" t="s">
-        <v>154</v>
+      <c r="A28" s="83" t="s">
+        <v>182</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="79"/>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="78"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="84" t="s">
-        <v>155</v>
+      <c r="A29" s="83" t="s">
+        <v>187</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="79"/>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="269" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="78"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="84" t="s">
-        <v>163</v>
+    <row r="30" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="83" t="s">
+        <v>183</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="79"/>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="266" t="s">
+        <v>178</v>
+      </c>
+      <c r="F30" s="78"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="198" t="s">
+      <c r="A31" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="199"/>
-      <c r="C31" s="199"/>
-      <c r="D31" s="199"/>
-      <c r="E31" s="199"/>
-      <c r="F31" s="80"/>
+      <c r="B31" s="198"/>
+      <c r="C31" s="198"/>
+      <c r="D31" s="198"/>
+      <c r="E31" s="198"/>
+      <c r="F31" s="79"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="83" t="s">
+      <c r="A32" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="C32" s="78" t="s">
-        <v>159</v>
+      <c r="C32" s="77" t="s">
+        <v>157</v>
       </c>
       <c r="D32" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="79">
+      <c r="F32" s="78">
         <v>18.5</v>
       </c>
       <c r="H32" s="1"/>
@@ -5338,60 +5416,66 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="79"/>
+      <c r="F33" s="78"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="198" t="s">
+      <c r="A34" s="197" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="199"/>
-      <c r="C34" s="199"/>
-      <c r="D34" s="199"/>
-      <c r="E34" s="199"/>
-      <c r="F34" s="80"/>
+      <c r="B34" s="198"/>
+      <c r="C34" s="198"/>
+      <c r="D34" s="198"/>
+      <c r="E34" s="198"/>
+      <c r="F34" s="79"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1">
         <v>1</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="79">
+      <c r="E35" s="82" t="s">
+        <v>186</v>
+      </c>
+      <c r="F35" s="78">
         <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1">
         <v>1</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="79">
+      <c r="E36" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="F36" s="78">
         <v>14.95</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E37" s="85" t="s">
-        <v>157</v>
-      </c>
-      <c r="F37" s="79">
+      <c r="E37" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="F37" s="78">
         <f>SUM(F10:F36)</f>
         <v>588.6400000000001</v>
       </c>
@@ -5439,74 +5523,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="202"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="201"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="203"/>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="205"/>
+      <c r="A2" s="202"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="204"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="203"/>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="205"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="204"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="206"/>
-      <c r="B4" s="207"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="208"/>
+      <c r="A4" s="205"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="211" t="s">
+      <c r="A5" s="210" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="211"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="211"/>
-      <c r="H5" s="211"/>
-      <c r="I5" s="211"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="210"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="211"/>
-      <c r="B6" s="211"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="211"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="211"/>
+      <c r="A6" s="210"/>
+      <c r="B6" s="210"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="210"/>
+      <c r="E6" s="210"/>
+      <c r="F6" s="210"/>
+      <c r="G6" s="210"/>
+      <c r="H6" s="210"/>
+      <c r="I6" s="210"/>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
@@ -5520,29 +5604,29 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="219" t="s">
+      <c r="A8" s="214" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="221" t="s">
+      <c r="B8" s="216" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="223" t="s">
+      <c r="C8" s="218" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223"/>
-      <c r="F8" s="224" t="s">
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="219" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="224"/>
-      <c r="H8" s="224"/>
-      <c r="I8" s="226" t="s">
+      <c r="G8" s="219"/>
+      <c r="H8" s="219"/>
+      <c r="I8" s="211" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="220"/>
-      <c r="B9" s="222"/>
+      <c r="A9" s="215"/>
+      <c r="B9" s="217"/>
       <c r="C9" s="31" t="s">
         <v>32</v>
       </c>
@@ -5561,19 +5645,19 @@
       <c r="H9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="227"/>
+      <c r="I9" s="212"/>
     </row>
     <row r="10" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="225" t="s">
+      <c r="A10" s="220" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="225"/>
-      <c r="C10" s="225"/>
-      <c r="D10" s="225"/>
-      <c r="E10" s="225"/>
-      <c r="F10" s="225"/>
-      <c r="G10" s="225"/>
-      <c r="H10" s="225"/>
+      <c r="B10" s="220"/>
+      <c r="C10" s="220"/>
+      <c r="D10" s="220"/>
+      <c r="E10" s="220"/>
+      <c r="F10" s="220"/>
+      <c r="G10" s="220"/>
+      <c r="H10" s="220"/>
       <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -5630,16 +5714,16 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="218" t="s">
+      <c r="A14" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="218"/>
-      <c r="C14" s="218"/>
-      <c r="D14" s="218"/>
-      <c r="E14" s="218"/>
-      <c r="F14" s="218"/>
-      <c r="G14" s="218"/>
-      <c r="H14" s="218"/>
+      <c r="B14" s="213"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="213"/>
+      <c r="F14" s="213"/>
+      <c r="G14" s="213"/>
+      <c r="H14" s="213"/>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -5685,16 +5769,16 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="218" t="s">
+      <c r="A17" s="213" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="218"/>
-      <c r="C17" s="218"/>
-      <c r="D17" s="218"/>
-      <c r="E17" s="218"/>
-      <c r="F17" s="218"/>
-      <c r="G17" s="218"/>
-      <c r="H17" s="218"/>
+      <c r="B17" s="213"/>
+      <c r="C17" s="213"/>
+      <c r="D17" s="213"/>
+      <c r="E17" s="213"/>
+      <c r="F17" s="213"/>
+      <c r="G17" s="213"/>
+      <c r="H17" s="213"/>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -5740,16 +5824,16 @@
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="218" t="s">
+      <c r="A20" s="213" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="218"/>
-      <c r="C20" s="218"/>
-      <c r="D20" s="218"/>
-      <c r="E20" s="218"/>
-      <c r="F20" s="218"/>
-      <c r="G20" s="218"/>
-      <c r="H20" s="218"/>
+      <c r="B20" s="213"/>
+      <c r="C20" s="213"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="213"/>
+      <c r="H20" s="213"/>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -5775,16 +5859,16 @@
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="218" t="s">
+      <c r="A23" s="213" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="218"/>
-      <c r="C23" s="218"/>
-      <c r="D23" s="218"/>
-      <c r="E23" s="218"/>
-      <c r="F23" s="218"/>
-      <c r="G23" s="218"/>
-      <c r="H23" s="218"/>
+      <c r="B23" s="213"/>
+      <c r="C23" s="213"/>
+      <c r="D23" s="213"/>
+      <c r="E23" s="213"/>
+      <c r="F23" s="213"/>
+      <c r="G23" s="213"/>
+      <c r="H23" s="213"/>
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -5810,16 +5894,16 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="218" t="s">
+      <c r="A26" s="213" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="218"/>
-      <c r="C26" s="218"/>
-      <c r="D26" s="218"/>
-      <c r="E26" s="218"/>
-      <c r="F26" s="218"/>
-      <c r="G26" s="218"/>
-      <c r="H26" s="218"/>
+      <c r="B26" s="213"/>
+      <c r="C26" s="213"/>
+      <c r="D26" s="213"/>
+      <c r="E26" s="213"/>
+      <c r="F26" s="213"/>
+      <c r="G26" s="213"/>
+      <c r="H26" s="213"/>
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -5845,16 +5929,16 @@
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="218" t="s">
+      <c r="A29" s="213" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="218"/>
-      <c r="C29" s="218"/>
-      <c r="D29" s="218"/>
-      <c r="E29" s="218"/>
-      <c r="F29" s="218"/>
-      <c r="G29" s="218"/>
-      <c r="H29" s="218"/>
+      <c r="B29" s="213"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="213"/>
+      <c r="E29" s="213"/>
+      <c r="F29" s="213"/>
+      <c r="G29" s="213"/>
+      <c r="H29" s="213"/>
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -5891,77 +5975,78 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="215" t="s">
+      <c r="A33" s="224" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="216"/>
-      <c r="C33" s="216"/>
-      <c r="D33" s="216"/>
-      <c r="E33" s="216"/>
-      <c r="F33" s="217"/>
+      <c r="B33" s="225"/>
+      <c r="C33" s="225"/>
+      <c r="D33" s="225"/>
+      <c r="E33" s="225"/>
+      <c r="F33" s="226"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="215" t="s">
+      <c r="A34" s="224" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="216"/>
-      <c r="C34" s="216"/>
-      <c r="D34" s="216"/>
-      <c r="E34" s="216"/>
-      <c r="F34" s="217"/>
+      <c r="B34" s="225"/>
+      <c r="C34" s="225"/>
+      <c r="D34" s="225"/>
+      <c r="E34" s="225"/>
+      <c r="F34" s="226"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="212" t="s">
+      <c r="A35" s="221" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="213"/>
-      <c r="C35" s="213"/>
-      <c r="D35" s="213"/>
-      <c r="E35" s="213"/>
-      <c r="F35" s="214"/>
+      <c r="B35" s="222"/>
+      <c r="C35" s="222"/>
+      <c r="D35" s="222"/>
+      <c r="E35" s="222"/>
+      <c r="F35" s="223"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="212" t="s">
+      <c r="A36" s="221" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="213"/>
-      <c r="C36" s="213"/>
-      <c r="D36" s="213"/>
-      <c r="E36" s="213"/>
-      <c r="F36" s="214"/>
+      <c r="B36" s="222"/>
+      <c r="C36" s="222"/>
+      <c r="D36" s="222"/>
+      <c r="E36" s="222"/>
+      <c r="F36" s="223"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="212" t="s">
+      <c r="A37" s="221" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="213"/>
-      <c r="C37" s="213"/>
-      <c r="D37" s="213"/>
-      <c r="E37" s="213"/>
-      <c r="F37" s="214"/>
+      <c r="B37" s="222"/>
+      <c r="C37" s="222"/>
+      <c r="D37" s="222"/>
+      <c r="E37" s="222"/>
+      <c r="F37" s="223"/>
       <c r="G37" s="7"/>
       <c r="H37" s="14"/>
       <c r="I37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A5:I6"/>
-    <mergeCell ref="A1:I4"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -5970,12 +6055,11 @@
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A5:I6"/>
+    <mergeCell ref="A1:I4"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A23:H23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6003,73 +6087,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="139"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="155"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="140"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="142"/>
+      <c r="A2" s="156"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="158"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="143"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="145"/>
+      <c r="A3" s="159"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="161"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="211" t="s">
+      <c r="A5" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="211"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="211"/>
-      <c r="H5" s="211"/>
-      <c r="I5" s="211"/>
-      <c r="J5" s="211"/>
-      <c r="K5" s="211"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="210"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="210"/>
+      <c r="H5" s="210"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="210"/>
+      <c r="K5" s="210"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="211"/>
-      <c r="B6" s="211"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="211"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="211"/>
-      <c r="K6" s="211"/>
+      <c r="A6" s="210"/>
+      <c r="B6" s="210"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="210"/>
+      <c r="E6" s="210"/>
+      <c r="F6" s="210"/>
+      <c r="G6" s="210"/>
+      <c r="H6" s="210"/>
+      <c r="I6" s="210"/>
+      <c r="J6" s="210"/>
+      <c r="K6" s="210"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9"/>
@@ -6085,119 +6169,119 @@
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="234"/>
-      <c r="B8" s="235"/>
-      <c r="C8" s="236"/>
-      <c r="D8" s="231" t="s">
+      <c r="A8" s="260"/>
+      <c r="B8" s="261"/>
+      <c r="C8" s="262"/>
+      <c r="D8" s="257" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="232"/>
-      <c r="F8" s="232"/>
-      <c r="G8" s="232"/>
-      <c r="H8" s="232"/>
-      <c r="I8" s="232"/>
-      <c r="J8" s="232"/>
-      <c r="K8" s="233"/>
+      <c r="E8" s="258"/>
+      <c r="F8" s="258"/>
+      <c r="G8" s="258"/>
+      <c r="H8" s="258"/>
+      <c r="I8" s="258"/>
+      <c r="J8" s="258"/>
+      <c r="K8" s="259"/>
     </row>
     <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="237" t="s">
+      <c r="A9" s="239" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="238"/>
-      <c r="C9" s="239"/>
-      <c r="D9" s="240">
+      <c r="B9" s="240"/>
+      <c r="C9" s="241"/>
+      <c r="D9" s="245">
         <v>380</v>
       </c>
-      <c r="E9" s="241"/>
-      <c r="F9" s="241"/>
-      <c r="G9" s="241"/>
-      <c r="H9" s="241"/>
-      <c r="I9" s="241"/>
-      <c r="J9" s="241"/>
-      <c r="K9" s="242"/>
+      <c r="E9" s="246"/>
+      <c r="F9" s="246"/>
+      <c r="G9" s="246"/>
+      <c r="H9" s="246"/>
+      <c r="I9" s="246"/>
+      <c r="J9" s="246"/>
+      <c r="K9" s="247"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="237" t="s">
+      <c r="A10" s="239" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="238"/>
-      <c r="C10" s="239"/>
-      <c r="D10" s="240">
+      <c r="B10" s="240"/>
+      <c r="C10" s="241"/>
+      <c r="D10" s="245">
         <v>35</v>
       </c>
-      <c r="E10" s="241"/>
-      <c r="F10" s="241"/>
-      <c r="G10" s="241"/>
-      <c r="H10" s="241"/>
-      <c r="I10" s="241"/>
-      <c r="J10" s="241"/>
-      <c r="K10" s="242"/>
+      <c r="E10" s="246"/>
+      <c r="F10" s="246"/>
+      <c r="G10" s="246"/>
+      <c r="H10" s="246"/>
+      <c r="I10" s="246"/>
+      <c r="J10" s="246"/>
+      <c r="K10" s="247"/>
     </row>
     <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="237" t="s">
+      <c r="A11" s="239" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="238"/>
-      <c r="C11" s="239"/>
-      <c r="D11" s="240" t="s">
+      <c r="B11" s="240"/>
+      <c r="C11" s="241"/>
+      <c r="D11" s="245" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="241"/>
-      <c r="F11" s="241"/>
-      <c r="G11" s="241"/>
-      <c r="H11" s="241"/>
-      <c r="I11" s="241"/>
-      <c r="J11" s="241"/>
-      <c r="K11" s="242"/>
+      <c r="E11" s="246"/>
+      <c r="F11" s="246"/>
+      <c r="G11" s="246"/>
+      <c r="H11" s="246"/>
+      <c r="I11" s="246"/>
+      <c r="J11" s="246"/>
+      <c r="K11" s="247"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="237" t="s">
+      <c r="A12" s="239" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="238"/>
-      <c r="C12" s="239"/>
-      <c r="D12" s="240">
+      <c r="B12" s="240"/>
+      <c r="C12" s="241"/>
+      <c r="D12" s="245">
         <v>95</v>
       </c>
-      <c r="E12" s="241"/>
-      <c r="F12" s="241"/>
-      <c r="G12" s="241"/>
-      <c r="H12" s="241"/>
-      <c r="I12" s="241"/>
-      <c r="J12" s="241"/>
-      <c r="K12" s="242"/>
+      <c r="E12" s="246"/>
+      <c r="F12" s="246"/>
+      <c r="G12" s="246"/>
+      <c r="H12" s="246"/>
+      <c r="I12" s="246"/>
+      <c r="J12" s="246"/>
+      <c r="K12" s="247"/>
     </row>
     <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="237" t="s">
+      <c r="A13" s="239" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="238"/>
-      <c r="C13" s="239"/>
-      <c r="D13" s="240" t="s">
+      <c r="B13" s="240"/>
+      <c r="C13" s="241"/>
+      <c r="D13" s="245" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="241"/>
-      <c r="F13" s="241"/>
-      <c r="G13" s="241"/>
-      <c r="H13" s="241"/>
-      <c r="I13" s="241"/>
-      <c r="J13" s="241"/>
-      <c r="K13" s="242"/>
+      <c r="E13" s="246"/>
+      <c r="F13" s="246"/>
+      <c r="G13" s="246"/>
+      <c r="H13" s="246"/>
+      <c r="I13" s="246"/>
+      <c r="J13" s="246"/>
+      <c r="K13" s="247"/>
     </row>
     <row r="14" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="264" t="s">
+      <c r="A14" s="242" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="265"/>
-      <c r="C14" s="266"/>
-      <c r="D14" s="243"/>
-      <c r="E14" s="244"/>
-      <c r="F14" s="244"/>
-      <c r="G14" s="244"/>
-      <c r="H14" s="244"/>
-      <c r="I14" s="244"/>
-      <c r="J14" s="244"/>
-      <c r="K14" s="245"/>
+      <c r="B14" s="243"/>
+      <c r="C14" s="244"/>
+      <c r="D14" s="248"/>
+      <c r="E14" s="249"/>
+      <c r="F14" s="249"/>
+      <c r="G14" s="249"/>
+      <c r="H14" s="249"/>
+      <c r="I14" s="249"/>
+      <c r="J14" s="249"/>
+      <c r="K14" s="250"/>
     </row>
     <row r="15" spans="1:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
@@ -6214,55 +6298,55 @@
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="262"/>
-      <c r="B17" s="263"/>
-      <c r="C17" s="263"/>
-      <c r="D17" s="250" t="s">
+      <c r="A17" s="237"/>
+      <c r="B17" s="238"/>
+      <c r="C17" s="238"/>
+      <c r="D17" s="255" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="250"/>
-      <c r="F17" s="250"/>
-      <c r="G17" s="250"/>
-      <c r="H17" s="250"/>
-      <c r="I17" s="250"/>
-      <c r="J17" s="250"/>
-      <c r="K17" s="251"/>
+      <c r="E17" s="255"/>
+      <c r="F17" s="255"/>
+      <c r="G17" s="255"/>
+      <c r="H17" s="255"/>
+      <c r="I17" s="255"/>
+      <c r="J17" s="255"/>
+      <c r="K17" s="256"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="252" t="s">
+      <c r="A18" s="227" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="254" t="s">
+      <c r="B18" s="229" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="256" t="s">
+      <c r="C18" s="231" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="258" t="s">
+      <c r="D18" s="233" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="258" t="s">
+      <c r="E18" s="233" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="260"/>
-      <c r="G18" s="260"/>
-      <c r="H18" s="246"/>
-      <c r="I18" s="246"/>
-      <c r="J18" s="246"/>
-      <c r="K18" s="248"/>
+      <c r="F18" s="235"/>
+      <c r="G18" s="235"/>
+      <c r="H18" s="251"/>
+      <c r="I18" s="251"/>
+      <c r="J18" s="251"/>
+      <c r="K18" s="253"/>
     </row>
     <row r="19" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="253"/>
-      <c r="B19" s="255"/>
-      <c r="C19" s="257"/>
-      <c r="D19" s="259"/>
-      <c r="E19" s="259"/>
-      <c r="F19" s="261"/>
-      <c r="G19" s="261"/>
-      <c r="H19" s="247"/>
-      <c r="I19" s="247"/>
-      <c r="J19" s="247"/>
-      <c r="K19" s="249"/>
+      <c r="A19" s="228"/>
+      <c r="B19" s="230"/>
+      <c r="C19" s="232"/>
+      <c r="D19" s="234"/>
+      <c r="E19" s="234"/>
+      <c r="F19" s="236"/>
+      <c r="G19" s="236"/>
+      <c r="H19" s="252"/>
+      <c r="I19" s="252"/>
+      <c r="J19" s="252"/>
+      <c r="K19" s="254"/>
     </row>
     <row r="20" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="s">
@@ -6451,11 +6535,11 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="228" t="s">
+      <c r="A32" s="263" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="229"/>
-      <c r="C32" s="230"/>
+      <c r="B32" s="264"/>
+      <c r="C32" s="265"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -6466,11 +6550,11 @@
       <c r="K32" s="13"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="228" t="s">
+      <c r="A33" s="263" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="229"/>
-      <c r="C33" s="230"/>
+      <c r="B33" s="264"/>
+      <c r="C33" s="265"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
@@ -6481,11 +6565,11 @@
       <c r="K33" s="13"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="228" t="s">
+      <c r="A34" s="263" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="229"/>
-      <c r="C34" s="230"/>
+      <c r="B34" s="264"/>
+      <c r="C34" s="265"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
@@ -6496,11 +6580,11 @@
       <c r="K34" s="13"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="228" t="s">
+      <c r="A35" s="263" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="229"/>
-      <c r="C35" s="230"/>
+      <c r="B35" s="264"/>
+      <c r="C35" s="265"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -6511,11 +6595,11 @@
       <c r="K35" s="13"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="228" t="s">
+      <c r="A36" s="263" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="229"/>
-      <c r="C36" s="230"/>
+      <c r="B36" s="264"/>
+      <c r="C36" s="265"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -6527,6 +6611,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="D17:K17"/>
     <mergeCell ref="A1:K3"/>
     <mergeCell ref="A5:K6"/>
     <mergeCell ref="A18:A19"/>
@@ -6543,24 +6645,6 @@
     <mergeCell ref="D9:K9"/>
     <mergeCell ref="D10:K10"/>
     <mergeCell ref="D11:K11"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6584,51 +6668,51 @@
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="139"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="155"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="140"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="142"/>
+      <c r="A2" s="156"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="158"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="143"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="145"/>
+      <c r="A3" s="159"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="161"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="61" t="s">
@@ -6641,23 +6725,23 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="71" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
+      <c r="A10" s="71"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="71" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="72"/>
+      <c r="A12" s="71"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="71" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6687,51 +6771,51 @@
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="139"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="155"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="140"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="142"/>
+      <c r="A2" s="156"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="158"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="143"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="145"/>
+      <c r="A3" s="159"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="161"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="61" t="s">
@@ -6744,23 +6828,23 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="71" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
+      <c r="A10" s="71"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="71" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="72"/>
+      <c r="A12" s="71"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="71" t="s">
         <v>144</v>
       </c>
     </row>

--- a/Annex 1 CubeSat_Overview_Spreadsheet.xlsx
+++ b/Annex 1 CubeSat_Overview_Spreadsheet.xlsx
@@ -2297,6 +2297,44 @@
     <xf numFmtId="2" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="13" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2305,55 +2343,285 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2373,264 +2641,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2673,52 +2683,124 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2757,15 +2839,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2775,79 +2848,6 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="13" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3204,22 +3204,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="155"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="125"/>
       <c r="Q1" s="55"/>
       <c r="R1" s="55"/>
       <c r="S1" s="55"/>
@@ -3251,20 +3251,20 @@
       <c r="AQ1" s="56"/>
     </row>
     <row r="2" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="156"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="158"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="128"/>
       <c r="Q2" s="55"/>
       <c r="R2" s="55"/>
       <c r="S2" s="55"/>
@@ -3296,20 +3296,20 @@
       <c r="AQ2" s="56"/>
     </row>
     <row r="3" spans="1:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="159"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160"/>
-      <c r="N3" s="161"/>
+      <c r="A3" s="129"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="131"/>
       <c r="Q3" s="55"/>
       <c r="R3" s="55"/>
       <c r="S3" s="55"/>
@@ -3341,22 +3341,22 @@
       <c r="AQ3" s="56"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="155" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="126"/>
+      <c r="B4" s="155"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="156"/>
       <c r="Q4" s="55"/>
       <c r="R4" s="55"/>
       <c r="S4" s="55"/>
@@ -3390,20 +3390,20 @@
       <c r="AQ4" s="56"/>
     </row>
     <row r="5" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="127"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="128"/>
+      <c r="A5" s="157"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="157"/>
+      <c r="K5" s="157"/>
+      <c r="L5" s="157"/>
+      <c r="M5" s="157"/>
+      <c r="N5" s="158"/>
       <c r="Q5" s="55"/>
       <c r="R5" s="55"/>
       <c r="S5" s="55"/>
@@ -3437,20 +3437,20 @@
       <c r="AQ5" s="56"/>
     </row>
     <row r="6" spans="1:43" s="21" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="127"/>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="128"/>
+      <c r="A6" s="157"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="158"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="55"/>
@@ -3484,22 +3484,22 @@
       <c r="AQ6" s="57"/>
     </row>
     <row r="7" spans="1:43" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="174" t="s">
+      <c r="A7" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="175"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="175"/>
-      <c r="K7" s="175"/>
-      <c r="L7" s="175"/>
-      <c r="M7" s="175"/>
-      <c r="N7" s="176"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="151"/>
       <c r="O7" s="43"/>
       <c r="P7" s="43"/>
       <c r="Q7" s="58"/>
@@ -3543,16 +3543,16 @@
       <c r="D8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="139"/>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="139"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="167"/>
+      <c r="L8" s="167"/>
+      <c r="M8" s="167"/>
+      <c r="N8" s="167"/>
       <c r="Q8" s="55"/>
       <c r="R8" s="55"/>
       <c r="S8" s="55"/>
@@ -3584,20 +3584,20 @@
       <c r="AQ8" s="56"/>
     </row>
     <row r="9" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="168"/>
-      <c r="B9" s="145"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="140"/>
-      <c r="K9" s="140"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="140"/>
-      <c r="N9" s="140"/>
+      <c r="A9" s="138"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="168"/>
+      <c r="K9" s="168"/>
+      <c r="L9" s="168"/>
+      <c r="M9" s="168"/>
+      <c r="N9" s="168"/>
       <c r="Q9" s="55"/>
       <c r="R9" s="55"/>
       <c r="S9" s="55"/>
@@ -3629,20 +3629,20 @@
       <c r="AQ9" s="56"/>
     </row>
     <row r="10" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="169"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="141"/>
-      <c r="N10" s="141"/>
+      <c r="A10" s="139"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="169"/>
+      <c r="L10" s="169"/>
+      <c r="M10" s="169"/>
+      <c r="N10" s="169"/>
       <c r="Q10" s="55"/>
       <c r="R10" s="55"/>
       <c r="S10" s="55"/>
@@ -3672,22 +3672,22 @@
       <c r="AQ10" s="56"/>
     </row>
     <row r="11" spans="1:43" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="177" t="s">
+      <c r="A11" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="101"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="153"/>
+      <c r="J11" s="153"/>
+      <c r="K11" s="153"/>
+      <c r="L11" s="153"/>
+      <c r="M11" s="153"/>
+      <c r="N11" s="154"/>
       <c r="O11" s="43"/>
       <c r="P11" s="43"/>
       <c r="Q11" s="58"/>
@@ -3739,14 +3739,14 @@
       <c r="F12" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="142"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="142"/>
-      <c r="L12" s="142"/>
-      <c r="M12" s="142"/>
-      <c r="N12" s="142"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="170"/>
+      <c r="L12" s="170"/>
+      <c r="M12" s="170"/>
+      <c r="N12" s="170"/>
       <c r="Q12" s="55"/>
       <c r="R12" s="55"/>
       <c r="S12" s="55"/>
@@ -3778,20 +3778,20 @@
       <c r="AQ12" s="56"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A13" s="122"/>
-      <c r="B13" s="147"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="143"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="143"/>
-      <c r="M13" s="143"/>
-      <c r="N13" s="143"/>
+      <c r="A13" s="145"/>
+      <c r="B13" s="173"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="171"/>
+      <c r="H13" s="171"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="171"/>
+      <c r="K13" s="171"/>
+      <c r="L13" s="171"/>
+      <c r="M13" s="171"/>
+      <c r="N13" s="171"/>
       <c r="Q13" s="55"/>
       <c r="R13" s="55"/>
       <c r="S13" s="55"/>
@@ -3823,20 +3823,20 @@
       <c r="AQ13" s="56"/>
     </row>
     <row r="14" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="173"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="144"/>
-      <c r="N14" s="144"/>
+      <c r="A14" s="146"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="172"/>
+      <c r="L14" s="172"/>
+      <c r="M14" s="172"/>
+      <c r="N14" s="172"/>
       <c r="Q14" s="55"/>
       <c r="R14" s="55"/>
       <c r="S14" s="55"/>
@@ -3868,22 +3868,22 @@
       <c r="AQ14" s="56"/>
     </row>
     <row r="15" spans="1:43" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="101"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="153"/>
+      <c r="N15" s="154"/>
       <c r="O15" s="43"/>
       <c r="P15" s="43"/>
       <c r="Q15" s="58"/>
@@ -3915,34 +3915,34 @@
       <c r="AQ15" s="56"/>
     </row>
     <row r="16" spans="1:43" ht="54" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="129" t="s">
+      <c r="A16" s="159" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="131" t="s">
+      <c r="B16" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="133" t="s">
+      <c r="C16" s="162" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="135" t="s">
+      <c r="D16" s="164" t="s">
         <v>128</v>
       </c>
-      <c r="E16" s="137" t="s">
+      <c r="E16" s="165" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="184" t="s">
+      <c r="F16" s="177" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="185"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="95" t="s">
+      <c r="G16" s="178"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="117"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="180"/>
+      <c r="N16" s="181"/>
       <c r="Q16" s="55"/>
       <c r="R16" s="55"/>
       <c r="S16" s="55"/>
@@ -3972,11 +3972,11 @@
       <c r="AQ16" s="56"/>
     </row>
     <row r="17" spans="1:43" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="130"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="134"/>
+      <c r="A17" s="160"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="163"/>
       <c r="D17" s="136"/>
-      <c r="E17" s="138"/>
+      <c r="E17" s="166"/>
       <c r="F17" s="47" t="s">
         <v>12</v>
       </c>
@@ -3998,8 +3998,8 @@
       <c r="L17" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="M17" s="118"/>
-      <c r="N17" s="119"/>
+      <c r="M17" s="182"/>
+      <c r="N17" s="183"/>
       <c r="Q17" s="55"/>
       <c r="R17" s="55"/>
       <c r="S17" s="55"/>
@@ -4029,20 +4029,20 @@
       <c r="AQ17" s="56"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A18" s="94"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="119"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="182"/>
+      <c r="N18" s="183"/>
       <c r="Q18" s="55"/>
       <c r="R18" s="55"/>
       <c r="S18" s="55"/>
@@ -4072,20 +4072,20 @@
       <c r="AQ18" s="56"/>
     </row>
     <row r="19" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="102"/>
-      <c r="B19" s="102"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="102"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="121"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="184"/>
+      <c r="N19" s="185"/>
       <c r="Q19" s="55"/>
       <c r="R19" s="55"/>
       <c r="S19" s="55"/>
@@ -4115,22 +4115,22 @@
       <c r="AQ19" s="56"/>
     </row>
     <row r="20" spans="1:43" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="99" t="s">
+      <c r="A20" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="101"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="153"/>
+      <c r="N20" s="154"/>
       <c r="O20" s="43"/>
       <c r="P20" s="43"/>
       <c r="Q20" s="58"/>
@@ -4177,15 +4177,15 @@
       <c r="E21" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="104"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="113"/>
       <c r="Q21" s="55"/>
       <c r="R21" s="55"/>
       <c r="S21" s="55"/>
@@ -4215,54 +4215,54 @@
       <c r="AQ21" s="56"/>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="105"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="106"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="195"/>
+      <c r="G22" s="195"/>
+      <c r="H22" s="195"/>
+      <c r="I22" s="195"/>
+      <c r="J22" s="195"/>
+      <c r="K22" s="195"/>
+      <c r="L22" s="195"/>
+      <c r="M22" s="195"/>
+      <c r="N22" s="116"/>
     </row>
     <row r="23" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="102"/>
-      <c r="B23" s="102"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="107"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="107"/>
-      <c r="N23" s="108"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="119"/>
     </row>
     <row r="24" spans="1:43" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="99" t="s">
+      <c r="A24" s="191" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="101"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="153"/>
+      <c r="K24" s="153"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="153"/>
+      <c r="N24" s="154"/>
       <c r="O24" s="43"/>
       <c r="P24" s="43"/>
       <c r="Q24" s="43"/>
@@ -4270,90 +4270,90 @@
       <c r="S24" s="43"/>
     </row>
     <row r="25" spans="1:43" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="162" t="s">
+      <c r="A25" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="132" t="s">
+      <c r="B25" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="170"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="170"/>
-      <c r="K25" s="170"/>
-      <c r="L25" s="170"/>
-      <c r="M25" s="170"/>
-      <c r="N25" s="170"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="142"/>
+      <c r="J25" s="142"/>
+      <c r="K25" s="142"/>
+      <c r="L25" s="142"/>
+      <c r="M25" s="142"/>
+      <c r="N25" s="142"/>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A26" s="163"/>
-      <c r="B26" s="164"/>
-      <c r="C26" s="171"/>
-      <c r="D26" s="171"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="171"/>
-      <c r="K26" s="171"/>
-      <c r="L26" s="171"/>
-      <c r="M26" s="171"/>
-      <c r="N26" s="171"/>
+      <c r="A26" s="133"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="143"/>
+      <c r="N26" s="143"/>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A27" s="94"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="171"/>
-      <c r="D27" s="171"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="171"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="171"/>
-      <c r="K27" s="171"/>
-      <c r="L27" s="171"/>
-      <c r="M27" s="171"/>
-      <c r="N27" s="171"/>
+      <c r="A27" s="97"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="143"/>
     </row>
     <row r="28" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="102"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="172"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="172"/>
-      <c r="K28" s="172"/>
-      <c r="L28" s="172"/>
-      <c r="M28" s="172"/>
-      <c r="N28" s="172"/>
+      <c r="A28" s="98"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="144"/>
+      <c r="L28" s="144"/>
+      <c r="M28" s="144"/>
+      <c r="N28" s="144"/>
     </row>
     <row r="29" spans="1:43" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="99" t="s">
+      <c r="A29" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="100"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="100"/>
-      <c r="L29" s="100"/>
-      <c r="M29" s="100"/>
-      <c r="N29" s="101"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="153"/>
+      <c r="L29" s="153"/>
+      <c r="M29" s="153"/>
+      <c r="N29" s="154"/>
       <c r="O29" s="43"/>
       <c r="P29" s="43"/>
       <c r="Q29" s="43"/>
@@ -4361,38 +4361,38 @@
       <c r="S29" s="43"/>
     </row>
     <row r="30" spans="1:43" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="162" t="s">
+      <c r="A30" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="132" t="s">
+      <c r="B30" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="165" t="s">
+      <c r="C30" s="134" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="136" t="s">
         <v>118</v>
       </c>
-      <c r="E30" s="189" t="s">
+      <c r="E30" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="190"/>
-      <c r="G30" s="191"/>
-      <c r="H30" s="192" t="s">
+      <c r="F30" s="106"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="I30" s="193"/>
-      <c r="J30" s="193"/>
-      <c r="K30" s="194"/>
-      <c r="L30" s="180"/>
-      <c r="M30" s="103"/>
-      <c r="N30" s="104"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="112"/>
+      <c r="N30" s="113"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A31" s="163"/>
-      <c r="B31" s="164"/>
-      <c r="C31" s="166"/>
-      <c r="D31" s="167"/>
+      <c r="A31" s="133"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="137"/>
       <c r="E31" s="48" t="s">
         <v>6</v>
       </c>
@@ -4414,59 +4414,59 @@
       <c r="K31" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L31" s="181"/>
-      <c r="M31" s="182"/>
-      <c r="N31" s="106"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="115"/>
+      <c r="N31" s="116"/>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A32" s="91"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="181"/>
-      <c r="M32" s="182"/>
-      <c r="N32" s="106"/>
+      <c r="A32" s="103"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="115"/>
+      <c r="N32" s="116"/>
     </row>
     <row r="33" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="92"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="183"/>
-      <c r="M33" s="107"/>
-      <c r="N33" s="108"/>
+      <c r="A33" s="104"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="118"/>
+      <c r="N33" s="119"/>
     </row>
     <row r="34" spans="1:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="111" t="s">
+      <c r="A34" s="198" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="112"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="112"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="112"/>
-      <c r="M34" s="112"/>
-      <c r="N34" s="113"/>
+      <c r="B34" s="199"/>
+      <c r="C34" s="199"/>
+      <c r="D34" s="199"/>
+      <c r="E34" s="199"/>
+      <c r="F34" s="199"/>
+      <c r="G34" s="199"/>
+      <c r="H34" s="199"/>
+      <c r="I34" s="199"/>
+      <c r="J34" s="199"/>
+      <c r="K34" s="199"/>
+      <c r="L34" s="199"/>
+      <c r="M34" s="199"/>
+      <c r="N34" s="200"/>
       <c r="O34" s="43"/>
       <c r="P34" s="43"/>
       <c r="Q34" s="43"/>
@@ -4474,29 +4474,29 @@
       <c r="S34" s="43"/>
     </row>
     <row r="35" spans="1:19" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="195" t="s">
+      <c r="A35" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="150" t="s">
+      <c r="B35" s="188" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="151"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="152"/>
-      <c r="J35" s="95" t="s">
+      <c r="C35" s="189"/>
+      <c r="D35" s="189"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="189"/>
+      <c r="G35" s="189"/>
+      <c r="H35" s="189"/>
+      <c r="I35" s="190"/>
+      <c r="J35" s="120" t="s">
         <v>115</v>
       </c>
-      <c r="K35" s="96"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="96"/>
-      <c r="N35" s="97"/>
+      <c r="K35" s="121"/>
+      <c r="L35" s="121"/>
+      <c r="M35" s="121"/>
+      <c r="N35" s="122"/>
     </row>
     <row r="36" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="196"/>
+      <c r="A36" s="96"/>
       <c r="B36" s="47" t="s">
         <v>91</v>
       </c>
@@ -4538,54 +4538,54 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37" s="94"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="187"/>
-      <c r="F37" s="187"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="91"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="91"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="109"/>
-      <c r="M37" s="91"/>
-      <c r="N37" s="91"/>
+      <c r="A37" s="97"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="103"/>
+      <c r="K37" s="103"/>
+      <c r="L37" s="196"/>
+      <c r="M37" s="103"/>
+      <c r="N37" s="103"/>
     </row>
     <row r="38" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="102"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="188"/>
-      <c r="F38" s="188"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="92"/>
-      <c r="K38" s="92"/>
-      <c r="L38" s="110"/>
-      <c r="M38" s="92"/>
-      <c r="N38" s="92"/>
+      <c r="A38" s="98"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="197"/>
+      <c r="M38" s="104"/>
+      <c r="N38" s="104"/>
     </row>
     <row r="39" spans="1:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="99" t="s">
+      <c r="A39" s="191" t="s">
         <v>119</v>
       </c>
-      <c r="B39" s="178"/>
-      <c r="C39" s="178"/>
-      <c r="D39" s="178"/>
-      <c r="E39" s="178"/>
-      <c r="F39" s="178"/>
-      <c r="G39" s="178"/>
-      <c r="H39" s="178"/>
-      <c r="I39" s="178"/>
-      <c r="J39" s="178"/>
-      <c r="K39" s="178"/>
-      <c r="L39" s="178"/>
-      <c r="M39" s="178"/>
-      <c r="N39" s="179"/>
+      <c r="B39" s="192"/>
+      <c r="C39" s="192"/>
+      <c r="D39" s="192"/>
+      <c r="E39" s="192"/>
+      <c r="F39" s="192"/>
+      <c r="G39" s="192"/>
+      <c r="H39" s="192"/>
+      <c r="I39" s="192"/>
+      <c r="J39" s="192"/>
+      <c r="K39" s="192"/>
+      <c r="L39" s="192"/>
+      <c r="M39" s="192"/>
+      <c r="N39" s="193"/>
       <c r="O39" s="43"/>
       <c r="P39" s="43"/>
       <c r="Q39" s="43"/>
@@ -4602,67 +4602,67 @@
       <c r="C40" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="139"/>
-      <c r="E40" s="139"/>
-      <c r="F40" s="139"/>
-      <c r="G40" s="139"/>
-      <c r="H40" s="139"/>
-      <c r="I40" s="139"/>
-      <c r="J40" s="139"/>
-      <c r="K40" s="139"/>
-      <c r="L40" s="139"/>
-      <c r="M40" s="139"/>
-      <c r="N40" s="139"/>
+      <c r="D40" s="167"/>
+      <c r="E40" s="167"/>
+      <c r="F40" s="167"/>
+      <c r="G40" s="167"/>
+      <c r="H40" s="167"/>
+      <c r="I40" s="167"/>
+      <c r="J40" s="167"/>
+      <c r="K40" s="167"/>
+      <c r="L40" s="167"/>
+      <c r="M40" s="167"/>
+      <c r="N40" s="167"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41" s="122"/>
-      <c r="B41" s="93"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="140"/>
-      <c r="F41" s="140"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="140"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="140"/>
-      <c r="K41" s="140"/>
-      <c r="L41" s="140"/>
-      <c r="M41" s="140"/>
-      <c r="N41" s="140"/>
+      <c r="A41" s="145"/>
+      <c r="B41" s="176"/>
+      <c r="C41" s="176"/>
+      <c r="D41" s="168"/>
+      <c r="E41" s="168"/>
+      <c r="F41" s="168"/>
+      <c r="G41" s="168"/>
+      <c r="H41" s="168"/>
+      <c r="I41" s="168"/>
+      <c r="J41" s="168"/>
+      <c r="K41" s="168"/>
+      <c r="L41" s="168"/>
+      <c r="M41" s="168"/>
+      <c r="N41" s="168"/>
     </row>
     <row r="42" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="173"/>
-      <c r="B42" s="94"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="141"/>
-      <c r="E42" s="141"/>
-      <c r="F42" s="141"/>
-      <c r="G42" s="141"/>
-      <c r="H42" s="141"/>
-      <c r="I42" s="141"/>
-      <c r="J42" s="141"/>
-      <c r="K42" s="141"/>
-      <c r="L42" s="141"/>
-      <c r="M42" s="141"/>
-      <c r="N42" s="141"/>
+      <c r="A42" s="146"/>
+      <c r="B42" s="97"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="169"/>
+      <c r="E42" s="169"/>
+      <c r="F42" s="169"/>
+      <c r="G42" s="169"/>
+      <c r="H42" s="169"/>
+      <c r="I42" s="169"/>
+      <c r="J42" s="169"/>
+      <c r="K42" s="169"/>
+      <c r="L42" s="169"/>
+      <c r="M42" s="169"/>
+      <c r="N42" s="169"/>
     </row>
     <row r="43" spans="1:19" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="99" t="s">
+      <c r="A43" s="191" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="100"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="100"/>
-      <c r="M43" s="100"/>
-      <c r="N43" s="101"/>
+      <c r="B43" s="153"/>
+      <c r="C43" s="153"/>
+      <c r="D43" s="153"/>
+      <c r="E43" s="153"/>
+      <c r="F43" s="153"/>
+      <c r="G43" s="153"/>
+      <c r="H43" s="153"/>
+      <c r="I43" s="153"/>
+      <c r="J43" s="153"/>
+      <c r="K43" s="153"/>
+      <c r="L43" s="153"/>
+      <c r="M43" s="153"/>
+      <c r="N43" s="154"/>
       <c r="O43" s="43"/>
       <c r="P43" s="43"/>
       <c r="Q43" s="43"/>
@@ -4676,50 +4676,50 @@
       <c r="B44" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="123"/>
-      <c r="D44" s="123"/>
-      <c r="E44" s="123"/>
-      <c r="F44" s="123"/>
-      <c r="G44" s="123"/>
-      <c r="H44" s="123"/>
-      <c r="I44" s="123"/>
-      <c r="J44" s="123"/>
-      <c r="K44" s="123"/>
-      <c r="L44" s="123"/>
-      <c r="M44" s="123"/>
-      <c r="N44" s="123"/>
+      <c r="C44" s="186"/>
+      <c r="D44" s="186"/>
+      <c r="E44" s="186"/>
+      <c r="F44" s="186"/>
+      <c r="G44" s="186"/>
+      <c r="H44" s="186"/>
+      <c r="I44" s="186"/>
+      <c r="J44" s="186"/>
+      <c r="K44" s="186"/>
+      <c r="L44" s="186"/>
+      <c r="M44" s="186"/>
+      <c r="N44" s="186"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A45" s="122"/>
-      <c r="B45" s="93"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="124"/>
-      <c r="I45" s="124"/>
-      <c r="J45" s="124"/>
-      <c r="K45" s="124"/>
-      <c r="L45" s="124"/>
-      <c r="M45" s="124"/>
-      <c r="N45" s="124"/>
+      <c r="A45" s="145"/>
+      <c r="B45" s="176"/>
+      <c r="C45" s="187"/>
+      <c r="D45" s="187"/>
+      <c r="E45" s="187"/>
+      <c r="F45" s="187"/>
+      <c r="G45" s="187"/>
+      <c r="H45" s="187"/>
+      <c r="I45" s="187"/>
+      <c r="J45" s="187"/>
+      <c r="K45" s="187"/>
+      <c r="L45" s="187"/>
+      <c r="M45" s="187"/>
+      <c r="N45" s="187"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46" s="122"/>
-      <c r="B46" s="93"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="124"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="124"/>
-      <c r="L46" s="124"/>
-      <c r="M46" s="124"/>
-      <c r="N46" s="124"/>
+      <c r="A46" s="145"/>
+      <c r="B46" s="176"/>
+      <c r="C46" s="187"/>
+      <c r="D46" s="187"/>
+      <c r="E46" s="187"/>
+      <c r="F46" s="187"/>
+      <c r="G46" s="187"/>
+      <c r="H46" s="187"/>
+      <c r="I46" s="187"/>
+      <c r="J46" s="187"/>
+      <c r="K46" s="187"/>
+      <c r="L46" s="187"/>
+      <c r="M46" s="187"/>
+      <c r="N46" s="187"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47"/>
@@ -4744,26 +4744,26 @@
       <c r="E49" s="60"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="98" t="s">
+      <c r="A50" s="194" t="s">
         <v>134</v>
       </c>
-      <c r="B50" s="98"/>
-      <c r="C50" s="98"/>
-      <c r="D50" s="98"/>
+      <c r="B50" s="194"/>
+      <c r="C50" s="194"/>
+      <c r="D50" s="194"/>
       <c r="E50" s="60"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="98"/>
-      <c r="B51" s="98"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="98"/>
+      <c r="A51" s="194"/>
+      <c r="B51" s="194"/>
+      <c r="C51" s="194"/>
+      <c r="D51" s="194"/>
       <c r="E51" s="60"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="98"/>
-      <c r="B52" s="98"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
+      <c r="A52" s="194"/>
+      <c r="B52" s="194"/>
+      <c r="C52" s="194"/>
+      <c r="D52" s="194"/>
       <c r="E52" s="60"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -4777,26 +4777,62 @@
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataConsolidate/>
   <mergeCells count="97">
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="L30:N33"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="A50:D52"/>
+    <mergeCell ref="A43:N43"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F21:N23"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="A29:N29"/>
+    <mergeCell ref="A34:N34"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C44:N46"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D40:N42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A4:N6"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E8:N10"/>
+    <mergeCell ref="G12:N14"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="M16:N19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="L18:L19"/>
     <mergeCell ref="A1:N3"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="B30:B31"/>
@@ -4813,67 +4849,31 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A11:N11"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A4:N6"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E8:N10"/>
-    <mergeCell ref="G12:N14"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="M16:N19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C44:N46"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="L30:N33"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="J35:N35"/>
     <mergeCell ref="J32:J33"/>
-    <mergeCell ref="D40:N42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A50:D52"/>
-    <mergeCell ref="A43:N43"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F21:N23"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="A29:N29"/>
-    <mergeCell ref="A34:N34"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="K18:K19"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E37:G37 J37 C18:C19 A37:A38 P37:R38 A45:B46 F18">
@@ -4913,8 +4913,8 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4930,56 +4930,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="203" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="201"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="205"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="202"/>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="204"/>
+      <c r="A2" s="206"/>
+      <c r="B2" s="207"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="208"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="205"/>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="207"/>
+      <c r="A3" s="209"/>
+      <c r="B3" s="210"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="211"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="214" t="s">
         <v>139</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="210"/>
-      <c r="D5" s="210"/>
-      <c r="E5" s="210"/>
+      <c r="B5" s="214"/>
+      <c r="C5" s="214"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="214"/>
       <c r="F5" s="72"/>
     </row>
     <row r="6" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="210"/>
-      <c r="B6" s="210"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="210"/>
-      <c r="E6" s="210"/>
+      <c r="A6" s="214"/>
+      <c r="B6" s="214"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="214"/>
       <c r="F6" s="72"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -4993,7 +4993,7 @@
       <c r="C8" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="267" t="s">
+      <c r="D8" s="92" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="74" t="s">
@@ -5013,13 +5013,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="208" t="s">
+      <c r="A9" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="209"/>
-      <c r="C9" s="209"/>
-      <c r="D9" s="209"/>
-      <c r="E9" s="209"/>
+      <c r="B9" s="213"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
       <c r="F9" s="76"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
@@ -5058,13 +5058,13 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="197" t="s">
+      <c r="A12" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="198"/>
-      <c r="C12" s="198"/>
-      <c r="D12" s="198"/>
-      <c r="E12" s="198"/>
+      <c r="B12" s="202"/>
+      <c r="C12" s="202"/>
+      <c r="D12" s="202"/>
+      <c r="E12" s="202"/>
       <c r="F12" s="79"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -5147,13 +5147,13 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="197" t="s">
+      <c r="A17" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="198"/>
-      <c r="C17" s="198"/>
-      <c r="D17" s="198"/>
-      <c r="E17" s="198"/>
+      <c r="B17" s="202"/>
+      <c r="C17" s="202"/>
+      <c r="D17" s="202"/>
+      <c r="E17" s="202"/>
       <c r="F17" s="79"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -5165,7 +5165,9 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
       <c r="E18" s="82" t="s">
         <v>175</v>
       </c>
@@ -5183,7 +5185,7 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" s="82" t="s">
         <v>176</v>
@@ -5239,7 +5241,7 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="268" t="s">
+      <c r="D22" s="93" t="s">
         <v>184</v>
       </c>
       <c r="E22" s="82" t="s">
@@ -5253,13 +5255,13 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="197" t="s">
+      <c r="A23" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="198"/>
-      <c r="C23" s="198"/>
-      <c r="D23" s="198"/>
-      <c r="E23" s="198"/>
+      <c r="B23" s="202"/>
+      <c r="C23" s="202"/>
+      <c r="D23" s="202"/>
+      <c r="E23" s="202"/>
       <c r="F23" s="79"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -5317,13 +5319,13 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="197" t="s">
+      <c r="A27" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="198"/>
-      <c r="C27" s="198"/>
-      <c r="D27" s="198"/>
-      <c r="E27" s="198"/>
+      <c r="B27" s="202"/>
+      <c r="C27" s="202"/>
+      <c r="D27" s="202"/>
+      <c r="E27" s="202"/>
       <c r="F27" s="79"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -5355,7 +5357,7 @@
       <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="E29" s="269" t="s">
+      <c r="E29" s="94" t="s">
         <v>188</v>
       </c>
       <c r="F29" s="78"/>
@@ -5372,7 +5374,7 @@
       <c r="D30" s="1">
         <v>1</v>
       </c>
-      <c r="E30" s="266" t="s">
+      <c r="E30" s="91" t="s">
         <v>178</v>
       </c>
       <c r="F30" s="78"/>
@@ -5381,13 +5383,13 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="197" t="s">
+      <c r="A31" s="201" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="198"/>
-      <c r="C31" s="198"/>
-      <c r="D31" s="198"/>
-      <c r="E31" s="198"/>
+      <c r="B31" s="202"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="202"/>
+      <c r="E31" s="202"/>
       <c r="F31" s="79"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -5430,13 +5432,13 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="197" t="s">
+      <c r="A34" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="198"/>
-      <c r="C34" s="198"/>
-      <c r="D34" s="198"/>
-      <c r="E34" s="198"/>
+      <c r="B34" s="202"/>
+      <c r="C34" s="202"/>
+      <c r="D34" s="202"/>
+      <c r="E34" s="202"/>
       <c r="F34" s="79"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
@@ -5523,74 +5525,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="203" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="201"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="205"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="202"/>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="204"/>
+      <c r="A2" s="206"/>
+      <c r="B2" s="207"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="208"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="202"/>
-      <c r="B3" s="203"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="204"/>
+      <c r="A3" s="206"/>
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="208"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="205"/>
-      <c r="B4" s="206"/>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="206"/>
-      <c r="G4" s="206"/>
-      <c r="H4" s="206"/>
-      <c r="I4" s="207"/>
+      <c r="A4" s="209"/>
+      <c r="B4" s="210"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="210"/>
+      <c r="G4" s="210"/>
+      <c r="H4" s="210"/>
+      <c r="I4" s="211"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="214" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="210"/>
-      <c r="D5" s="210"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="210"/>
+      <c r="B5" s="214"/>
+      <c r="C5" s="214"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="214"/>
+      <c r="I5" s="214"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="210"/>
-      <c r="B6" s="210"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="210"/>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="210"/>
+      <c r="A6" s="214"/>
+      <c r="B6" s="214"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="214"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="214"/>
+      <c r="I6" s="214"/>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
@@ -5604,29 +5606,29 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="214" t="s">
+      <c r="A8" s="222" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="216" t="s">
+      <c r="B8" s="224" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="218" t="s">
+      <c r="C8" s="226" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="219" t="s">
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="227" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="219"/>
-      <c r="H8" s="219"/>
-      <c r="I8" s="211" t="s">
+      <c r="G8" s="227"/>
+      <c r="H8" s="227"/>
+      <c r="I8" s="229" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="215"/>
-      <c r="B9" s="217"/>
+      <c r="A9" s="223"/>
+      <c r="B9" s="225"/>
       <c r="C9" s="31" t="s">
         <v>32</v>
       </c>
@@ -5645,19 +5647,19 @@
       <c r="H9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="212"/>
+      <c r="I9" s="230"/>
     </row>
     <row r="10" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="220" t="s">
+      <c r="A10" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="220"/>
-      <c r="C10" s="220"/>
-      <c r="D10" s="220"/>
-      <c r="E10" s="220"/>
-      <c r="F10" s="220"/>
-      <c r="G10" s="220"/>
-      <c r="H10" s="220"/>
+      <c r="B10" s="228"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="228"/>
+      <c r="F10" s="228"/>
+      <c r="G10" s="228"/>
+      <c r="H10" s="228"/>
       <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -5714,16 +5716,16 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="213" t="s">
+      <c r="A14" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="213"/>
-      <c r="C14" s="213"/>
-      <c r="D14" s="213"/>
-      <c r="E14" s="213"/>
-      <c r="F14" s="213"/>
-      <c r="G14" s="213"/>
-      <c r="H14" s="213"/>
+      <c r="B14" s="221"/>
+      <c r="C14" s="221"/>
+      <c r="D14" s="221"/>
+      <c r="E14" s="221"/>
+      <c r="F14" s="221"/>
+      <c r="G14" s="221"/>
+      <c r="H14" s="221"/>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -5769,16 +5771,16 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="213" t="s">
+      <c r="A17" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="213"/>
-      <c r="C17" s="213"/>
-      <c r="D17" s="213"/>
-      <c r="E17" s="213"/>
-      <c r="F17" s="213"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="213"/>
+      <c r="B17" s="221"/>
+      <c r="C17" s="221"/>
+      <c r="D17" s="221"/>
+      <c r="E17" s="221"/>
+      <c r="F17" s="221"/>
+      <c r="G17" s="221"/>
+      <c r="H17" s="221"/>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -5824,16 +5826,16 @@
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="213" t="s">
+      <c r="A20" s="221" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="213"/>
-      <c r="C20" s="213"/>
-      <c r="D20" s="213"/>
-      <c r="E20" s="213"/>
-      <c r="F20" s="213"/>
-      <c r="G20" s="213"/>
-      <c r="H20" s="213"/>
+      <c r="B20" s="221"/>
+      <c r="C20" s="221"/>
+      <c r="D20" s="221"/>
+      <c r="E20" s="221"/>
+      <c r="F20" s="221"/>
+      <c r="G20" s="221"/>
+      <c r="H20" s="221"/>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -5859,16 +5861,16 @@
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="213" t="s">
+      <c r="A23" s="221" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="213"/>
-      <c r="C23" s="213"/>
-      <c r="D23" s="213"/>
-      <c r="E23" s="213"/>
-      <c r="F23" s="213"/>
-      <c r="G23" s="213"/>
-      <c r="H23" s="213"/>
+      <c r="B23" s="221"/>
+      <c r="C23" s="221"/>
+      <c r="D23" s="221"/>
+      <c r="E23" s="221"/>
+      <c r="F23" s="221"/>
+      <c r="G23" s="221"/>
+      <c r="H23" s="221"/>
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -5894,16 +5896,16 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="213" t="s">
+      <c r="A26" s="221" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="213"/>
-      <c r="C26" s="213"/>
-      <c r="D26" s="213"/>
-      <c r="E26" s="213"/>
-      <c r="F26" s="213"/>
-      <c r="G26" s="213"/>
-      <c r="H26" s="213"/>
+      <c r="B26" s="221"/>
+      <c r="C26" s="221"/>
+      <c r="D26" s="221"/>
+      <c r="E26" s="221"/>
+      <c r="F26" s="221"/>
+      <c r="G26" s="221"/>
+      <c r="H26" s="221"/>
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -5929,16 +5931,16 @@
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="213" t="s">
+      <c r="A29" s="221" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="213"/>
-      <c r="C29" s="213"/>
-      <c r="D29" s="213"/>
-      <c r="E29" s="213"/>
-      <c r="F29" s="213"/>
-      <c r="G29" s="213"/>
-      <c r="H29" s="213"/>
+      <c r="B29" s="221"/>
+      <c r="C29" s="221"/>
+      <c r="D29" s="221"/>
+      <c r="E29" s="221"/>
+      <c r="F29" s="221"/>
+      <c r="G29" s="221"/>
+      <c r="H29" s="221"/>
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -5975,78 +5977,77 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="224" t="s">
+      <c r="A33" s="218" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="225"/>
-      <c r="C33" s="225"/>
-      <c r="D33" s="225"/>
-      <c r="E33" s="225"/>
-      <c r="F33" s="226"/>
+      <c r="B33" s="219"/>
+      <c r="C33" s="219"/>
+      <c r="D33" s="219"/>
+      <c r="E33" s="219"/>
+      <c r="F33" s="220"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="224" t="s">
+      <c r="A34" s="218" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="225"/>
-      <c r="C34" s="225"/>
-      <c r="D34" s="225"/>
-      <c r="E34" s="225"/>
-      <c r="F34" s="226"/>
+      <c r="B34" s="219"/>
+      <c r="C34" s="219"/>
+      <c r="D34" s="219"/>
+      <c r="E34" s="219"/>
+      <c r="F34" s="220"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="221" t="s">
+      <c r="A35" s="215" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="222"/>
-      <c r="C35" s="222"/>
-      <c r="D35" s="222"/>
-      <c r="E35" s="222"/>
-      <c r="F35" s="223"/>
+      <c r="B35" s="216"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="216"/>
+      <c r="E35" s="216"/>
+      <c r="F35" s="217"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="221" t="s">
+      <c r="A36" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="222"/>
-      <c r="C36" s="222"/>
-      <c r="D36" s="222"/>
-      <c r="E36" s="222"/>
-      <c r="F36" s="223"/>
+      <c r="B36" s="216"/>
+      <c r="C36" s="216"/>
+      <c r="D36" s="216"/>
+      <c r="E36" s="216"/>
+      <c r="F36" s="217"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="221" t="s">
+      <c r="A37" s="215" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="222"/>
-      <c r="C37" s="222"/>
-      <c r="D37" s="222"/>
-      <c r="E37" s="222"/>
-      <c r="F37" s="223"/>
+      <c r="B37" s="216"/>
+      <c r="C37" s="216"/>
+      <c r="D37" s="216"/>
+      <c r="E37" s="216"/>
+      <c r="F37" s="217"/>
       <c r="G37" s="7"/>
       <c r="H37" s="14"/>
       <c r="I37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A5:I6"/>
+    <mergeCell ref="A1:I4"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A23:H23"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -6055,11 +6056,12 @@
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A17:H17"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A5:I6"/>
-    <mergeCell ref="A1:I4"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6087,73 +6089,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="155"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="125"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="156"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="158"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="128"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="159"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="161"/>
+      <c r="A3" s="129"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="131"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="214" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="210"/>
-      <c r="D5" s="210"/>
-      <c r="E5" s="210"/>
-      <c r="F5" s="210"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="210"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="210"/>
-      <c r="K5" s="210"/>
+      <c r="B5" s="214"/>
+      <c r="C5" s="214"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="214"/>
+      <c r="H5" s="214"/>
+      <c r="I5" s="214"/>
+      <c r="J5" s="214"/>
+      <c r="K5" s="214"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="210"/>
-      <c r="B6" s="210"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="210"/>
-      <c r="E6" s="210"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="210"/>
-      <c r="J6" s="210"/>
-      <c r="K6" s="210"/>
+      <c r="A6" s="214"/>
+      <c r="B6" s="214"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="214"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="214"/>
+      <c r="I6" s="214"/>
+      <c r="J6" s="214"/>
+      <c r="K6" s="214"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9"/>
@@ -6169,119 +6171,119 @@
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="260"/>
-      <c r="B8" s="261"/>
-      <c r="C8" s="262"/>
-      <c r="D8" s="257" t="s">
+      <c r="A8" s="237"/>
+      <c r="B8" s="238"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="234" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="258"/>
-      <c r="F8" s="258"/>
-      <c r="G8" s="258"/>
-      <c r="H8" s="258"/>
-      <c r="I8" s="258"/>
-      <c r="J8" s="258"/>
-      <c r="K8" s="259"/>
+      <c r="E8" s="235"/>
+      <c r="F8" s="235"/>
+      <c r="G8" s="235"/>
+      <c r="H8" s="235"/>
+      <c r="I8" s="235"/>
+      <c r="J8" s="235"/>
+      <c r="K8" s="236"/>
     </row>
     <row r="9" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="239" t="s">
+      <c r="A9" s="240" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="240"/>
-      <c r="C9" s="241"/>
-      <c r="D9" s="245">
+      <c r="B9" s="241"/>
+      <c r="C9" s="242"/>
+      <c r="D9" s="243">
         <v>380</v>
       </c>
-      <c r="E9" s="246"/>
-      <c r="F9" s="246"/>
-      <c r="G9" s="246"/>
-      <c r="H9" s="246"/>
-      <c r="I9" s="246"/>
-      <c r="J9" s="246"/>
-      <c r="K9" s="247"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="244"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="245"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="239" t="s">
+      <c r="A10" s="240" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="240"/>
-      <c r="C10" s="241"/>
-      <c r="D10" s="245">
+      <c r="B10" s="241"/>
+      <c r="C10" s="242"/>
+      <c r="D10" s="243">
         <v>35</v>
       </c>
-      <c r="E10" s="246"/>
-      <c r="F10" s="246"/>
-      <c r="G10" s="246"/>
-      <c r="H10" s="246"/>
-      <c r="I10" s="246"/>
-      <c r="J10" s="246"/>
-      <c r="K10" s="247"/>
+      <c r="E10" s="244"/>
+      <c r="F10" s="244"/>
+      <c r="G10" s="244"/>
+      <c r="H10" s="244"/>
+      <c r="I10" s="244"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="245"/>
     </row>
     <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="239" t="s">
+      <c r="A11" s="240" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="240"/>
-      <c r="C11" s="241"/>
-      <c r="D11" s="245" t="s">
+      <c r="B11" s="241"/>
+      <c r="C11" s="242"/>
+      <c r="D11" s="243" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="246"/>
-      <c r="F11" s="246"/>
-      <c r="G11" s="246"/>
-      <c r="H11" s="246"/>
-      <c r="I11" s="246"/>
-      <c r="J11" s="246"/>
-      <c r="K11" s="247"/>
+      <c r="E11" s="244"/>
+      <c r="F11" s="244"/>
+      <c r="G11" s="244"/>
+      <c r="H11" s="244"/>
+      <c r="I11" s="244"/>
+      <c r="J11" s="244"/>
+      <c r="K11" s="245"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="239" t="s">
+      <c r="A12" s="240" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="240"/>
-      <c r="C12" s="241"/>
-      <c r="D12" s="245">
+      <c r="B12" s="241"/>
+      <c r="C12" s="242"/>
+      <c r="D12" s="243">
         <v>95</v>
       </c>
-      <c r="E12" s="246"/>
-      <c r="F12" s="246"/>
-      <c r="G12" s="246"/>
-      <c r="H12" s="246"/>
-      <c r="I12" s="246"/>
-      <c r="J12" s="246"/>
-      <c r="K12" s="247"/>
+      <c r="E12" s="244"/>
+      <c r="F12" s="244"/>
+      <c r="G12" s="244"/>
+      <c r="H12" s="244"/>
+      <c r="I12" s="244"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="245"/>
     </row>
     <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="239" t="s">
+      <c r="A13" s="240" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="240"/>
-      <c r="C13" s="241"/>
-      <c r="D13" s="245" t="s">
+      <c r="B13" s="241"/>
+      <c r="C13" s="242"/>
+      <c r="D13" s="243" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="246"/>
-      <c r="F13" s="246"/>
-      <c r="G13" s="246"/>
-      <c r="H13" s="246"/>
-      <c r="I13" s="246"/>
-      <c r="J13" s="246"/>
-      <c r="K13" s="247"/>
+      <c r="E13" s="244"/>
+      <c r="F13" s="244"/>
+      <c r="G13" s="244"/>
+      <c r="H13" s="244"/>
+      <c r="I13" s="244"/>
+      <c r="J13" s="244"/>
+      <c r="K13" s="245"/>
     </row>
     <row r="14" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="242" t="s">
+      <c r="A14" s="267" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="243"/>
-      <c r="C14" s="244"/>
-      <c r="D14" s="248"/>
-      <c r="E14" s="249"/>
-      <c r="F14" s="249"/>
-      <c r="G14" s="249"/>
-      <c r="H14" s="249"/>
-      <c r="I14" s="249"/>
-      <c r="J14" s="249"/>
-      <c r="K14" s="250"/>
+      <c r="B14" s="268"/>
+      <c r="C14" s="269"/>
+      <c r="D14" s="246"/>
+      <c r="E14" s="247"/>
+      <c r="F14" s="247"/>
+      <c r="G14" s="247"/>
+      <c r="H14" s="247"/>
+      <c r="I14" s="247"/>
+      <c r="J14" s="247"/>
+      <c r="K14" s="248"/>
     </row>
     <row r="15" spans="1:11" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
@@ -6298,55 +6300,55 @@
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="237"/>
-      <c r="B17" s="238"/>
-      <c r="C17" s="238"/>
-      <c r="D17" s="255" t="s">
+      <c r="A17" s="265"/>
+      <c r="B17" s="266"/>
+      <c r="C17" s="266"/>
+      <c r="D17" s="253" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="255"/>
-      <c r="F17" s="255"/>
-      <c r="G17" s="255"/>
-      <c r="H17" s="255"/>
-      <c r="I17" s="255"/>
-      <c r="J17" s="255"/>
-      <c r="K17" s="256"/>
+      <c r="E17" s="253"/>
+      <c r="F17" s="253"/>
+      <c r="G17" s="253"/>
+      <c r="H17" s="253"/>
+      <c r="I17" s="253"/>
+      <c r="J17" s="253"/>
+      <c r="K17" s="254"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="227" t="s">
+      <c r="A18" s="255" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="229" t="s">
+      <c r="B18" s="257" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="231" t="s">
+      <c r="C18" s="259" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="233" t="s">
+      <c r="D18" s="261" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="233" t="s">
+      <c r="E18" s="261" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="235"/>
-      <c r="G18" s="235"/>
-      <c r="H18" s="251"/>
-      <c r="I18" s="251"/>
-      <c r="J18" s="251"/>
-      <c r="K18" s="253"/>
+      <c r="F18" s="263"/>
+      <c r="G18" s="263"/>
+      <c r="H18" s="249"/>
+      <c r="I18" s="249"/>
+      <c r="J18" s="249"/>
+      <c r="K18" s="251"/>
     </row>
     <row r="19" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="228"/>
-      <c r="B19" s="230"/>
-      <c r="C19" s="232"/>
-      <c r="D19" s="234"/>
-      <c r="E19" s="234"/>
-      <c r="F19" s="236"/>
-      <c r="G19" s="236"/>
-      <c r="H19" s="252"/>
-      <c r="I19" s="252"/>
-      <c r="J19" s="252"/>
-      <c r="K19" s="254"/>
+      <c r="A19" s="256"/>
+      <c r="B19" s="258"/>
+      <c r="C19" s="260"/>
+      <c r="D19" s="262"/>
+      <c r="E19" s="262"/>
+      <c r="F19" s="264"/>
+      <c r="G19" s="264"/>
+      <c r="H19" s="250"/>
+      <c r="I19" s="250"/>
+      <c r="J19" s="250"/>
+      <c r="K19" s="252"/>
     </row>
     <row r="20" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="s">
@@ -6535,11 +6537,11 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="263" t="s">
+      <c r="A32" s="231" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="264"/>
-      <c r="C32" s="265"/>
+      <c r="B32" s="232"/>
+      <c r="C32" s="233"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -6550,11 +6552,11 @@
       <c r="K32" s="13"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="263" t="s">
+      <c r="A33" s="231" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="264"/>
-      <c r="C33" s="265"/>
+      <c r="B33" s="232"/>
+      <c r="C33" s="233"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
@@ -6565,11 +6567,11 @@
       <c r="K33" s="13"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="263" t="s">
+      <c r="A34" s="231" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="264"/>
-      <c r="C34" s="265"/>
+      <c r="B34" s="232"/>
+      <c r="C34" s="233"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
@@ -6580,11 +6582,11 @@
       <c r="K34" s="13"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="263" t="s">
+      <c r="A35" s="231" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="264"/>
-      <c r="C35" s="265"/>
+      <c r="B35" s="232"/>
+      <c r="C35" s="233"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -6595,11 +6597,11 @@
       <c r="K35" s="13"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="263" t="s">
+      <c r="A36" s="231" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="264"/>
-      <c r="C36" s="265"/>
+      <c r="B36" s="232"/>
+      <c r="C36" s="233"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -6611,24 +6613,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="D17:K17"/>
     <mergeCell ref="A1:K3"/>
     <mergeCell ref="A5:K6"/>
     <mergeCell ref="A18:A19"/>
@@ -6645,6 +6629,24 @@
     <mergeCell ref="D9:K9"/>
     <mergeCell ref="D10:K10"/>
     <mergeCell ref="D11:K11"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6668,51 +6670,51 @@
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="155"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="125"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="156"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="158"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="128"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="159"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="161"/>
+      <c r="A3" s="129"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="131"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="61" t="s">
@@ -6771,51 +6773,51 @@
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="155"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="125"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="156"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="158"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="128"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="159"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="161"/>
+      <c r="A3" s="129"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="131"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="61" t="s">
